--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-31.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H2" t="n">
         <v>5.1</v>
@@ -691,46 +691,46 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="S2" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="T2" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="V2" t="n">
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
         <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB2" t="n">
         <v>12</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
         <v>4.7</v>
@@ -814,7 +814,7 @@
         <v>2.12</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
         <v>3.75</v>
@@ -826,28 +826,28 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="O3" t="n">
         <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
         <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V3" t="n">
         <v>1.89</v>
@@ -883,7 +883,7 @@
         <v>38</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
         <v>24</v>
@@ -898,7 +898,7 @@
         <v>70</v>
       </c>
       <c r="AL3" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G4" t="n">
         <v>2.06</v>
@@ -946,7 +946,7 @@
         <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
@@ -985,7 +985,7 @@
         <v>2.68</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W4" t="n">
         <v>1.94</v>
@@ -1006,7 +1006,7 @@
         <v>16.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
         <v>18.5</v>
@@ -1075,7 +1075,7 @@
         <v>2.48</v>
       </c>
       <c r="G5" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="H5" t="n">
         <v>2.88</v>
@@ -1084,7 +1084,7 @@
         <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
         <v>3.95</v>
@@ -1123,7 +1123,7 @@
         <v>1.52</v>
       </c>
       <c r="W5" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="X5" t="n">
         <v>20</v>
@@ -1144,7 +1144,7 @@
         <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE5" t="n">
         <v>34</v>
@@ -1156,7 +1156,7 @@
         <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI5" t="n">
         <v>38</v>
@@ -1483,7 +1483,7 @@
         <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="I8" t="n">
         <v>2.08</v>
@@ -1495,7 +1495,7 @@
         <v>3.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1513,7 +1513,7 @@
         <v>1.84</v>
       </c>
       <c r="R8" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S8" t="n">
         <v>3.1</v>
@@ -1531,7 +1531,7 @@
         <v>1.32</v>
       </c>
       <c r="X8" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
         <v>10.5</v>
@@ -1558,7 +1558,7 @@
         <v>980</v>
       </c>
       <c r="AG8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
         <v>980</v>
@@ -1567,7 +1567,7 @@
         <v>36</v>
       </c>
       <c r="AJ8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="n">
         <v>48</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>2.68</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G10" t="n">
         <v>1.56</v>
@@ -1756,7 +1756,7 @@
         <v>7.6</v>
       </c>
       <c r="I10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J10" t="n">
         <v>4.3</v>
@@ -1888,7 +1888,7 @@
         <v>2.88</v>
       </c>
       <c r="H11" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I11" t="n">
         <v>2.96</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="G12" t="n">
         <v>2.24</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G17" t="n">
         <v>2.2</v>
@@ -2701,13 +2701,13 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G18" t="n">
         <v>2.18</v>
@@ -2836,7 +2836,7 @@
         <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J18" t="n">
         <v>3.35</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="Q18" t="n">
         <v>2.06</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G19" t="n">
         <v>2.9</v>
@@ -2974,10 +2974,10 @@
         <v>2.94</v>
       </c>
       <c r="J19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.25</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>3.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P19" t="n">
         <v>1.73</v>
@@ -3004,7 +3004,7 @@
         <v>4.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U19" t="n">
         <v>2.02</v>
@@ -3019,7 +3019,7 @@
         <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z19" t="n">
         <v>18.5</v>
@@ -3037,7 +3037,7 @@
         <v>13.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="n">
         <v>17.5</v>
@@ -3052,22 +3052,22 @@
         <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK19" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL19" t="n">
         <v>65</v>
       </c>
       <c r="AM19" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO19" t="n">
         <v>38</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G27" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="H27" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>3.65</v>
+        <v>950</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="G29" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="G30" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H30" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="I30" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>2.84</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>950</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>3.8</v>
       </c>
       <c r="K32" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q32" t="n">
         <v>1.78</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="G33" t="n">
         <v>1000</v>
       </c>
       <c r="H33" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I33" t="n">
         <v>1000</v>
@@ -5149,16 +5149,16 @@
         <v>3.15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P35" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q35" t="n">
         <v>2.34</v>
       </c>
       <c r="R35" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S35" t="n">
         <v>4.5</v>
@@ -5200,7 +5200,7 @@
         <v>34</v>
       </c>
       <c r="AF35" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG35" t="n">
         <v>14</v>
@@ -5218,16 +5218,16 @@
         <v>42</v>
       </c>
       <c r="AL35" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM35" t="n">
         <v>150</v>
       </c>
       <c r="AN35" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO35" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -5401,10 +5401,10 @@
         <v>2.1</v>
       </c>
       <c r="I37" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K37" t="n">
         <v>3.6</v>
@@ -5533,7 +5533,7 @@
         <v>3.15</v>
       </c>
       <c r="H38" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I38" t="n">
         <v>2.4</v>
@@ -5551,28 +5551,28 @@
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O38" t="n">
         <v>1.19</v>
       </c>
       <c r="P38" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R38" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S38" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T38" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U38" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>25</v>
       </c>
       <c r="Y38" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z38" t="n">
         <v>19.5</v>
@@ -5611,10 +5611,10 @@
         <v>14</v>
       </c>
       <c r="AH38" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AJ38" t="n">
         <v>55</v>
@@ -5626,13 +5626,13 @@
         <v>34</v>
       </c>
       <c r="AM38" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN38" t="n">
         <v>19</v>
       </c>
       <c r="AO38" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -5668,16 +5668,16 @@
         <v>2.58</v>
       </c>
       <c r="H39" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I39" t="n">
         <v>3.05</v>
       </c>
       <c r="J39" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K39" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.7</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5686,28 +5686,28 @@
         <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O39" t="n">
         <v>1.24</v>
       </c>
       <c r="P39" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q39" t="n">
         <v>1.74</v>
       </c>
       <c r="R39" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S39" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T39" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U39" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -5716,13 +5716,13 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y39" t="n">
         <v>15.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA39" t="n">
         <v>48</v>
@@ -5737,7 +5737,7 @@
         <v>13.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AF39" t="n">
         <v>19</v>
@@ -5749,7 +5749,7 @@
         <v>15</v>
       </c>
       <c r="AI39" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ39" t="n">
         <v>36</v>
@@ -5761,7 +5761,7 @@
         <v>34</v>
       </c>
       <c r="AM39" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN39" t="n">
         <v>17</v>
@@ -5842,7 +5842,7 @@
         <v>1.8</v>
       </c>
       <c r="U40" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -5956,16 +5956,16 @@
         <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O41" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P41" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R41" t="n">
         <v>1.25</v>
@@ -5977,7 +5977,7 @@
         <v>2.06</v>
       </c>
       <c r="U41" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y41" t="n">
         <v>13</v>
@@ -6025,7 +6025,7 @@
         <v>27</v>
       </c>
       <c r="AK41" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL41" t="n">
         <v>50</v>
@@ -6034,7 +6034,7 @@
         <v>180</v>
       </c>
       <c r="AN41" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO41" t="n">
         <v>110</v>
@@ -6067,13 +6067,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="G42" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="H42" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I42" t="n">
         <v>6.2</v>
@@ -6082,7 +6082,7 @@
         <v>4.7</v>
       </c>
       <c r="K42" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O42" t="n">
         <v>1.18</v>
@@ -6103,16 +6103,16 @@
         <v>1.56</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="S42" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T42" t="n">
         <v>1.68</v>
       </c>
       <c r="U42" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -6124,13 +6124,13 @@
         <v>28</v>
       </c>
       <c r="Y42" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z42" t="n">
         <v>55</v>
       </c>
       <c r="AA42" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB42" t="n">
         <v>12.5</v>
@@ -6151,7 +6151,7 @@
         <v>10.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI42" t="n">
         <v>60</v>
@@ -6169,7 +6169,7 @@
         <v>75</v>
       </c>
       <c r="AN42" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AO42" t="n">
         <v>60</v>
@@ -6259,7 +6259,7 @@
         <v>15</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z43" t="n">
         <v>8.4</v>
@@ -6298,13 +6298,13 @@
         <v>120</v>
       </c>
       <c r="AL43" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM43" t="n">
         <v>150</v>
       </c>
       <c r="AN43" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AO43" t="n">
         <v>9</v>
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H45" t="n">
         <v>2.68</v>
@@ -6505,7 +6505,7 @@
         <v>1.82</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G46" t="n">
         <v>4.6</v>
@@ -6616,10 +6616,10 @@
         <v>1.89</v>
       </c>
       <c r="I46" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="J46" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K46" t="n">
         <v>4.2</v>
@@ -6745,10 +6745,10 @@
         <v>2.16</v>
       </c>
       <c r="G47" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="H47" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I47" t="n">
         <v>4.6</v>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q47" t="n">
         <v>2</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="G48" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="H48" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="I48" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="J48" t="n">
         <v>2.98</v>
       </c>
       <c r="K48" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -6907,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1.69</v>
+        <v>1.24</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -7012,19 +7012,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G49" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H49" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I49" t="n">
         <v>2.9</v>
       </c>
       <c r="J49" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="K49" t="n">
         <v>3.7</v>
@@ -7042,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7153,16 +7153,16 @@
         <v>2.58</v>
       </c>
       <c r="H50" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I50" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>1.66</v>
       </c>
       <c r="K50" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>2.36</v>
       </c>
       <c r="I51" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J51" t="n">
         <v>3.7</v>
@@ -7339,7 +7339,7 @@
         <v>19</v>
       </c>
       <c r="Y51" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z51" t="n">
         <v>16.5</v>
@@ -7369,7 +7369,7 @@
         <v>14.5</v>
       </c>
       <c r="AI51" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ51" t="n">
         <v>55</v>
@@ -7378,7 +7378,7 @@
         <v>34</v>
       </c>
       <c r="AL51" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM51" t="n">
         <v>65</v>
@@ -7387,7 +7387,7 @@
         <v>27</v>
       </c>
       <c r="AO51" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="52">
@@ -7417,19 +7417,19 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G52" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="H52" t="n">
         <v>5.1</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J52" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K52" t="n">
         <v>4.1</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G53" t="n">
         <v>1.65</v>
@@ -7720,7 +7720,7 @@
         <v>2.36</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7822,13 +7822,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G55" t="n">
         <v>1.97</v>
       </c>
       <c r="H55" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I55" t="n">
         <v>4.5</v>
@@ -7906,10 +7906,10 @@
         <v>10.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ55" t="n">
         <v>22</v>
@@ -7963,13 +7963,13 @@
         <v>2.88</v>
       </c>
       <c r="H56" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J56" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K56" t="n">
         <v>6</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8242,7 +8242,7 @@
         <v>4.9</v>
       </c>
       <c r="K58" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8371,10 +8371,10 @@
         <v>1.04</v>
       </c>
       <c r="I59" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="J59" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K59" t="n">
         <v>950</v>
@@ -8395,7 +8395,7 @@
         <v>2.32</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G62" t="n">
         <v>2.98</v>
@@ -8800,7 +8800,7 @@
         <v>2.02</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R62" t="n">
         <v>1.41</v>
@@ -8827,10 +8827,10 @@
         <v>12</v>
       </c>
       <c r="Z62" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA62" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB62" t="n">
         <v>13</v>
@@ -8851,7 +8851,7 @@
         <v>13.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI62" t="n">
         <v>40</v>
@@ -8860,7 +8860,7 @@
         <v>50</v>
       </c>
       <c r="AK62" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL62" t="n">
         <v>42</v>
@@ -8917,7 +8917,7 @@
         <v>3.4</v>
       </c>
       <c r="K63" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -9040,7 +9040,7 @@
         <v>2.34</v>
       </c>
       <c r="G64" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H64" t="n">
         <v>3.7</v>
@@ -9322,7 +9322,7 @@
         <v>3.7</v>
       </c>
       <c r="K66" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -9472,10 +9472,10 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
@@ -9607,19 +9607,19 @@
         <v>1.26</v>
       </c>
       <c r="P68" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R68" t="n">
         <v>1.48</v>
       </c>
       <c r="S68" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T68" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U68" t="n">
         <v>2.3</v>
@@ -9637,7 +9637,7 @@
         <v>11</v>
       </c>
       <c r="Z68" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA68" t="n">
         <v>25</v>
@@ -9652,19 +9652,19 @@
         <v>10.5</v>
       </c>
       <c r="AE68" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF68" t="n">
         <v>32</v>
       </c>
       <c r="AG68" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH68" t="n">
         <v>18.5</v>
       </c>
       <c r="AI68" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ68" t="n">
         <v>95</v>
@@ -9676,7 +9676,7 @@
         <v>55</v>
       </c>
       <c r="AM68" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN68" t="n">
         <v>46</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G70" t="n">
         <v>2.64</v>
       </c>
       <c r="H70" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I70" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J70" t="n">
         <v>3.5</v>
       </c>
       <c r="K70" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -10117,19 +10117,19 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G72" t="n">
         <v>2.7</v>
       </c>
       <c r="H72" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="I72" t="n">
         <v>3.1</v>
       </c>
       <c r="J72" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K72" t="n">
         <v>4.1</v>
@@ -10552,10 +10552,10 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -10747,7 +10747,7 @@
         <v>100</v>
       </c>
       <c r="AJ76" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK76" t="n">
         <v>19.5</v>
@@ -10930,16 +10930,16 @@
         <v>6</v>
       </c>
       <c r="G78" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H78" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I78" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="J78" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K78" t="n">
         <v>4.5</v>
@@ -10951,13 +10951,13 @@
         <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O78" t="n">
         <v>1.25</v>
       </c>
       <c r="P78" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q78" t="n">
         <v>1.77</v>
@@ -10972,7 +10972,7 @@
         <v>1.84</v>
       </c>
       <c r="U78" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V78" t="n">
         <v>0</v>
@@ -10984,16 +10984,16 @@
         <v>20</v>
       </c>
       <c r="Y78" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z78" t="n">
         <v>10.5</v>
       </c>
       <c r="AA78" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB78" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC78" t="n">
         <v>10</v>
@@ -11011,7 +11011,7 @@
         <v>24</v>
       </c>
       <c r="AH78" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI78" t="n">
         <v>34</v>
@@ -11020,7 +11020,7 @@
         <v>190</v>
       </c>
       <c r="AK78" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL78" t="n">
         <v>80</v>
@@ -11029,10 +11029,10 @@
         <v>120</v>
       </c>
       <c r="AN78" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AO78" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
@@ -11071,7 +11071,7 @@
         <v>2.46</v>
       </c>
       <c r="I79" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="J79" t="n">
         <v>3.25</v>
@@ -11227,7 +11227,7 @@
         <v>1.19</v>
       </c>
       <c r="P80" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q80" t="n">
         <v>1.59</v>
@@ -11356,28 +11356,28 @@
         <v>1.02</v>
       </c>
       <c r="N81" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="O81" t="n">
         <v>1.11</v>
       </c>
       <c r="P81" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R81" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="S81" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T81" t="n">
         <v>1.69</v>
       </c>
       <c r="U81" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V81" t="n">
         <v>0</v>
@@ -11428,7 +11428,7 @@
         <v>130</v>
       </c>
       <c r="AL81" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM81" t="n">
         <v>90</v>
@@ -11437,7 +11437,7 @@
         <v>90</v>
       </c>
       <c r="AO81" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="82">
@@ -11470,7 +11470,7 @@
         <v>2.4</v>
       </c>
       <c r="G82" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="H82" t="n">
         <v>2.96</v>
@@ -11626,7 +11626,7 @@
         <v>1.08</v>
       </c>
       <c r="N83" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O83" t="n">
         <v>1.37</v>
@@ -11677,7 +11677,7 @@
         <v>20</v>
       </c>
       <c r="AE83" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF83" t="n">
         <v>11.5</v>
@@ -11698,7 +11698,7 @@
         <v>23</v>
       </c>
       <c r="AL83" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM83" t="n">
         <v>150</v>
@@ -11707,7 +11707,7 @@
         <v>17.5</v>
       </c>
       <c r="AO83" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84">
@@ -11737,7 +11737,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G84" t="n">
         <v>2.86</v>
@@ -11749,7 +11749,7 @@
         <v>3.2</v>
       </c>
       <c r="J84" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K84" t="n">
         <v>3.55</v>
@@ -11770,7 +11770,7 @@
         <v>1.79</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -11905,7 +11905,7 @@
         <v>1.75</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -12037,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q86" t="n">
         <v>1.93</v>
@@ -12148,10 +12148,10 @@
         <v>2.38</v>
       </c>
       <c r="H87" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I87" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J87" t="n">
         <v>2.84</v>
@@ -12412,22 +12412,22 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="G89" t="n">
         <v>1.7</v>
       </c>
       <c r="H89" t="n">
-        <v>5.8</v>
+        <v>1.09</v>
       </c>
       <c r="I89" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="J89" t="n">
         <v>4.2</v>
       </c>
       <c r="K89" t="n">
-        <v>4.7</v>
+        <v>950</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="Q89" t="n">
         <v>1.64</v>
@@ -12547,22 +12547,22 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="G90" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="H90" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I90" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="J90" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="K90" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G91" t="n">
         <v>2.68</v>
@@ -12712,10 +12712,10 @@
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>2.74</v>
       </c>
       <c r="O92" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P92" t="n">
         <v>1.56</v>
@@ -12877,7 +12877,7 @@
         <v>11</v>
       </c>
       <c r="Z92" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA92" t="n">
         <v>110</v>
@@ -12892,7 +12892,7 @@
         <v>19</v>
       </c>
       <c r="AE92" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF92" t="n">
         <v>13.5</v>
@@ -12907,13 +12907,13 @@
         <v>110</v>
       </c>
       <c r="AJ92" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AK92" t="n">
         <v>36</v>
       </c>
       <c r="AL92" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM92" t="n">
         <v>220</v>
@@ -12952,22 +12952,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="G93" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="H93" t="n">
-        <v>3.95</v>
+        <v>1.79</v>
       </c>
       <c r="I93" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J93" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K93" t="n">
-        <v>3.8</v>
+        <v>950</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -12982,10 +12982,10 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -13087,10 +13087,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H94" t="n">
         <v>1.36</v>
@@ -13111,7 +13111,7 @@
         <v>1.02</v>
       </c>
       <c r="N94" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="O94" t="n">
         <v>1.12</v>
@@ -13120,19 +13120,19 @@
         <v>3.5</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R94" t="n">
         <v>2.02</v>
       </c>
       <c r="S94" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="T94" t="n">
         <v>1.65</v>
       </c>
       <c r="U94" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V94" t="n">
         <v>0</v>
@@ -13180,7 +13180,7 @@
         <v>280</v>
       </c>
       <c r="AK94" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AL94" t="n">
         <v>85</v>
@@ -13222,10 +13222,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G95" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H95" t="n">
         <v>4.4</v>
@@ -13252,7 +13252,7 @@
         <v>1.22</v>
       </c>
       <c r="P95" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q95" t="n">
         <v>1.68</v>
@@ -13294,7 +13294,7 @@
         <v>9.4</v>
       </c>
       <c r="AD95" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE95" t="n">
         <v>48</v>
@@ -13363,16 +13363,16 @@
         <v>2.88</v>
       </c>
       <c r="H96" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I96" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="J96" t="n">
         <v>3.65</v>
       </c>
       <c r="K96" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -13495,16 +13495,16 @@
         <v>4.7</v>
       </c>
       <c r="G97" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H97" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="I97" t="n">
         <v>1.88</v>
       </c>
       <c r="J97" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K97" t="n">
         <v>4.1</v>
@@ -13522,10 +13522,10 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -13651,7 +13651,7 @@
         <v>1.03</v>
       </c>
       <c r="N98" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O98" t="n">
         <v>1.17</v>
@@ -13663,16 +13663,16 @@
         <v>1.53</v>
       </c>
       <c r="R98" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S98" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T98" t="n">
         <v>1.53</v>
       </c>
       <c r="U98" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="V98" t="n">
         <v>0</v>
@@ -13714,7 +13714,7 @@
         <v>17</v>
       </c>
       <c r="AI98" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AJ98" t="n">
         <v>30</v>
@@ -13729,10 +13729,10 @@
         <v>55</v>
       </c>
       <c r="AN98" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO98" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="G99" t="n">
         <v>1.91</v>
@@ -13897,7 +13897,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G100" t="n">
         <v>2.28</v>
@@ -13912,7 +13912,7 @@
         <v>3.3</v>
       </c>
       <c r="K100" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -13927,10 +13927,10 @@
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -14302,13 +14302,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="G103" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="H103" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="I103" t="n">
         <v>3.5</v>
@@ -14437,7 +14437,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G104" t="n">
         <v>1.7</v>
@@ -14467,10 +14467,10 @@
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -14707,16 +14707,16 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="G106" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="H106" t="n">
         <v>4.9</v>
       </c>
       <c r="I106" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="J106" t="n">
         <v>3.65</v>
@@ -14980,10 +14980,10 @@
         <v>2.06</v>
       </c>
       <c r="G108" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H108" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="I108" t="n">
         <v>1.94</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-31.xlsx
@@ -700,13 +700,13 @@
         <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
         <v>1.55</v>
       </c>
       <c r="S2" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T2" t="n">
         <v>1.67</v>
@@ -718,7 +718,7 @@
         <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
@@ -814,10 +814,10 @@
         <v>2.12</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -850,7 +850,7 @@
         <v>1.84</v>
       </c>
       <c r="V3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W3" t="n">
         <v>1.27</v>
@@ -946,7 +946,7 @@
         <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
@@ -955,7 +955,7 @@
         <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -970,7 +970,7 @@
         <v>2.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R4" t="n">
         <v>1.65</v>
@@ -985,7 +985,7 @@
         <v>2.68</v>
       </c>
       <c r="V4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
         <v>1.94</v>
@@ -1015,7 +1015,7 @@
         <v>40</v>
       </c>
       <c r="AF4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
@@ -1078,7 +1078,7 @@
         <v>2.62</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
         <v>2.9</v>
@@ -1108,7 +1108,7 @@
         <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S5" t="n">
         <v>2.74</v>
@@ -1117,7 +1117,7 @@
         <v>1.62</v>
       </c>
       <c r="U5" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V5" t="n">
         <v>1.52</v>
@@ -1129,7 +1129,7 @@
         <v>20</v>
       </c>
       <c r="Y5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
         <v>23</v>
@@ -1144,10 +1144,10 @@
         <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AF5" t="n">
         <v>18.5</v>
@@ -1156,7 +1156,7 @@
         <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
         <v>38</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G6" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G7" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I7" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="Q7" t="n">
         <v>1.47</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H8" t="n">
         <v>2.02</v>
       </c>
       <c r="I8" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="R8" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="T8" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
         <v>2.24</v>
       </c>
       <c r="V8" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="W8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AJ8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q9" t="n">
         <v>2.18</v>
@@ -1888,7 +1888,7 @@
         <v>2.88</v>
       </c>
       <c r="H11" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I11" t="n">
         <v>2.96</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H12" t="n">
         <v>3.7</v>
@@ -2029,7 +2029,7 @@
         <v>4.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
         <v>3.75</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q12" t="n">
         <v>1.64</v>
@@ -2185,7 +2185,7 @@
         <v>2.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H14" t="n">
         <v>2.42</v>
@@ -2299,10 +2299,10 @@
         <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K14" t="n">
-        <v>5.3</v>
+        <v>3.45</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>1.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J17" t="n">
         <v>3.2</v>
@@ -2725,7 +2725,7 @@
         <v>1.68</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2986,28 +2986,28 @@
         <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P19" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R19" t="n">
         <v>1.27</v>
       </c>
       <c r="S19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,16 +3016,16 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z19" t="n">
         <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB19" t="n">
         <v>9.6</v>
@@ -3061,13 +3061,13 @@
         <v>65</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO19" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -3100,7 +3100,7 @@
         <v>1.81</v>
       </c>
       <c r="G20" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="H20" t="n">
         <v>3.85</v>
@@ -3109,7 +3109,7 @@
         <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
         <v>4.6</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G27" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I27" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>950</v>
+        <v>3.65</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G29" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H29" t="n">
         <v>3.45</v>
       </c>
       <c r="I29" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J29" t="n">
         <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I30" t="n">
         <v>2.86</v>
       </c>
-      <c r="G30" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.96</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>950</v>
+        <v>3.65</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.25</v>
+        <v>1.84</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q31" t="n">
         <v>2.32</v>
@@ -4723,13 +4723,13 @@
         <v>1.95</v>
       </c>
       <c r="H32" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I32" t="n">
         <v>4.7</v>
       </c>
       <c r="J32" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K32" t="n">
         <v>4.2</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q32" t="n">
         <v>1.78</v>
@@ -4990,10 +4990,10 @@
         <v>1.38</v>
       </c>
       <c r="G34" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I34" t="n">
         <v>24</v>
@@ -5020,7 +5020,7 @@
         <v>2.14</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5125,10 +5125,10 @@
         <v>3.15</v>
       </c>
       <c r="G35" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I35" t="n">
         <v>2.68</v>
@@ -5398,13 +5398,13 @@
         <v>4.3</v>
       </c>
       <c r="H37" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I37" t="n">
         <v>2.3</v>
       </c>
       <c r="J37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K37" t="n">
         <v>3.6</v>
@@ -5425,7 +5425,7 @@
         <v>1.7</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5551,7 +5551,7 @@
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O38" t="n">
         <v>1.19</v>
@@ -5560,13 +5560,13 @@
         <v>2.62</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R38" t="n">
         <v>1.65</v>
       </c>
       <c r="S38" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T38" t="n">
         <v>1.53</v>
@@ -5608,7 +5608,7 @@
         <v>26</v>
       </c>
       <c r="AG38" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH38" t="n">
         <v>14.5</v>
@@ -5668,16 +5668,16 @@
         <v>2.58</v>
       </c>
       <c r="H39" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="I39" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J39" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K39" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1.43</v>
       </c>
       <c r="S40" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T40" t="n">
         <v>1.8</v>
@@ -5962,7 +5962,7 @@
         <v>1.47</v>
       </c>
       <c r="P41" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q41" t="n">
         <v>2.38</v>
@@ -6214,10 +6214,10 @@
         <v>1.59</v>
       </c>
       <c r="J43" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K43" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G45" t="n">
         <v>3.05</v>
@@ -6502,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G46" t="n">
         <v>4.6</v>
@@ -6616,7 +6616,7 @@
         <v>1.89</v>
       </c>
       <c r="I46" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J46" t="n">
         <v>3.75</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="Q46" t="n">
         <v>1.89</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="G47" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="H47" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J47" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="K47" t="n">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G48" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H48" t="n">
-        <v>1.91</v>
+        <v>1.27</v>
       </c>
       <c r="I48" t="n">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="J48" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>6.2</v>
+        <v>950</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G49" t="n">
         <v>3.15</v>
       </c>
       <c r="H49" t="n">
-        <v>2.76</v>
+        <v>2.56</v>
       </c>
       <c r="I49" t="n">
         <v>2.9</v>
       </c>
       <c r="J49" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="K49" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -7042,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="G50" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H50" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I50" t="n">
         <v>1000</v>
       </c>
       <c r="J50" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="K50" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -7177,10 +7177,10 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G52" t="n">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="H52" t="n">
         <v>5.1</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G53" t="n">
         <v>1.65</v>
@@ -7564,7 +7564,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="K53" t="n">
         <v>4.9</v>
@@ -7693,7 +7693,7 @@
         <v>2.24</v>
       </c>
       <c r="H54" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I54" t="n">
         <v>3.7</v>
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q54" t="n">
         <v>1.62</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G55" t="n">
         <v>1.97</v>
@@ -7864,7 +7864,7 @@
         <v>3.35</v>
       </c>
       <c r="T55" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U55" t="n">
         <v>2.16</v>
@@ -7891,10 +7891,10 @@
         <v>9.4</v>
       </c>
       <c r="AC55" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD55" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE55" t="n">
         <v>60</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="G56" t="n">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="H56" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J56" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="K56" t="n">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8125,7 +8125,7 @@
         <v>1.88</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="G58" t="n">
         <v>1.47</v>
@@ -8236,13 +8236,13 @@
         <v>6.6</v>
       </c>
       <c r="I58" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="J58" t="n">
         <v>4.9</v>
       </c>
       <c r="K58" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.24</v>
+        <v>4.2</v>
       </c>
       <c r="G59" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="H59" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="I59" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="J59" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="K59" t="n">
-        <v>950</v>
+        <v>4.8</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -8497,19 +8497,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="G60" t="n">
-        <v>1000</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
-        <v>1.04</v>
+        <v>27</v>
       </c>
       <c r="I60" t="n">
         <v>1000</v>
       </c>
       <c r="J60" t="n">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="K60" t="n">
         <v>950</v>
@@ -8527,10 +8527,10 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -8632,22 +8632,22 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G61" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H61" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="I61" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="J61" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K61" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -8662,10 +8662,10 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -8788,31 +8788,31 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N62" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O62" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P62" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R62" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S62" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T62" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U62" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -8821,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y62" t="n">
         <v>12</v>
@@ -8842,16 +8842,16 @@
         <v>12.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF62" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG62" t="n">
         <v>13.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI62" t="n">
         <v>40</v>
@@ -8860,19 +8860,19 @@
         <v>50</v>
       </c>
       <c r="AK62" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL62" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM62" t="n">
         <v>85</v>
       </c>
       <c r="AN62" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO62" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
@@ -8914,10 +8914,10 @@
         <v>4.3</v>
       </c>
       <c r="J63" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K63" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>1.83</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -9040,7 +9040,7 @@
         <v>2.34</v>
       </c>
       <c r="G64" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H64" t="n">
         <v>3.7</v>
@@ -9049,10 +9049,10 @@
         <v>4.3</v>
       </c>
       <c r="J64" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="K64" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -9307,22 +9307,22 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G66" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H66" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I66" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="J66" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K66" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="Q66" t="n">
         <v>1.37</v>
@@ -9619,10 +9619,10 @@
         <v>2.92</v>
       </c>
       <c r="T68" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U68" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -9724,7 +9724,7 @@
         <v>1000</v>
       </c>
       <c r="J69" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K69" t="n">
         <v>1000</v>
@@ -9850,7 +9850,7 @@
         <v>2.44</v>
       </c>
       <c r="G70" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H70" t="n">
         <v>2.82</v>
@@ -10117,19 +10117,19 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G72" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H72" t="n">
         <v>2.7</v>
       </c>
-      <c r="H72" t="n">
-        <v>2.72</v>
-      </c>
       <c r="I72" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J72" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K72" t="n">
         <v>4.1</v>
@@ -10150,7 +10150,7 @@
         <v>2.12</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>1.55</v>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H74" t="n">
         <v>5.7</v>
@@ -10402,7 +10402,7 @@
         <v>4.7</v>
       </c>
       <c r="K74" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -10522,19 +10522,19 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="G75" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="H75" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="I75" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="J75" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K75" t="n">
         <v>1000</v>
@@ -10657,22 +10657,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G76" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H76" t="n">
         <v>5.6</v>
       </c>
       <c r="I76" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J76" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K76" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -10687,10 +10687,10 @@
         <v>1.37</v>
       </c>
       <c r="P76" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R76" t="n">
         <v>1.33</v>
@@ -10711,16 +10711,16 @@
         <v>0</v>
       </c>
       <c r="X76" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z76" t="n">
         <v>48</v>
       </c>
       <c r="AA76" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB76" t="n">
         <v>7.8</v>
@@ -10732,7 +10732,7 @@
         <v>23</v>
       </c>
       <c r="AE76" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF76" t="n">
         <v>10</v>
@@ -10744,13 +10744,13 @@
         <v>21</v>
       </c>
       <c r="AI76" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ76" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK76" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL76" t="n">
         <v>40</v>
@@ -10759,10 +10759,10 @@
         <v>150</v>
       </c>
       <c r="AN76" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO76" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77">
@@ -10927,22 +10927,22 @@
         </is>
       </c>
       <c r="F78" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G78" t="n">
         <v>6</v>
       </c>
-      <c r="G78" t="n">
-        <v>6.2</v>
-      </c>
       <c r="H78" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="I78" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="J78" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K78" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -10951,25 +10951,25 @@
         <v>1.05</v>
       </c>
       <c r="N78" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="O78" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P78" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R78" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S78" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="T78" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U78" t="n">
         <v>2.12</v>
@@ -10981,34 +10981,34 @@
         <v>0</v>
       </c>
       <c r="X78" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y78" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="Z78" t="n">
         <v>10.5</v>
       </c>
       <c r="AA78" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC78" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD78" t="n">
         <v>10</v>
       </c>
       <c r="AE78" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF78" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG78" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH78" t="n">
         <v>21</v>
@@ -11017,13 +11017,13 @@
         <v>34</v>
       </c>
       <c r="AJ78" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AK78" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL78" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM78" t="n">
         <v>120</v>
@@ -11032,7 +11032,7 @@
         <v>100</v>
       </c>
       <c r="AO78" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="79">
@@ -11203,16 +11203,16 @@
         <v>1.57</v>
       </c>
       <c r="H80" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I80" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J80" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K80" t="n">
         <v>4.8</v>
-      </c>
-      <c r="K80" t="n">
-        <v>4.9</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -11263,7 +11263,7 @@
         <v>900</v>
       </c>
       <c r="AB80" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC80" t="n">
         <v>11.5</v>
@@ -11299,7 +11299,7 @@
         <v>80</v>
       </c>
       <c r="AN80" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO80" t="n">
         <v>70</v>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G81" t="n">
         <v>10.5</v>
@@ -11341,7 +11341,7 @@
         <v>1.3</v>
       </c>
       <c r="I81" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="J81" t="n">
         <v>7</v>
@@ -11356,7 +11356,7 @@
         <v>1.02</v>
       </c>
       <c r="N81" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O81" t="n">
         <v>1.11</v>
@@ -11647,7 +11647,7 @@
         <v>1.93</v>
       </c>
       <c r="U83" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
@@ -11704,7 +11704,7 @@
         <v>150</v>
       </c>
       <c r="AN83" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO83" t="n">
         <v>85</v>
@@ -11770,7 +11770,7 @@
         <v>1.79</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -11872,13 +11872,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G85" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="H85" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I85" t="n">
         <v>6.8</v>
@@ -11905,7 +11905,7 @@
         <v>1.75</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="G86" t="n">
         <v>2.2</v>
@@ -12016,13 +12016,13 @@
         <v>3.95</v>
       </c>
       <c r="I86" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="J86" t="n">
         <v>3.2</v>
       </c>
       <c r="K86" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -12037,10 +12037,10 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -12142,22 +12142,22 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="G87" t="n">
         <v>2.38</v>
       </c>
       <c r="H87" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I87" t="n">
         <v>5.3</v>
       </c>
       <c r="J87" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K87" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -12172,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q87" t="n">
         <v>2.14</v>
@@ -12412,22 +12412,22 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.29</v>
+        <v>1.61</v>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H89" t="n">
-        <v>1.09</v>
+        <v>5.7</v>
       </c>
       <c r="I89" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="J89" t="n">
         <v>4.2</v>
       </c>
       <c r="K89" t="n">
-        <v>950</v>
+        <v>4.7</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -12445,7 +12445,7 @@
         <v>2.06</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -12547,22 +12547,22 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G90" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H90" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I90" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J90" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K90" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12715,7 +12715,7 @@
         <v>2.4</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -12820,7 +12820,7 @@
         <v>2.34</v>
       </c>
       <c r="G92" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H92" t="n">
         <v>3.9</v>
@@ -12847,7 +12847,7 @@
         <v>1.55</v>
       </c>
       <c r="P92" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q92" t="n">
         <v>2.68</v>
@@ -12952,22 +12952,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="G93" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="H93" t="n">
-        <v>1.79</v>
+        <v>3.95</v>
       </c>
       <c r="I93" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="J93" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K93" t="n">
-        <v>950</v>
+        <v>3.8</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -12985,7 +12985,7 @@
         <v>1.81</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -13087,13 +13087,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="G94" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="H94" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="I94" t="n">
         <v>1.38</v>
@@ -13117,13 +13117,13 @@
         <v>1.12</v>
       </c>
       <c r="P94" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q94" t="n">
         <v>1.38</v>
       </c>
       <c r="R94" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S94" t="n">
         <v>1.94</v>
@@ -13132,7 +13132,7 @@
         <v>1.65</v>
       </c>
       <c r="U94" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V94" t="n">
         <v>0</v>
@@ -13153,7 +13153,7 @@
         <v>13.5</v>
       </c>
       <c r="AB94" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC94" t="n">
         <v>16</v>
@@ -13168,7 +13168,7 @@
         <v>100</v>
       </c>
       <c r="AG94" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AH94" t="n">
         <v>22</v>
@@ -13252,7 +13252,7 @@
         <v>1.22</v>
       </c>
       <c r="P95" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q95" t="n">
         <v>1.68</v>
@@ -13279,7 +13279,7 @@
         <v>22</v>
       </c>
       <c r="Y95" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z95" t="n">
         <v>34</v>
@@ -13294,10 +13294,10 @@
         <v>9.4</v>
       </c>
       <c r="AD95" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE95" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF95" t="n">
         <v>13</v>
@@ -13306,7 +13306,7 @@
         <v>10</v>
       </c>
       <c r="AH95" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI95" t="n">
         <v>48</v>
@@ -13357,22 +13357,22 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="G96" t="n">
         <v>2.88</v>
       </c>
       <c r="H96" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I96" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="J96" t="n">
         <v>3.65</v>
       </c>
       <c r="K96" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -13387,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="P96" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q96" t="n">
         <v>1.8</v>
@@ -13522,7 +13522,7 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q97" t="n">
         <v>1.85</v>
@@ -13639,7 +13639,7 @@
         <v>3.65</v>
       </c>
       <c r="J98" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K98" t="n">
         <v>4.2</v>
@@ -13663,7 +13663,7 @@
         <v>1.53</v>
       </c>
       <c r="R98" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S98" t="n">
         <v>2.3</v>
@@ -13672,7 +13672,7 @@
         <v>1.53</v>
       </c>
       <c r="U98" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="V98" t="n">
         <v>0</v>
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G99" t="n">
         <v>1.91</v>
@@ -13774,7 +13774,7 @@
         <v>7</v>
       </c>
       <c r="J99" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K99" t="n">
         <v>3.4</v>
@@ -13792,10 +13792,10 @@
         <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="R99" t="n">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>1.69</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -14065,7 +14065,7 @@
         <v>1.88</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -14167,22 +14167,22 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G102" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I102" t="n">
         <v>4.5</v>
       </c>
       <c r="J102" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K102" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -14197,10 +14197,10 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q102" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
@@ -14302,22 +14302,22 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G103" t="n">
         <v>3.7</v>
       </c>
       <c r="H103" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I103" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J103" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="K103" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -14440,13 +14440,13 @@
         <v>1.59</v>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H104" t="n">
         <v>6.2</v>
       </c>
       <c r="I104" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="J104" t="n">
         <v>4</v>
@@ -14467,10 +14467,10 @@
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -14572,22 +14572,22 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.06</v>
+        <v>1.22</v>
       </c>
       <c r="G105" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="H105" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="I105" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J105" t="n">
-        <v>2.94</v>
+        <v>2.36</v>
       </c>
       <c r="K105" t="n">
-        <v>3.3</v>
+        <v>950</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -14605,7 +14605,7 @@
         <v>1.25</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G106" t="n">
         <v>1.88</v>
@@ -14719,7 +14719,7 @@
         <v>6.4</v>
       </c>
       <c r="J106" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K106" t="n">
         <v>4.3</v>
@@ -14737,10 +14737,10 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
@@ -14848,7 +14848,7 @@
         <v>4.6</v>
       </c>
       <c r="H107" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I107" t="n">
         <v>1.99</v>
@@ -14977,22 +14977,22 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2.06</v>
+        <v>6.2</v>
       </c>
       <c r="G108" t="n">
-        <v>19</v>
+        <v>7.2</v>
       </c>
       <c r="H108" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="I108" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="J108" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K108" t="n">
-        <v>950</v>
+        <v>3.75</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -15007,10 +15007,10 @@
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-31.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G2" t="n">
         <v>1.74</v>
       </c>
       <c r="H2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>5.6</v>
@@ -682,31 +682,31 @@
         <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="R2" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S2" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="T2" t="n">
         <v>1.67</v>
@@ -742,7 +742,7 @@
         <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF2" t="n">
         <v>12.5</v>
@@ -754,7 +754,7 @@
         <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
         <v>18</v>
@@ -766,7 +766,7 @@
         <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
         <v>7.8</v>
@@ -808,7 +808,7 @@
         <v>4.7</v>
       </c>
       <c r="H3" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="I3" t="n">
         <v>2.12</v>
@@ -994,7 +994,7 @@
         <v>32</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z4" t="n">
         <v>36</v>
@@ -1009,7 +1009,7 @@
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
         <v>40</v>
@@ -1021,7 +1021,7 @@
         <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI4" t="n">
         <v>42</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G5" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I5" t="n">
         <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1117,49 +1117,49 @@
         <v>1.62</v>
       </c>
       <c r="U5" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V5" t="n">
         <v>1.52</v>
       </c>
       <c r="W5" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X5" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AB5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF5" t="n">
         <v>18.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="n">
         <v>36</v>
@@ -1177,7 +1177,7 @@
         <v>16.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="G6" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="H6" t="n">
-        <v>2.22</v>
+        <v>4.9</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G7" t="n">
         <v>1.9</v>
@@ -1480,19 +1480,19 @@
         <v>3.85</v>
       </c>
       <c r="G8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
         <v>2.02</v>
       </c>
       <c r="I8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
         <v>1.32</v>
@@ -1501,88 +1501,88 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="S8" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U8" t="n">
         <v>2.24</v>
       </c>
       <c r="V8" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA8" t="n">
         <v>980</v>
       </c>
-      <c r="Y8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>18</v>
       </c>
-      <c r="AA8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>24</v>
-      </c>
       <c r="AI8" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AJ8" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AK8" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G10" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="H10" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="I10" t="n">
         <v>8.6</v>
       </c>
       <c r="J10" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1.89</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>1.84</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>2.08</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G13" t="n">
         <v>1.78</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.4</v>
+        <v>2.82</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="H14" t="n">
-        <v>2.42</v>
+        <v>2.7</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>2.54</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>2.64</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.04</v>
+        <v>2.84</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="H16" t="n">
-        <v>1.04</v>
+        <v>2.82</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="J16" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="Q16" t="n">
         <v>1.01</v>
@@ -2695,7 +2695,7 @@
         <v>1.98</v>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="H17" t="n">
         <v>4</v>
@@ -2704,7 +2704,7 @@
         <v>5.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="K17" t="n">
         <v>3.75</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q17" t="n">
         <v>2.18</v>
@@ -2992,13 +2992,13 @@
         <v>1.45</v>
       </c>
       <c r="P19" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S19" t="n">
         <v>4.5</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H20" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
         <v>4.6</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G27" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H27" t="n">
         <v>3.65</v>
       </c>
       <c r="I27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G29" t="n">
         <v>2.26</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J29" t="n">
         <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4456,13 +4456,13 @@
         <v>2.44</v>
       </c>
       <c r="I30" t="n">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="J30" t="n">
         <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4591,7 +4591,7 @@
         <v>3.45</v>
       </c>
       <c r="I31" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
         <v>3.1</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G32" t="n">
         <v>1.95</v>
@@ -4729,7 +4729,7 @@
         <v>4.7</v>
       </c>
       <c r="J32" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
         <v>4.2</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q32" t="n">
         <v>1.78</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="H34" t="n">
         <v>4.1</v>
       </c>
       <c r="I34" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J34" t="n">
         <v>4.3</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5164,10 +5164,10 @@
         <v>4.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -5398,7 +5398,7 @@
         <v>4.3</v>
       </c>
       <c r="H37" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I37" t="n">
         <v>2.3</v>
@@ -5536,7 +5536,7 @@
         <v>2.34</v>
       </c>
       <c r="I38" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J38" t="n">
         <v>3.85</v>
@@ -5560,7 +5560,7 @@
         <v>2.62</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R38" t="n">
         <v>1.65</v>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y38" t="n">
         <v>16.5</v>
@@ -5596,7 +5596,7 @@
         <v>19</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD38" t="n">
         <v>12</v>
@@ -5608,7 +5608,7 @@
         <v>26</v>
       </c>
       <c r="AG38" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH38" t="n">
         <v>14.5</v>
@@ -5626,7 +5626,7 @@
         <v>34</v>
       </c>
       <c r="AM38" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN38" t="n">
         <v>19</v>
@@ -5668,10 +5668,10 @@
         <v>2.58</v>
       </c>
       <c r="H39" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I39" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J39" t="n">
         <v>3.6</v>
@@ -5749,10 +5749,10 @@
         <v>15</v>
       </c>
       <c r="AI39" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ39" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AK39" t="n">
         <v>26</v>
@@ -5824,13 +5824,13 @@
         <v>4.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P40" t="n">
         <v>2.08</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R40" t="n">
         <v>1.43</v>
@@ -5842,7 +5842,7 @@
         <v>1.8</v>
       </c>
       <c r="U40" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="G42" t="n">
         <v>1.62</v>
@@ -6082,7 +6082,7 @@
         <v>4.7</v>
       </c>
       <c r="K42" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6100,7 +6100,7 @@
         <v>2.72</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R42" t="n">
         <v>1.69</v>
@@ -6133,13 +6133,13 @@
         <v>170</v>
       </c>
       <c r="AB42" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC42" t="n">
         <v>11</v>
       </c>
       <c r="AD42" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE42" t="n">
         <v>70</v>
@@ -6151,7 +6151,7 @@
         <v>10.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI42" t="n">
         <v>60</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="F43" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G43" t="n">
         <v>6.8</v>
       </c>
-      <c r="G43" t="n">
-        <v>7</v>
-      </c>
       <c r="H43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I43" t="n">
         <v>1.58</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.59</v>
       </c>
       <c r="J43" t="n">
         <v>4.5</v>
@@ -6244,7 +6244,7 @@
         <v>3.6</v>
       </c>
       <c r="T43" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U43" t="n">
         <v>1.86</v>
@@ -6262,7 +6262,7 @@
         <v>7.6</v>
       </c>
       <c r="Z43" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AA43" t="n">
         <v>14.5</v>
@@ -6307,7 +6307,7 @@
         <v>170</v>
       </c>
       <c r="AO43" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -6349,7 +6349,7 @@
         <v>5.4</v>
       </c>
       <c r="J44" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K44" t="n">
         <v>4</v>
@@ -6481,7 +6481,7 @@
         <v>2.68</v>
       </c>
       <c r="I45" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J45" t="n">
         <v>3.3</v>
@@ -6505,7 +6505,7 @@
         <v>1.84</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q46" t="n">
         <v>1.89</v>
@@ -6742,19 +6742,19 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G47" t="n">
         <v>2.66</v>
       </c>
       <c r="H47" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I47" t="n">
         <v>5</v>
       </c>
       <c r="J47" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K47" t="n">
         <v>5.5</v>
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H48" t="n">
-        <v>1.27</v>
+        <v>2.04</v>
       </c>
       <c r="I48" t="n">
-        <v>2.72</v>
+        <v>2.42</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K48" t="n">
-        <v>950</v>
+        <v>4.4</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -6907,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G49" t="n">
         <v>3.15</v>
@@ -7027,7 +7027,7 @@
         <v>3.15</v>
       </c>
       <c r="K49" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>1.8</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -7177,10 +7177,10 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -7285,7 +7285,7 @@
         <v>3.2</v>
       </c>
       <c r="G51" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H51" t="n">
         <v>2.36</v>
@@ -7309,22 +7309,22 @@
         <v>4.6</v>
       </c>
       <c r="O51" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P51" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R51" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="S51" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T51" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U51" t="n">
         <v>2.46</v>
@@ -7339,7 +7339,7 @@
         <v>19</v>
       </c>
       <c r="Y51" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z51" t="n">
         <v>16.5</v>
@@ -7417,19 +7417,19 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G52" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="H52" t="n">
         <v>5.1</v>
       </c>
       <c r="I52" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="J52" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K52" t="n">
         <v>4.1</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G53" t="n">
         <v>1.65</v>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G55" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H55" t="n">
         <v>4.3</v>
@@ -7894,7 +7894,7 @@
         <v>8.4</v>
       </c>
       <c r="AD55" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE55" t="n">
         <v>60</v>
@@ -7963,7 +7963,7 @@
         <v>2.62</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I56" t="n">
         <v>3.9</v>
@@ -7972,7 +7972,7 @@
         <v>3.25</v>
       </c>
       <c r="K56" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q57" t="n">
         <v>1.95</v>
@@ -8509,7 +8509,7 @@
         <v>1000</v>
       </c>
       <c r="J60" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K60" t="n">
         <v>950</v>
@@ -8635,19 +8635,19 @@
         <v>3.6</v>
       </c>
       <c r="G61" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="H61" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="I61" t="n">
         <v>2.14</v>
       </c>
       <c r="J61" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K61" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -8662,10 +8662,10 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -8776,7 +8776,7 @@
         <v>2.62</v>
       </c>
       <c r="I62" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J62" t="n">
         <v>3.5</v>
@@ -8791,7 +8791,7 @@
         <v>1.07</v>
       </c>
       <c r="N62" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O62" t="n">
         <v>1.32</v>
@@ -8803,16 +8803,16 @@
         <v>1.98</v>
       </c>
       <c r="R62" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S62" t="n">
         <v>3.45</v>
       </c>
       <c r="T62" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U62" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -8824,10 +8824,10 @@
         <v>15</v>
       </c>
       <c r="Y62" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA62" t="n">
         <v>40</v>
@@ -9040,7 +9040,7 @@
         <v>2.34</v>
       </c>
       <c r="G64" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H64" t="n">
         <v>3.7</v>
@@ -9049,7 +9049,7 @@
         <v>4.3</v>
       </c>
       <c r="J64" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K64" t="n">
         <v>3.15</v>
@@ -9205,7 +9205,7 @@
         <v>1.66</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -9307,13 +9307,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G66" t="n">
         <v>3.45</v>
       </c>
       <c r="H66" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I66" t="n">
         <v>2.76</v>
@@ -9337,10 +9337,10 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -9463,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -9577,16 +9577,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="I68" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J68" t="n">
         <v>3.9</v>
@@ -9610,16 +9610,16 @@
         <v>2.22</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R68" t="n">
         <v>1.48</v>
       </c>
       <c r="S68" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T68" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U68" t="n">
         <v>2.32</v>
@@ -9640,7 +9640,7 @@
         <v>14</v>
       </c>
       <c r="AA68" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB68" t="n">
         <v>18.5</v>
@@ -9670,7 +9670,7 @@
         <v>95</v>
       </c>
       <c r="AK68" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL68" t="n">
         <v>55</v>
@@ -9712,22 +9712,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="G69" t="n">
-        <v>1000</v>
+        <v>1.17</v>
       </c>
       <c r="H69" t="n">
-        <v>1.04</v>
+        <v>13</v>
       </c>
       <c r="I69" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="J69" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="K69" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q70" t="n">
         <v>1.83</v>
@@ -10117,19 +10117,19 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G72" t="n">
         <v>2.74</v>
       </c>
       <c r="H72" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I72" t="n">
         <v>3.15</v>
       </c>
       <c r="J72" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K72" t="n">
         <v>4.1</v>
@@ -10150,7 +10150,7 @@
         <v>2.12</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -10390,10 +10390,10 @@
         <v>1.55</v>
       </c>
       <c r="G74" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I74" t="n">
         <v>6.4</v>
@@ -10528,7 +10528,7 @@
         <v>11.5</v>
       </c>
       <c r="H75" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="I75" t="n">
         <v>1.9</v>
@@ -10666,7 +10666,7 @@
         <v>5.6</v>
       </c>
       <c r="I76" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J76" t="n">
         <v>3.65</v>
@@ -10744,16 +10744,16 @@
         <v>21</v>
       </c>
       <c r="AI76" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ76" t="n">
         <v>19</v>
       </c>
       <c r="AK76" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL76" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM76" t="n">
         <v>150</v>
@@ -10807,7 +10807,7 @@
         <v>4.2</v>
       </c>
       <c r="K77" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -10930,16 +10930,16 @@
         <v>5.7</v>
       </c>
       <c r="G78" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H78" t="n">
         <v>1.67</v>
       </c>
       <c r="I78" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="J78" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K78" t="n">
         <v>4.4</v>
@@ -10963,7 +10963,7 @@
         <v>1.83</v>
       </c>
       <c r="R78" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S78" t="n">
         <v>3.1</v>
@@ -10972,7 +10972,7 @@
         <v>1.85</v>
       </c>
       <c r="U78" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V78" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G79" t="n">
         <v>3.5</v>
@@ -11212,7 +11212,7 @@
         <v>4.7</v>
       </c>
       <c r="K80" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -11224,7 +11224,7 @@
         <v>5.7</v>
       </c>
       <c r="O80" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P80" t="n">
         <v>2.6</v>
@@ -11269,7 +11269,7 @@
         <v>11.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE80" t="n">
         <v>75</v>
@@ -11284,7 +11284,7 @@
         <v>21</v>
       </c>
       <c r="AI80" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ80" t="n">
         <v>14.5</v>
@@ -11341,13 +11341,13 @@
         <v>1.3</v>
       </c>
       <c r="I81" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="J81" t="n">
         <v>7</v>
       </c>
       <c r="K81" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -11428,7 +11428,7 @@
         <v>130</v>
       </c>
       <c r="AL81" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM81" t="n">
         <v>90</v>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="G82" t="n">
         <v>2.56</v>
@@ -11476,7 +11476,7 @@
         <v>2.96</v>
       </c>
       <c r="I82" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J82" t="n">
         <v>3.65</v>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G83" t="n">
         <v>1.96</v>
@@ -11611,7 +11611,7 @@
         <v>4.6</v>
       </c>
       <c r="I83" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J83" t="n">
         <v>3.6</v>
@@ -11626,7 +11626,7 @@
         <v>1.08</v>
       </c>
       <c r="N83" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O83" t="n">
         <v>1.37</v>
@@ -11647,7 +11647,7 @@
         <v>1.93</v>
       </c>
       <c r="U83" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
@@ -11674,7 +11674,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD83" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE83" t="n">
         <v>70</v>
@@ -11692,7 +11692,7 @@
         <v>85</v>
       </c>
       <c r="AJ83" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK83" t="n">
         <v>23</v>
@@ -11743,7 +11743,7 @@
         <v>2.86</v>
       </c>
       <c r="H84" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I84" t="n">
         <v>3.2</v>
@@ -11752,7 +11752,7 @@
         <v>3.25</v>
       </c>
       <c r="K84" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -12010,13 +12010,13 @@
         <v>1.97</v>
       </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H86" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I86" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="J86" t="n">
         <v>3.2</v>
@@ -12037,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q86" t="n">
         <v>2</v>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G87" t="n">
         <v>2.38</v>
@@ -12157,7 +12157,7 @@
         <v>2.88</v>
       </c>
       <c r="K87" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -12172,10 +12172,10 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -12277,22 +12277,22 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.04</v>
+        <v>1.39</v>
       </c>
       <c r="G88" t="n">
-        <v>1000</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
-        <v>1.04</v>
+        <v>1.23</v>
       </c>
       <c r="I88" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="J88" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="K88" t="n">
-        <v>950</v>
+        <v>5.2</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -12307,10 +12307,10 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>1.24</v>
+        <v>1.85</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -12415,7 +12415,7 @@
         <v>1.61</v>
       </c>
       <c r="G89" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>5.7</v>
@@ -12442,10 +12442,10 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -12547,19 +12547,19 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G90" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H90" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I90" t="n">
         <v>5.1</v>
       </c>
       <c r="J90" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K90" t="n">
         <v>6.8</v>
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -12682,13 +12682,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G91" t="n">
         <v>2.68</v>
       </c>
       <c r="H91" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I91" t="n">
         <v>2.88</v>
@@ -12697,7 +12697,7 @@
         <v>3.75</v>
       </c>
       <c r="K91" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -12712,10 +12712,10 @@
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -12817,16 +12817,16 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G92" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H92" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I92" t="n">
         <v>3.9</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4</v>
       </c>
       <c r="J92" t="n">
         <v>3.05</v>
@@ -12859,7 +12859,7 @@
         <v>5.6</v>
       </c>
       <c r="T92" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U92" t="n">
         <v>1.8</v>
@@ -12874,7 +12874,7 @@
         <v>8.6</v>
       </c>
       <c r="Y92" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z92" t="n">
         <v>27</v>
@@ -12889,7 +12889,7 @@
         <v>7</v>
       </c>
       <c r="AD92" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE92" t="n">
         <v>1000</v>
@@ -12907,10 +12907,10 @@
         <v>110</v>
       </c>
       <c r="AJ92" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK92" t="n">
         <v>34</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>36</v>
       </c>
       <c r="AL92" t="n">
         <v>1000</v>
@@ -12919,7 +12919,7 @@
         <v>220</v>
       </c>
       <c r="AN92" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO92" t="n">
         <v>110</v>
@@ -13126,13 +13126,13 @@
         <v>2</v>
       </c>
       <c r="S94" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T94" t="n">
         <v>1.65</v>
       </c>
       <c r="U94" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V94" t="n">
         <v>0</v>
@@ -13252,7 +13252,7 @@
         <v>1.22</v>
       </c>
       <c r="P95" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q95" t="n">
         <v>1.68</v>
@@ -13261,7 +13261,7 @@
         <v>1.55</v>
       </c>
       <c r="S95" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T95" t="n">
         <v>1.67</v>
@@ -13288,7 +13288,7 @@
         <v>110</v>
       </c>
       <c r="AB95" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC95" t="n">
         <v>9.4</v>
@@ -13297,7 +13297,7 @@
         <v>18</v>
       </c>
       <c r="AE95" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AF95" t="n">
         <v>13</v>
@@ -13306,10 +13306,10 @@
         <v>10</v>
       </c>
       <c r="AH95" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI95" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ95" t="n">
         <v>21</v>
@@ -13357,13 +13357,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G96" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H96" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I96" t="n">
         <v>2.76</v>
@@ -13372,7 +13372,7 @@
         <v>3.65</v>
       </c>
       <c r="K96" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>4.9</v>
       </c>
       <c r="H97" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="I97" t="n">
         <v>1.88</v>
@@ -13522,10 +13522,10 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -13636,10 +13636,10 @@
         <v>3.5</v>
       </c>
       <c r="I98" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J98" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K98" t="n">
         <v>4.2</v>
@@ -13663,7 +13663,7 @@
         <v>1.53</v>
       </c>
       <c r="R98" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="S98" t="n">
         <v>2.3</v>
@@ -13684,7 +13684,7 @@
         <v>32</v>
       </c>
       <c r="Y98" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z98" t="n">
         <v>32</v>
@@ -13702,16 +13702,16 @@
         <v>18</v>
       </c>
       <c r="AE98" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF98" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG98" t="n">
         <v>11.5</v>
       </c>
       <c r="AH98" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI98" t="n">
         <v>36</v>
@@ -13765,19 +13765,19 @@
         <v>1.84</v>
       </c>
       <c r="G99" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H99" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I99" t="n">
         <v>7</v>
       </c>
       <c r="J99" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K99" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -14065,7 +14065,7 @@
         <v>1.88</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -14167,22 +14167,22 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="G102" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="H102" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I102" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="J102" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K102" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -14197,7 +14197,7 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="Q102" t="n">
         <v>1.68</v>
@@ -14302,22 +14302,22 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="G103" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="H103" t="n">
-        <v>2.58</v>
+        <v>2.82</v>
       </c>
       <c r="I103" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J103" t="n">
-        <v>2.64</v>
+        <v>2.8</v>
       </c>
       <c r="K103" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -14332,10 +14332,10 @@
         <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
@@ -14575,16 +14575,16 @@
         <v>1.22</v>
       </c>
       <c r="G105" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H105" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I105" t="n">
         <v>6</v>
       </c>
       <c r="J105" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="K105" t="n">
         <v>950</v>
@@ -14737,7 +14737,7 @@
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q106" t="n">
         <v>1.94</v>
@@ -14977,19 +14977,19 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="G108" t="n">
         <v>7.2</v>
       </c>
       <c r="H108" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="I108" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="J108" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K108" t="n">
         <v>3.75</v>
@@ -15007,7 +15007,7 @@
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q108" t="n">
         <v>2.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-31.xlsx
@@ -670,19 +670,19 @@
         <v>1.67</v>
       </c>
       <c r="G2" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.3</v>
@@ -691,34 +691,34 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S2" t="n">
         <v>2.46</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.42</v>
-      </c>
       <c r="T2" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X2" t="n">
         <v>25</v>
@@ -730,10 +730,10 @@
         <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
         <v>11</v>
@@ -769,10 +769,10 @@
         <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -802,73 +802,73 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
         <v>1.97</v>
       </c>
       <c r="I3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.08</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="W3" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z3" t="n">
         <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC3" t="n">
         <v>8.4</v>
@@ -892,7 +892,7 @@
         <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK3" t="n">
         <v>60</v>
@@ -901,7 +901,7 @@
         <v>70</v>
       </c>
       <c r="AM3" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
         <v>75</v>
@@ -943,16 +943,16 @@
         <v>2.06</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.28</v>
@@ -967,7 +967,7 @@
         <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q4" t="n">
         <v>1.56</v>
@@ -985,7 +985,7 @@
         <v>2.66</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
         <v>1.94</v>
@@ -1039,7 +1039,7 @@
         <v>60</v>
       </c>
       <c r="AN4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO4" t="n">
         <v>28</v>
@@ -1345,7 +1345,7 @@
         <v>1.64</v>
       </c>
       <c r="G7" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="H7" t="n">
         <v>4.6</v>
@@ -1375,7 +1375,7 @@
         <v>2.44</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1612,37 +1612,37 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G9" t="n">
         <v>2.28</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.43</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q9" t="n">
         <v>2.08</v>
@@ -1651,10 +1651,10 @@
         <v>1.27</v>
       </c>
       <c r="S9" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
         <v>1.96</v>
@@ -1663,7 +1663,7 @@
         <v>1.36</v>
       </c>
       <c r="W9" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X9" t="n">
         <v>970</v>
@@ -1678,7 +1678,7 @@
         <v>80</v>
       </c>
       <c r="AB9" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
@@ -1702,10 +1702,10 @@
         <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL9" t="n">
         <v>55</v>
@@ -1714,7 +1714,7 @@
         <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
         <v>65</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="G11" t="n">
         <v>1.53</v>
       </c>
       <c r="H11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="J11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.41</v>
@@ -1906,7 +1906,7 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -1942,16 +1942,16 @@
         <v>24</v>
       </c>
       <c r="Z11" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA11" t="n">
         <v>380</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
         <v>34</v>
@@ -1960,7 +1960,7 @@
         <v>180</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -1984,7 +1984,7 @@
         <v>220</v>
       </c>
       <c r="AN11" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AO11" t="n">
         <v>290</v>
@@ -2056,7 +2056,7 @@
         <v>1.54</v>
       </c>
       <c r="S12" t="n">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="T12" t="n">
         <v>1.01</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.71</v>
+        <v>2.24</v>
       </c>
       <c r="G13" t="n">
         <v>3.2</v>
@@ -2167,7 +2167,7 @@
         <v>2.74</v>
       </c>
       <c r="K13" t="n">
-        <v>950</v>
+        <v>5.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2311,7 +2311,7 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O14" t="n">
         <v>1.24</v>
@@ -2338,7 +2338,7 @@
         <v>1.89</v>
       </c>
       <c r="W14" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G15" t="n">
         <v>2.46</v>
@@ -2431,10 +2431,10 @@
         <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
         <v>3.7</v>
@@ -2449,85 +2449,85 @@
         <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>1.45</v>
+        <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.26</v>
+        <v>1.83</v>
       </c>
       <c r="R15" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U15" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V15" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W15" t="n">
         <v>1.69</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF15" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>20</v>
-      </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM15" t="n">
         <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G16" t="n">
         <v>1.77</v>
       </c>
       <c r="H16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
         <v>5.4</v>
@@ -2587,10 +2587,10 @@
         <v>1.24</v>
       </c>
       <c r="P16" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="R16" t="n">
         <v>1.5</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G17" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I17" t="n">
         <v>3.1</v>
@@ -2836,13 +2836,13 @@
         <v>5.1</v>
       </c>
       <c r="I18" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J18" t="n">
         <v>4.3</v>
       </c>
       <c r="K18" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L18" t="n">
         <v>1.25</v>
@@ -2875,7 +2875,7 @@
         <v>2.24</v>
       </c>
       <c r="V18" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W18" t="n">
         <v>2.38</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="G19" t="n">
         <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="I19" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J19" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K19" t="n">
         <v>3.35</v>
@@ -2983,7 +2983,7 @@
         <v>1.48</v>
       </c>
       <c r="M19" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
         <v>2.66</v>
@@ -3001,7 +3001,7 @@
         <v>1.2</v>
       </c>
       <c r="S19" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="T19" t="n">
         <v>1.98</v>
@@ -3013,22 +3013,22 @@
         <v>1.51</v>
       </c>
       <c r="W19" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
         <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
         <v>8.199999999999999</v>
@@ -3037,13 +3037,13 @@
         <v>15.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF19" t="n">
         <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH19" t="n">
         <v>25</v>
@@ -3052,7 +3052,7 @@
         <v>75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK19" t="n">
         <v>55</v>
@@ -3061,7 +3061,7 @@
         <v>80</v>
       </c>
       <c r="AM19" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="n">
         <v>65</v>
@@ -3100,7 +3100,7 @@
         <v>2.1</v>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="H20" t="n">
         <v>3.45</v>
@@ -3130,7 +3130,7 @@
         <v>2.16</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="R20" t="n">
         <v>1.46</v>
@@ -3148,7 +3148,7 @@
         <v>1.34</v>
       </c>
       <c r="W20" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3235,7 +3235,7 @@
         <v>1.84</v>
       </c>
       <c r="G21" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H21" t="n">
         <v>3.85</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H22" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I22" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="J22" t="n">
         <v>3.15</v>
@@ -3415,16 +3415,16 @@
         <v>1.98</v>
       </c>
       <c r="V22" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W22" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X22" t="n">
         <v>10</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z22" t="n">
         <v>18</v>
@@ -3454,7 +3454,7 @@
         <v>19.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
         <v>44</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="G23" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="H23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J23" t="n">
         <v>3.4</v>
       </c>
-      <c r="I23" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,16 +3526,16 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="O23" t="n">
         <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="R23" t="n">
         <v>1.47</v>
@@ -3550,10 +3550,10 @@
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="W23" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="X23" t="n">
         <v>30</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G24" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="I24" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3673,7 +3673,7 @@
         <v>1.85</v>
       </c>
       <c r="R24" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S24" t="n">
         <v>2.8</v>
@@ -3685,10 +3685,10 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3805,7 +3805,7 @@
         <v>2.44</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="R25" t="n">
         <v>1.48</v>
@@ -3910,19 +3910,19 @@
         <v>2.06</v>
       </c>
       <c r="G26" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="H26" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="J26" t="n">
-        <v>1.09</v>
+        <v>1.72</v>
       </c>
       <c r="K26" t="n">
-        <v>950</v>
+        <v>3.8</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3937,13 +3937,13 @@
         <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S26" t="n">
         <v>3.55</v>
@@ -3958,7 +3958,7 @@
         <v>1.24</v>
       </c>
       <c r="W26" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4045,16 +4045,16 @@
         <v>2.12</v>
       </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H27" t="n">
         <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J27" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
         <v>4</v>
@@ -4075,13 +4075,13 @@
         <v>1.93</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="R27" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S27" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="T27" t="n">
         <v>1.01</v>
@@ -4093,7 +4093,7 @@
         <v>1.31</v>
       </c>
       <c r="W27" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G28" t="n">
         <v>2.36</v>
@@ -4186,46 +4186,46 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J28" t="n">
         <v>2.86</v>
       </c>
       <c r="K28" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L28" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O28" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P28" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R28" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S28" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="U28" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V28" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W28" t="n">
         <v>1.73</v>
@@ -4243,7 +4243,7 @@
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC28" t="n">
         <v>10.5</v>
@@ -4252,10 +4252,10 @@
         <v>25</v>
       </c>
       <c r="AE28" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF28" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AG28" t="n">
         <v>15</v>
@@ -4315,16 +4315,16 @@
         <v>2.64</v>
       </c>
       <c r="G29" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="I29" t="n">
         <v>3.35</v>
       </c>
       <c r="J29" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K29" t="n">
         <v>3.15</v>
@@ -4363,7 +4363,7 @@
         <v>1.42</v>
       </c>
       <c r="W29" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X29" t="n">
         <v>8.4</v>
@@ -4453,7 +4453,7 @@
         <v>3.3</v>
       </c>
       <c r="H30" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
@@ -4585,7 +4585,7 @@
         <v>2.38</v>
       </c>
       <c r="G31" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H31" t="n">
         <v>2.9</v>
@@ -4603,91 +4603,91 @@
         <v>1.32</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P31" t="n">
         <v>2.02</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R31" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="S31" t="n">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V31" t="n">
         <v>1.45</v>
       </c>
       <c r="W31" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -4720,37 +4720,37 @@
         <v>5.5</v>
       </c>
       <c r="G32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H32" t="n">
         <v>1.51</v>
       </c>
       <c r="I32" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="J32" t="n">
         <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.44</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N32" t="n">
         <v>1.57</v>
       </c>
       <c r="O32" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P32" t="n">
         <v>1.57</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R32" t="n">
         <v>1.2</v>
@@ -4765,7 +4765,7 @@
         <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="W32" t="n">
         <v>1.1</v>
@@ -4858,16 +4858,16 @@
         <v>3.45</v>
       </c>
       <c r="H33" t="n">
-        <v>2.06</v>
+        <v>2.54</v>
       </c>
       <c r="I33" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J33" t="n">
         <v>2.56</v>
       </c>
       <c r="K33" t="n">
-        <v>950</v>
+        <v>4.8</v>
       </c>
       <c r="L33" t="n">
         <v>1.52</v>
@@ -4903,7 +4903,7 @@
         <v>1.4</v>
       </c>
       <c r="W33" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X33" t="n">
         <v>9.4</v>
@@ -4996,13 +4996,13 @@
         <v>2.56</v>
       </c>
       <c r="I34" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J34" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5011,22 +5011,22 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="O34" t="n">
         <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="R34" t="n">
         <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="T34" t="n">
         <v>1.01</v>
@@ -5035,7 +5035,7 @@
         <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W34" t="n">
         <v>1.42</v>
@@ -5128,7 +5128,7 @@
         <v>2.22</v>
       </c>
       <c r="H35" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I35" t="n">
         <v>4.8</v>
@@ -5137,37 +5137,37 @@
         <v>3.25</v>
       </c>
       <c r="K35" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L35" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P35" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="R35" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="S35" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="U35" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="V35" t="n">
         <v>1.26</v>
@@ -5176,10 +5176,10 @@
         <v>1.81</v>
       </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z35" t="n">
         <v>36</v>
@@ -5188,10 +5188,10 @@
         <v>110</v>
       </c>
       <c r="AB35" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD35" t="n">
         <v>20</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G36" t="n">
         <v>2.8</v>
       </c>
       <c r="H36" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J36" t="n">
         <v>2.94</v>
@@ -5305,10 +5305,10 @@
         <v>1.84</v>
       </c>
       <c r="V36" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W36" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="X36" t="n">
         <v>11.5</v>
@@ -5398,16 +5398,16 @@
         <v>2.66</v>
       </c>
       <c r="H37" t="n">
-        <v>2.54</v>
+        <v>3.05</v>
       </c>
       <c r="I37" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J37" t="n">
-        <v>2.42</v>
+        <v>2.84</v>
       </c>
       <c r="K37" t="n">
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5440,7 +5440,7 @@
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W37" t="n">
         <v>1.6</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G40" t="n">
         <v>1.67</v>
@@ -5809,7 +5809,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="K40" t="n">
         <v>4.7</v>
@@ -5827,10 +5827,10 @@
         <v>1.26</v>
       </c>
       <c r="P40" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R40" t="n">
         <v>1.35</v>
@@ -5845,7 +5845,7 @@
         <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W40" t="n">
         <v>2.48</v>
@@ -5983,7 +5983,7 @@
         <v>1.01</v>
       </c>
       <c r="W41" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6205,19 +6205,19 @@
         <v>3.05</v>
       </c>
       <c r="G43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="n">
         <v>2.4</v>
       </c>
       <c r="I43" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="J43" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K43" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
@@ -6232,16 +6232,16 @@
         <v>1.34</v>
       </c>
       <c r="P43" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q43" t="n">
         <v>1.84</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.98</v>
       </c>
       <c r="R43" t="n">
         <v>1.31</v>
       </c>
       <c r="S43" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T43" t="n">
         <v>1.65</v>
@@ -6250,10 +6250,10 @@
         <v>2.1</v>
       </c>
       <c r="V43" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W43" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X43" t="n">
         <v>14</v>
@@ -6268,7 +6268,7 @@
         <v>38</v>
       </c>
       <c r="AB43" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC43" t="n">
         <v>8.199999999999999</v>
@@ -6286,25 +6286,25 @@
         <v>14.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI43" t="n">
         <v>44</v>
       </c>
       <c r="AJ43" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK43" t="n">
         <v>40</v>
       </c>
       <c r="AL43" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM43" t="n">
         <v>120</v>
       </c>
       <c r="AN43" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AO43" t="n">
         <v>25</v>
@@ -6340,10 +6340,10 @@
         <v>2.42</v>
       </c>
       <c r="G44" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H44" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
         <v>3.75</v>
@@ -6478,7 +6478,7 @@
         <v>4.2</v>
       </c>
       <c r="H45" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I45" t="n">
         <v>2.3</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="G46" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="H46" t="n">
         <v>6.8</v>
       </c>
       <c r="I46" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="J46" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="K46" t="n">
-        <v>950</v>
+        <v>7.4</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6631,22 +6631,22 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O46" t="n">
         <v>1.21</v>
       </c>
       <c r="P46" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R46" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S46" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T46" t="n">
         <v>1.01</v>
@@ -6658,7 +6658,7 @@
         <v>1.01</v>
       </c>
       <c r="W46" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="X46" t="n">
         <v>25</v>
@@ -6745,7 +6745,7 @@
         <v>3.05</v>
       </c>
       <c r="G47" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H47" t="n">
         <v>2.74</v>
@@ -6799,7 +6799,7 @@
         <v>10</v>
       </c>
       <c r="Y47" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z47" t="n">
         <v>16</v>
@@ -6808,7 +6808,7 @@
         <v>42</v>
       </c>
       <c r="AB47" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC47" t="n">
         <v>7</v>
@@ -6820,13 +6820,13 @@
         <v>34</v>
       </c>
       <c r="AF47" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG47" t="n">
         <v>13.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI47" t="n">
         <v>55</v>
@@ -6835,13 +6835,13 @@
         <v>55</v>
       </c>
       <c r="AK47" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL47" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM47" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN47" t="n">
         <v>42</v>
@@ -6883,10 +6883,10 @@
         <v>2.86</v>
       </c>
       <c r="H48" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I48" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="J48" t="n">
         <v>3.4</v>
@@ -6913,7 +6913,7 @@
         <v>1.8</v>
       </c>
       <c r="R48" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S48" t="n">
         <v>3</v>
@@ -6925,7 +6925,7 @@
         <v>2.24</v>
       </c>
       <c r="V48" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W48" t="n">
         <v>1.53</v>
@@ -7018,7 +7018,7 @@
         <v>1000</v>
       </c>
       <c r="H49" t="n">
-        <v>2.64</v>
+        <v>3.55</v>
       </c>
       <c r="I49" t="n">
         <v>5.6</v>
@@ -7036,16 +7036,16 @@
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O49" t="n">
         <v>1.01</v>
       </c>
       <c r="P49" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="R49" t="n">
         <v>1.24</v>
@@ -7156,7 +7156,7 @@
         <v>6</v>
       </c>
       <c r="I50" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="J50" t="n">
         <v>3.65</v>
@@ -7291,7 +7291,7 @@
         <v>1.39</v>
       </c>
       <c r="I51" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="J51" t="n">
         <v>4.5</v>
@@ -7315,7 +7315,7 @@
         <v>2.08</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R51" t="n">
         <v>1.4</v>
@@ -7330,7 +7330,7 @@
         <v>1.01</v>
       </c>
       <c r="V51" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="W51" t="n">
         <v>1.06</v>
@@ -7570,19 +7570,19 @@
         <v>4</v>
       </c>
       <c r="L53" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M53" t="n">
         <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O53" t="n">
         <v>1.28</v>
       </c>
       <c r="P53" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q53" t="n">
         <v>1.88</v>
@@ -7591,7 +7591,7 @@
         <v>1.43</v>
       </c>
       <c r="S53" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T53" t="n">
         <v>1.8</v>
@@ -7618,7 +7618,7 @@
         <v>110</v>
       </c>
       <c r="AB53" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC53" t="n">
         <v>8.6</v>
@@ -7690,7 +7690,7 @@
         <v>3.15</v>
       </c>
       <c r="G54" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H54" t="n">
         <v>2.3</v>
@@ -7699,7 +7699,7 @@
         <v>2.32</v>
       </c>
       <c r="J54" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K54" t="n">
         <v>3.95</v>
@@ -7714,19 +7714,19 @@
         <v>6</v>
       </c>
       <c r="O54" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P54" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R54" t="n">
         <v>1.69</v>
       </c>
       <c r="S54" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="T54" t="n">
         <v>1.52</v>
@@ -7738,7 +7738,7 @@
         <v>1.75</v>
       </c>
       <c r="W54" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X54" t="n">
         <v>25</v>
@@ -7750,7 +7750,7 @@
         <v>18.5</v>
       </c>
       <c r="AA54" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AB54" t="n">
         <v>19.5</v>
@@ -7846,10 +7846,10 @@
         <v>1.1</v>
       </c>
       <c r="N55" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O55" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P55" t="n">
         <v>1.67</v>
@@ -7858,7 +7858,7 @@
         <v>2.44</v>
       </c>
       <c r="R55" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S55" t="n">
         <v>4.8</v>
@@ -7912,7 +7912,7 @@
         <v>85</v>
       </c>
       <c r="AJ55" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK55" t="n">
         <v>26</v>
@@ -7966,7 +7966,7 @@
         <v>6</v>
       </c>
       <c r="I56" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J56" t="n">
         <v>4.8</v>
@@ -7975,13 +7975,13 @@
         <v>4.9</v>
       </c>
       <c r="L56" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="M56" t="n">
         <v>1.03</v>
       </c>
       <c r="N56" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O56" t="n">
         <v>1.18</v>
@@ -7996,7 +7996,7 @@
         <v>1.68</v>
       </c>
       <c r="S56" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T56" t="n">
         <v>1.67</v>
@@ -8014,7 +8014,7 @@
         <v>27</v>
       </c>
       <c r="Y56" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z56" t="n">
         <v>55</v>
@@ -8023,7 +8023,7 @@
         <v>160</v>
       </c>
       <c r="AB56" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC56" t="n">
         <v>11</v>
@@ -8053,7 +8053,7 @@
         <v>14.5</v>
       </c>
       <c r="AL56" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM56" t="n">
         <v>75</v>
@@ -8110,22 +8110,22 @@
         <v>3.8</v>
       </c>
       <c r="L57" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M57" t="n">
         <v>1.05</v>
       </c>
       <c r="N57" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O57" t="n">
         <v>1.24</v>
       </c>
       <c r="P57" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R57" t="n">
         <v>1.5</v>
@@ -8170,7 +8170,7 @@
         <v>29</v>
       </c>
       <c r="AF57" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG57" t="n">
         <v>11.5</v>
@@ -8194,7 +8194,7 @@
         <v>70</v>
       </c>
       <c r="AN57" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO57" t="n">
         <v>22</v>
@@ -8230,10 +8230,10 @@
         <v>3.05</v>
       </c>
       <c r="G58" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H58" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="I58" t="n">
         <v>2.48</v>
@@ -8242,46 +8242,46 @@
         <v>3.35</v>
       </c>
       <c r="K58" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L58" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M58" t="n">
         <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O58" t="n">
         <v>1.3</v>
       </c>
       <c r="P58" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R58" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S58" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T58" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="U58" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="V58" t="n">
         <v>1.67</v>
       </c>
       <c r="W58" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X58" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y58" t="n">
         <v>11.5</v>
@@ -8293,10 +8293,10 @@
         <v>36</v>
       </c>
       <c r="AB58" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC58" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD58" t="n">
         <v>12.5</v>
@@ -8305,22 +8305,22 @@
         <v>30</v>
       </c>
       <c r="AF58" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG58" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH58" t="n">
         <v>17.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ58" t="n">
         <v>70</v>
       </c>
       <c r="AK58" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL58" t="n">
         <v>55</v>
@@ -8329,7 +8329,7 @@
         <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AO58" t="n">
         <v>21</v>
@@ -8521,7 +8521,7 @@
         <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O60" t="n">
         <v>1.31</v>
@@ -8533,19 +8533,19 @@
         <v>1.97</v>
       </c>
       <c r="R60" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S60" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T60" t="n">
         <v>1.59</v>
       </c>
       <c r="U60" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V60" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W60" t="n">
         <v>1.84</v>
@@ -8572,7 +8572,7 @@
         <v>23</v>
       </c>
       <c r="AE60" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF60" t="n">
         <v>18</v>
@@ -8593,7 +8593,7 @@
         <v>30</v>
       </c>
       <c r="AL60" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM60" t="n">
         <v>1000</v>
@@ -8632,19 +8632,19 @@
         </is>
       </c>
       <c r="F61" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G61" t="n">
         <v>1.97</v>
       </c>
-      <c r="G61" t="n">
-        <v>2</v>
-      </c>
       <c r="H61" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I61" t="n">
         <v>5</v>
       </c>
       <c r="J61" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K61" t="n">
         <v>3.9</v>
@@ -8674,58 +8674,58 @@
         <v>2.9</v>
       </c>
       <c r="T61" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U61" t="n">
         <v>1.69</v>
       </c>
       <c r="V61" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W61" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X61" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y61" t="n">
         <v>16</v>
       </c>
-      <c r="Y61" t="n">
-        <v>18</v>
-      </c>
       <c r="Z61" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA61" t="n">
         <v>120</v>
       </c>
       <c r="AB61" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC61" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD61" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE61" t="n">
         <v>70</v>
       </c>
       <c r="AF61" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI61" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ61" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AK61" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL61" t="n">
         <v>42</v>
@@ -8734,7 +8734,7 @@
         <v>140</v>
       </c>
       <c r="AN61" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO61" t="n">
         <v>90</v>
@@ -8785,7 +8785,7 @@
         <v>4.1</v>
       </c>
       <c r="L62" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M62" t="n">
         <v>1.06</v>
@@ -8938,16 +8938,16 @@
         <v>1.47</v>
       </c>
       <c r="R63" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="S63" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="T63" t="n">
         <v>1.41</v>
       </c>
       <c r="U63" t="n">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="V63" t="n">
         <v>1.37</v>
@@ -9004,7 +9004,7 @@
         <v>60</v>
       </c>
       <c r="AN63" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO63" t="n">
         <v>22</v>
@@ -9040,7 +9040,7 @@
         <v>1.66</v>
       </c>
       <c r="G64" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H64" t="n">
         <v>4.6</v>
@@ -9049,7 +9049,7 @@
         <v>6.2</v>
       </c>
       <c r="J64" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K64" t="n">
         <v>4.8</v>
@@ -9088,7 +9088,7 @@
         <v>1.19</v>
       </c>
       <c r="W64" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="X64" t="n">
         <v>1000</v>
@@ -9175,22 +9175,22 @@
         <v>2.9</v>
       </c>
       <c r="G65" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H65" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="I65" t="n">
         <v>2.66</v>
       </c>
       <c r="J65" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K65" t="n">
         <v>3.85</v>
       </c>
       <c r="L65" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M65" t="n">
         <v>1.01</v>
@@ -9223,7 +9223,7 @@
         <v>1.6</v>
       </c>
       <c r="W65" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X65" t="n">
         <v>21</v>
@@ -9310,16 +9310,16 @@
         <v>2.2</v>
       </c>
       <c r="G66" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="H66" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I66" t="n">
         <v>3.95</v>
       </c>
       <c r="J66" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K66" t="n">
         <v>4.8</v>
@@ -9358,7 +9358,7 @@
         <v>1.4</v>
       </c>
       <c r="W66" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X66" t="n">
         <v>25</v>
@@ -9373,7 +9373,7 @@
         <v>1000</v>
       </c>
       <c r="AB66" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AC66" t="n">
         <v>11</v>
@@ -9400,7 +9400,7 @@
         <v>1000</v>
       </c>
       <c r="AK66" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL66" t="n">
         <v>1000</v>
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G67" t="n">
         <v>4.6</v>
@@ -9451,7 +9451,7 @@
         <v>1.9</v>
       </c>
       <c r="I67" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J67" t="n">
         <v>3.75</v>
@@ -9475,22 +9475,22 @@
         <v>1.91</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="R67" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S67" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="T67" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U67" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V67" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W67" t="n">
         <v>1.28</v>
@@ -9499,37 +9499,37 @@
         <v>16</v>
       </c>
       <c r="Y67" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z67" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA67" t="n">
         <v>24</v>
       </c>
       <c r="AB67" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC67" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD67" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE67" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF67" t="n">
         <v>38</v>
       </c>
       <c r="AG67" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH67" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI67" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ67" t="n">
         <v>120</v>
@@ -9538,13 +9538,13 @@
         <v>70</v>
       </c>
       <c r="AL67" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM67" t="n">
         <v>130</v>
       </c>
       <c r="AN67" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO67" t="n">
         <v>16</v>
@@ -9577,16 +9577,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="G68" t="n">
         <v>3.2</v>
       </c>
       <c r="H68" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I68" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="J68" t="n">
         <v>3.3</v>
@@ -9607,13 +9607,13 @@
         <v>1.38</v>
       </c>
       <c r="P68" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R68" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S68" t="n">
         <v>3.25</v>
@@ -9625,7 +9625,7 @@
         <v>1.01</v>
       </c>
       <c r="V68" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W68" t="n">
         <v>1.46</v>
@@ -9712,16 +9712,16 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G69" t="n">
         <v>1.88</v>
       </c>
       <c r="H69" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I69" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J69" t="n">
         <v>3.7</v>
@@ -9754,7 +9754,7 @@
         <v>3.05</v>
       </c>
       <c r="T69" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U69" t="n">
         <v>1.81</v>
@@ -9850,16 +9850,16 @@
         <v>3.6</v>
       </c>
       <c r="G70" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="H70" t="n">
         <v>2.04</v>
       </c>
       <c r="I70" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="J70" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="K70" t="n">
         <v>4.3</v>
@@ -9880,10 +9880,10 @@
         <v>1.8</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="R70" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S70" t="n">
         <v>3.05</v>
@@ -9895,10 +9895,10 @@
         <v>1.01</v>
       </c>
       <c r="V70" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="W70" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X70" t="n">
         <v>1000</v>
@@ -9991,7 +9991,7 @@
         <v>2.54</v>
       </c>
       <c r="I71" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="J71" t="n">
         <v>3.4</v>
@@ -10030,10 +10030,10 @@
         <v>1.01</v>
       </c>
       <c r="V71" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W71" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="X71" t="n">
         <v>22</v>
@@ -10255,7 +10255,7 @@
         <v>2.16</v>
       </c>
       <c r="G73" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="H73" t="n">
         <v>3.5</v>
@@ -10291,10 +10291,10 @@
         <v>1.23</v>
       </c>
       <c r="S73" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T73" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U73" t="n">
         <v>1.65</v>
@@ -10303,7 +10303,7 @@
         <v>1.27</v>
       </c>
       <c r="W73" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="X73" t="n">
         <v>17</v>
@@ -10555,7 +10555,7 @@
         <v>1.73</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R75" t="n">
         <v>1.27</v>
@@ -10927,10 +10927,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G78" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H78" t="n">
         <v>1.57</v>
@@ -10945,7 +10945,7 @@
         <v>4.6</v>
       </c>
       <c r="L78" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M78" t="n">
         <v>1.07</v>
@@ -10954,10 +10954,10 @@
         <v>3.85</v>
       </c>
       <c r="O78" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P78" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q78" t="n">
         <v>2.02</v>
@@ -10966,7 +10966,7 @@
         <v>1.37</v>
       </c>
       <c r="S78" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T78" t="n">
         <v>2.1</v>
@@ -10981,7 +10981,7 @@
         <v>1.16</v>
       </c>
       <c r="X78" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y78" t="n">
         <v>7.6</v>
@@ -11020,7 +11020,7 @@
         <v>220</v>
       </c>
       <c r="AK78" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AL78" t="n">
         <v>110</v>
@@ -11068,10 +11068,10 @@
         <v>3.25</v>
       </c>
       <c r="H79" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I79" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J79" t="n">
         <v>3.7</v>
@@ -11080,25 +11080,25 @@
         <v>3.75</v>
       </c>
       <c r="L79" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M79" t="n">
         <v>1.06</v>
       </c>
       <c r="N79" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O79" t="n">
         <v>1.27</v>
       </c>
       <c r="P79" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q79" t="n">
         <v>1.83</v>
       </c>
       <c r="R79" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S79" t="n">
         <v>3.05</v>
@@ -11107,7 +11107,7 @@
         <v>1.68</v>
       </c>
       <c r="U79" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V79" t="n">
         <v>1.72</v>
@@ -11116,19 +11116,19 @@
         <v>1.44</v>
       </c>
       <c r="X79" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y79" t="n">
         <v>12</v>
       </c>
       <c r="Z79" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA79" t="n">
         <v>32</v>
       </c>
       <c r="AB79" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC79" t="n">
         <v>8.199999999999999</v>
@@ -11146,7 +11146,7 @@
         <v>13.5</v>
       </c>
       <c r="AH79" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI79" t="n">
         <v>34</v>
@@ -11161,7 +11161,7 @@
         <v>40</v>
       </c>
       <c r="AM79" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN79" t="n">
         <v>27</v>
@@ -11203,7 +11203,7 @@
         <v>1.95</v>
       </c>
       <c r="H80" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I80" t="n">
         <v>4.5</v>
@@ -11215,7 +11215,7 @@
         <v>3.85</v>
       </c>
       <c r="L80" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M80" t="n">
         <v>1.07</v>
@@ -11224,19 +11224,19 @@
         <v>4.1</v>
       </c>
       <c r="O80" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P80" t="n">
         <v>2.04</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R80" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S80" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T80" t="n">
         <v>1.81</v>
@@ -11245,7 +11245,7 @@
         <v>2.16</v>
       </c>
       <c r="V80" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W80" t="n">
         <v>2.04</v>
@@ -11476,7 +11476,7 @@
         <v>3.35</v>
       </c>
       <c r="I82" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J82" t="n">
         <v>3.85</v>
@@ -11605,19 +11605,19 @@
         <v>2.3</v>
       </c>
       <c r="G83" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H83" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I83" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J83" t="n">
         <v>3.25</v>
       </c>
       <c r="K83" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L83" t="n">
         <v>1.01</v>
@@ -11635,25 +11635,25 @@
         <v>1.83</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R83" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S83" t="n">
         <v>3</v>
       </c>
       <c r="T83" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="U83" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V83" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="W83" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="X83" t="n">
         <v>17.5</v>
@@ -12007,22 +12007,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="G86" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="H86" t="n">
-        <v>1.74</v>
+        <v>1.52</v>
       </c>
       <c r="I86" t="n">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="J86" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="K86" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -12031,16 +12031,16 @@
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>2.58</v>
+        <v>2.34</v>
       </c>
       <c r="O86" t="n">
         <v>1.17</v>
       </c>
       <c r="P86" t="n">
-        <v>2.58</v>
+        <v>2.34</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="R86" t="n">
         <v>1.55</v>
@@ -12049,16 +12049,16 @@
         <v>2.1</v>
       </c>
       <c r="T86" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="U86" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V86" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="W86" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="X86" t="n">
         <v>38</v>
@@ -12307,16 +12307,16 @@
         <v>1.22</v>
       </c>
       <c r="P88" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R88" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S88" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T88" t="n">
         <v>1.01</v>
@@ -12424,10 +12424,10 @@
         <v>4.2</v>
       </c>
       <c r="J89" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K89" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L89" t="n">
         <v>1.01</v>
@@ -12568,7 +12568,7 @@
         <v>1.41</v>
       </c>
       <c r="M90" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N90" t="n">
         <v>1.83</v>
@@ -12688,7 +12688,7 @@
         <v>2.96</v>
       </c>
       <c r="H91" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I91" t="n">
         <v>2.66</v>
@@ -12700,19 +12700,19 @@
         <v>3.55</v>
       </c>
       <c r="L91" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M91" t="n">
         <v>1.07</v>
       </c>
       <c r="N91" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O91" t="n">
         <v>1.32</v>
       </c>
       <c r="P91" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q91" t="n">
         <v>1.98</v>
@@ -12721,10 +12721,10 @@
         <v>1.39</v>
       </c>
       <c r="S91" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T91" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U91" t="n">
         <v>2.24</v>
@@ -12766,7 +12766,7 @@
         <v>13</v>
       </c>
       <c r="AH91" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI91" t="n">
         <v>40</v>
@@ -12778,7 +12778,7 @@
         <v>32</v>
       </c>
       <c r="AL91" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM91" t="n">
         <v>85</v>
@@ -12850,7 +12850,7 @@
         <v>3</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="R92" t="n">
         <v>1.73</v>
@@ -12955,7 +12955,7 @@
         <v>1.9</v>
       </c>
       <c r="G93" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H93" t="n">
         <v>4</v>
@@ -12982,16 +12982,16 @@
         <v>1.13</v>
       </c>
       <c r="P93" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="Q93" t="n">
         <v>1.48</v>
       </c>
       <c r="R93" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="S93" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T93" t="n">
         <v>1.01</v>
@@ -13009,7 +13009,7 @@
         <v>1000</v>
       </c>
       <c r="Y93" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z93" t="n">
         <v>1000</v>
@@ -13018,37 +13018,37 @@
         <v>1000</v>
       </c>
       <c r="AB93" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC93" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD93" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE93" t="n">
         <v>1000</v>
       </c>
       <c r="AF93" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG93" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH93" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI93" t="n">
         <v>1000</v>
       </c>
       <c r="AJ93" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK93" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL93" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM93" t="n">
         <v>1000</v>
@@ -13096,10 +13096,10 @@
         <v>1.24</v>
       </c>
       <c r="I94" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="J94" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K94" t="n">
         <v>950</v>
@@ -13120,10 +13120,10 @@
         <v>2.6</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="R94" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S94" t="n">
         <v>2.06</v>
@@ -13225,7 +13225,7 @@
         <v>2.28</v>
       </c>
       <c r="G95" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H95" t="n">
         <v>3.5</v>
@@ -13246,22 +13246,22 @@
         <v>1.01</v>
       </c>
       <c r="N95" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O95" t="n">
         <v>1.44</v>
       </c>
       <c r="P95" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q95" t="n">
         <v>1.44</v>
       </c>
       <c r="R95" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S95" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T95" t="n">
         <v>1.01</v>
@@ -13273,7 +13273,7 @@
         <v>1.35</v>
       </c>
       <c r="W95" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="X95" t="n">
         <v>12.5</v>
@@ -13315,7 +13315,7 @@
         <v>38</v>
       </c>
       <c r="AK95" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AL95" t="n">
         <v>55</v>
@@ -13360,10 +13360,10 @@
         <v>2.1</v>
       </c>
       <c r="G96" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H96" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="I96" t="n">
         <v>4.5</v>
@@ -13393,10 +13393,10 @@
         <v>1.86</v>
       </c>
       <c r="R96" t="n">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="S96" t="n">
-        <v>1.86</v>
+        <v>2.52</v>
       </c>
       <c r="T96" t="n">
         <v>1.01</v>
@@ -13408,7 +13408,7 @@
         <v>1.28</v>
       </c>
       <c r="W96" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X96" t="n">
         <v>1000</v>
@@ -13495,16 +13495,16 @@
         <v>1.11</v>
       </c>
       <c r="G97" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="H97" t="n">
-        <v>1.09</v>
+        <v>21</v>
       </c>
       <c r="I97" t="n">
         <v>44</v>
       </c>
       <c r="J97" t="n">
-        <v>1.03</v>
+        <v>10</v>
       </c>
       <c r="K97" t="n">
         <v>13</v>
@@ -13525,7 +13525,7 @@
         <v>3.3</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -13633,7 +13633,7 @@
         <v>4.2</v>
       </c>
       <c r="H98" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
         <v>2.02</v>
@@ -13645,13 +13645,13 @@
         <v>3.95</v>
       </c>
       <c r="L98" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M98" t="n">
         <v>1.05</v>
       </c>
       <c r="N98" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O98" t="n">
         <v>1.26</v>
@@ -13666,7 +13666,7 @@
         <v>1.49</v>
       </c>
       <c r="S98" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T98" t="n">
         <v>1.7</v>
@@ -13765,13 +13765,13 @@
         <v>1.98</v>
       </c>
       <c r="G99" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H99" t="n">
         <v>4.1</v>
       </c>
       <c r="I99" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="J99" t="n">
         <v>3.3</v>
@@ -13783,13 +13783,13 @@
         <v>1.46</v>
       </c>
       <c r="M99" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N99" t="n">
-        <v>1.72</v>
+        <v>3.15</v>
       </c>
       <c r="O99" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P99" t="n">
         <v>1.72</v>
@@ -13798,16 +13798,16 @@
         <v>2.14</v>
       </c>
       <c r="R99" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S99" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="T99" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U99" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V99" t="n">
         <v>1.28</v>
@@ -13816,58 +13816,58 @@
         <v>1.85</v>
       </c>
       <c r="X99" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y99" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y99" t="n">
-        <v>17</v>
-      </c>
       <c r="Z99" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AA99" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB99" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AC99" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD99" t="n">
         <v>21</v>
       </c>
       <c r="AE99" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF99" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AG99" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH99" t="n">
         <v>24</v>
       </c>
       <c r="AI99" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AO99" t="n">
         <v>85</v>
-      </c>
-      <c r="AJ99" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK99" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL99" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM99" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN99" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO99" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="100">
@@ -13897,22 +13897,22 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G100" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H100" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="I100" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J100" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K100" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L100" t="n">
         <v>1.01</v>
@@ -13921,19 +13921,19 @@
         <v>1.01</v>
       </c>
       <c r="N100" t="n">
-        <v>4</v>
+        <v>2.04</v>
       </c>
       <c r="O100" t="n">
         <v>1.26</v>
       </c>
       <c r="P100" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q100" t="n">
         <v>1.84</v>
       </c>
       <c r="R100" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S100" t="n">
         <v>2.76</v>
@@ -13945,10 +13945,10 @@
         <v>1.01</v>
       </c>
       <c r="V100" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W100" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X100" t="n">
         <v>21</v>
@@ -14044,7 +14044,7 @@
         <v>3.35</v>
       </c>
       <c r="J101" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="K101" t="n">
         <v>3.4</v>
@@ -14065,7 +14065,7 @@
         <v>1.57</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="R101" t="n">
         <v>1.17</v>
@@ -14167,22 +14167,22 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="G102" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="H102" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I102" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="J102" t="n">
         <v>3</v>
       </c>
       <c r="K102" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="L102" t="n">
         <v>1.01</v>
@@ -14191,22 +14191,22 @@
         <v>1.01</v>
       </c>
       <c r="N102" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O102" t="n">
         <v>1.01</v>
       </c>
       <c r="P102" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="R102" t="n">
         <v>1.08</v>
       </c>
       <c r="S102" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="T102" t="n">
         <v>1.01</v>
@@ -14215,10 +14215,10 @@
         <v>1.01</v>
       </c>
       <c r="V102" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W102" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="X102" t="n">
         <v>1000</v>
@@ -14302,22 +14302,22 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G103" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="H103" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J103" t="n">
         <v>3.5</v>
       </c>
       <c r="K103" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L103" t="n">
         <v>1.01</v>
@@ -14332,40 +14332,40 @@
         <v>1.25</v>
       </c>
       <c r="P103" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R103" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S103" t="n">
         <v>2.6</v>
       </c>
       <c r="T103" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="U103" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V103" t="n">
         <v>1.52</v>
       </c>
       <c r="W103" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X103" t="n">
         <v>25</v>
       </c>
       <c r="Y103" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z103" t="n">
         <v>29</v>
       </c>
       <c r="AA103" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB103" t="n">
         <v>18</v>
@@ -14383,7 +14383,7 @@
         <v>26</v>
       </c>
       <c r="AG103" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH103" t="n">
         <v>22</v>
@@ -14461,16 +14461,16 @@
         <v>1.01</v>
       </c>
       <c r="N104" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="O104" t="n">
         <v>1.27</v>
       </c>
       <c r="P104" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R104" t="n">
         <v>1.32</v>
@@ -14578,7 +14578,7 @@
         <v>4.8</v>
       </c>
       <c r="H105" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I105" t="n">
         <v>1.85</v>
@@ -14608,10 +14608,10 @@
         <v>1.61</v>
       </c>
       <c r="R105" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S105" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T105" t="n">
         <v>1.01</v>
@@ -14707,46 +14707,46 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="G106" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="H106" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="I106" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J106" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K106" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L106" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M106" t="n">
         <v>1.01</v>
       </c>
       <c r="N106" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O106" t="n">
         <v>1.32</v>
       </c>
       <c r="P106" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R106" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S106" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T106" t="n">
         <v>1.01</v>
@@ -14755,10 +14755,10 @@
         <v>1.01</v>
       </c>
       <c r="V106" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W106" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="X106" t="n">
         <v>17</v>
@@ -14767,7 +14767,7 @@
         <v>30</v>
       </c>
       <c r="Z106" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AA106" t="n">
         <v>1000</v>
@@ -14779,19 +14779,19 @@
         <v>13</v>
       </c>
       <c r="AD106" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AE106" t="n">
         <v>1000</v>
       </c>
       <c r="AF106" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG106" t="n">
         <v>12</v>
       </c>
       <c r="AH106" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI106" t="n">
         <v>1000</v>
@@ -14845,7 +14845,7 @@
         <v>2.22</v>
       </c>
       <c r="G107" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H107" t="n">
         <v>3.3</v>
@@ -14866,7 +14866,7 @@
         <v>1.05</v>
       </c>
       <c r="N107" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O107" t="n">
         <v>1.28</v>
@@ -14881,7 +14881,7 @@
         <v>1.31</v>
       </c>
       <c r="S107" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T107" t="n">
         <v>1.01</v>
@@ -15013,10 +15013,10 @@
         <v>1.48</v>
       </c>
       <c r="R108" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S108" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T108" t="n">
         <v>1.01</v>
@@ -15034,7 +15034,7 @@
         <v>34</v>
       </c>
       <c r="Y108" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z108" t="n">
         <v>70</v>
@@ -15043,40 +15043,40 @@
         <v>1000</v>
       </c>
       <c r="AB108" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC108" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF108" t="n">
         <v>15</v>
       </c>
-      <c r="AD108" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE108" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AG108" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH108" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI108" t="n">
         <v>70</v>
       </c>
       <c r="AJ108" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK108" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL108" t="n">
         <v>32</v>
       </c>
       <c r="AM108" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN108" t="n">
         <v>1000</v>
@@ -15115,7 +15115,7 @@
         <v>6.6</v>
       </c>
       <c r="G109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H109" t="n">
         <v>1.42</v>
@@ -15151,10 +15151,10 @@
         <v>1.29</v>
       </c>
       <c r="S109" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T109" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U109" t="n">
         <v>1.01</v>
@@ -15382,25 +15382,25 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="G111" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="H111" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I111" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J111" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K111" t="n">
         <v>3.65</v>
       </c>
-      <c r="K111" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L111" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M111" t="n">
         <v>1.08</v>
@@ -15424,22 +15424,22 @@
         <v>3.85</v>
       </c>
       <c r="T111" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U111" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V111" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W111" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X111" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y111" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z111" t="n">
         <v>42</v>
@@ -15448,7 +15448,7 @@
         <v>140</v>
       </c>
       <c r="AB111" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC111" t="n">
         <v>8</v>
@@ -15472,7 +15472,7 @@
         <v>85</v>
       </c>
       <c r="AJ111" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK111" t="n">
         <v>19.5</v>
@@ -15484,10 +15484,10 @@
         <v>130</v>
       </c>
       <c r="AN111" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO111" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112">
@@ -15517,22 +15517,22 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="G112" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="H112" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="I112" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J112" t="n">
         <v>4.4</v>
       </c>
       <c r="K112" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="L112" t="n">
         <v>1.01</v>
@@ -15544,7 +15544,7 @@
         <v>2.28</v>
       </c>
       <c r="O112" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P112" t="n">
         <v>2.28</v>
@@ -15553,7 +15553,7 @@
         <v>1.45</v>
       </c>
       <c r="R112" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S112" t="n">
         <v>2.1</v>
@@ -15565,10 +15565,10 @@
         <v>1.01</v>
       </c>
       <c r="V112" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="W112" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="X112" t="n">
         <v>1000</v>
@@ -15670,13 +15670,13 @@
         <v>4.4</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M113" t="n">
         <v>1.06</v>
       </c>
       <c r="N113" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O113" t="n">
         <v>1.27</v>
@@ -15685,7 +15685,7 @@
         <v>2.16</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R113" t="n">
         <v>1.45</v>
@@ -15700,10 +15700,10 @@
         <v>2.1</v>
       </c>
       <c r="V113" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="W113" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X113" t="n">
         <v>17.5</v>
@@ -15724,7 +15724,7 @@
         <v>9.4</v>
       </c>
       <c r="AD113" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE113" t="n">
         <v>16.5</v>
@@ -15739,10 +15739,10 @@
         <v>20</v>
       </c>
       <c r="AI113" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ113" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AK113" t="n">
         <v>75</v>
@@ -15757,7 +15757,7 @@
         <v>85</v>
       </c>
       <c r="AO113" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
@@ -15790,7 +15790,7 @@
         <v>1.32</v>
       </c>
       <c r="G114" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="H114" t="n">
         <v>9</v>
@@ -15799,22 +15799,22 @@
         <v>12.5</v>
       </c>
       <c r="J114" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="K114" t="n">
         <v>6.6</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="O114" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P114" t="n">
         <v>2.64</v>
@@ -15823,76 +15823,76 @@
         <v>1.48</v>
       </c>
       <c r="R114" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S114" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="T114" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U114" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V114" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W114" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="X114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO114" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="115">
@@ -15922,112 +15922,112 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G115" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H115" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I115" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="J115" t="n">
         <v>3.3</v>
       </c>
       <c r="K115" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M115" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O115" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P115" t="n">
         <v>1.85</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="R115" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S115" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T115" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U115" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V115" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W115" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X115" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y115" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z115" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA115" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB115" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC115" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD115" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE115" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF115" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG115" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH115" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI115" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ115" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK115" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL115" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM115" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN115" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO115" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="116">
@@ -16057,7 +16057,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G116" t="n">
         <v>10.5</v>
@@ -16066,7 +16066,7 @@
         <v>1.3</v>
       </c>
       <c r="I116" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="J116" t="n">
         <v>7</v>
@@ -16075,7 +16075,7 @@
         <v>7.2</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M116" t="n">
         <v>1.01</v>
@@ -16087,37 +16087,37 @@
         <v>1.11</v>
       </c>
       <c r="P116" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="R116" t="n">
         <v>2.1</v>
       </c>
       <c r="S116" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="T116" t="n">
         <v>1.68</v>
       </c>
       <c r="U116" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V116" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="W116" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X116" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y116" t="n">
         <v>17</v>
       </c>
       <c r="Z116" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA116" t="n">
         <v>12.5</v>
@@ -16126,13 +16126,13 @@
         <v>55</v>
       </c>
       <c r="AC116" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD116" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF116" t="n">
         <v>120</v>
@@ -16141,25 +16141,25 @@
         <v>38</v>
       </c>
       <c r="AH116" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI116" t="n">
         <v>26</v>
-      </c>
-      <c r="AI116" t="n">
-        <v>27</v>
       </c>
       <c r="AJ116" t="n">
         <v>330</v>
       </c>
       <c r="AK116" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL116" t="n">
         <v>85</v>
       </c>
       <c r="AM116" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN116" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AO116" t="n">
         <v>3.3</v>
@@ -16210,7 +16210,7 @@
         <v>4.9</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M117" t="n">
         <v>1.03</v>
@@ -16240,46 +16240,46 @@
         <v>2.3</v>
       </c>
       <c r="V117" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W117" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="X117" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y117" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z117" t="n">
         <v>60</v>
       </c>
       <c r="AA117" t="n">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="AB117" t="n">
         <v>11.5</v>
       </c>
       <c r="AC117" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD117" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE117" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF117" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG117" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH117" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI117" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ117" t="n">
         <v>14.5</v>
@@ -16288,7 +16288,7 @@
         <v>14</v>
       </c>
       <c r="AL117" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM117" t="n">
         <v>80</v>
@@ -16297,7 +16297,7 @@
         <v>6</v>
       </c>
       <c r="AO117" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118">
@@ -16330,109 +16330,109 @@
         <v>2.4</v>
       </c>
       <c r="G118" t="n">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="H118" t="n">
         <v>2.8</v>
       </c>
       <c r="I118" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="J118" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K118" t="n">
         <v>4.1</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N118" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="O118" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P118" t="n">
         <v>2.16</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S118" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T118" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U118" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V118" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W118" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO118" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="119">
@@ -16480,94 +16480,94 @@
         <v>4</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M119" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N119" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O119" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P119" t="n">
         <v>2.2</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R119" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S119" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T119" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U119" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="V119" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W119" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="X119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO119" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="120">
@@ -16615,7 +16615,7 @@
         <v>3.75</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M120" t="n">
         <v>1.08</v>
@@ -16627,7 +16627,7 @@
         <v>1.37</v>
       </c>
       <c r="P120" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q120" t="n">
         <v>2.12</v>
@@ -16645,10 +16645,10 @@
         <v>1.98</v>
       </c>
       <c r="V120" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W120" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X120" t="n">
         <v>12.5</v>
@@ -16663,7 +16663,7 @@
         <v>130</v>
       </c>
       <c r="AB120" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC120" t="n">
         <v>8.199999999999999</v>
@@ -16735,7 +16735,7 @@
         <v>2.16</v>
       </c>
       <c r="G121" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H121" t="n">
         <v>3.7</v>
@@ -16750,16 +16750,16 @@
         <v>3.5</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="O121" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P121" t="n">
         <v>1.65</v>
@@ -16768,76 +16768,76 @@
         <v>2.42</v>
       </c>
       <c r="R121" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S121" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T121" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U121" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V121" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W121" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X121" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y121" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z121" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA121" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB121" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC121" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD121" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE121" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF121" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG121" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH121" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI121" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ121" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK121" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL121" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM121" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN121" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO121" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="122">
@@ -16879,22 +16879,22 @@
         <v>3.15</v>
       </c>
       <c r="J122" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K122" t="n">
         <v>3.4</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O122" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P122" t="n">
         <v>1.8</v>
@@ -16903,76 +16903,76 @@
         <v>2.04</v>
       </c>
       <c r="R122" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S122" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T122" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U122" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V122" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W122" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X122" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y122" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z122" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA122" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB122" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC122" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD122" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE122" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF122" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG122" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH122" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI122" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ122" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK122" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL122" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO122" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="123">
@@ -17005,7 +17005,7 @@
         <v>1.76</v>
       </c>
       <c r="G123" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H123" t="n">
         <v>5</v>
@@ -17020,16 +17020,16 @@
         <v>4</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="O123" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P123" t="n">
         <v>1.74</v>
@@ -17038,76 +17038,76 @@
         <v>2.08</v>
       </c>
       <c r="R123" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S123" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T123" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U123" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V123" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W123" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO123" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="124">
@@ -17137,7 +17137,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G124" t="n">
         <v>2.22</v>
@@ -17146,103 +17146,103 @@
         <v>3.9</v>
       </c>
       <c r="I124" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="J124" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K124" t="n">
         <v>3.8</v>
       </c>
       <c r="L124" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N124" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O124" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P124" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="R124" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S124" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T124" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U124" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V124" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W124" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="X124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO124" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="125">
@@ -17272,112 +17272,112 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="G125" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H125" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I125" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J125" t="n">
         <v>3.15</v>
       </c>
       <c r="K125" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N125" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="O125" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P125" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q125" t="n">
         <v>2.28</v>
       </c>
       <c r="R125" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S125" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T125" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U125" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V125" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W125" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X125" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y125" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z125" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA125" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB125" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC125" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD125" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE125" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF125" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG125" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH125" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI125" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ125" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK125" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL125" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM125" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN125" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO125" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="126">
@@ -17407,34 +17407,34 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G126" t="n">
         <v>1.54</v>
       </c>
       <c r="H126" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I126" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J126" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K126" t="n">
         <v>4.8</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N126" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="O126" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P126" t="n">
         <v>1.69</v>
@@ -17443,76 +17443,76 @@
         <v>2.04</v>
       </c>
       <c r="R126" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S126" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T126" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U126" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V126" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W126" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="X126" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y126" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z126" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA126" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB126" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC126" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD126" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AE126" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF126" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG126" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH126" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AI126" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ126" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK126" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL126" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM126" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN126" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO126" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="127">
@@ -17542,112 +17542,112 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G127" t="n">
         <v>1.67</v>
       </c>
       <c r="H127" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="I127" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J127" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K127" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M127" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O127" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P127" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="R127" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S127" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="T127" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U127" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V127" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W127" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="X127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO127" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="128">
@@ -17677,112 +17677,112 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="G128" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="H128" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="I128" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="J128" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K128" t="n">
         <v>5.8</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N128" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O128" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P128" t="n">
         <v>2.5</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="R128" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S128" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T128" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U128" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V128" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W128" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="X128" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Y128" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z128" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AA128" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB128" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC128" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD128" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE128" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF128" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG128" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH128" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI128" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ128" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK128" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL128" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM128" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN128" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO128" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="129">
@@ -17812,16 +17812,16 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G129" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H129" t="n">
         <v>2.68</v>
       </c>
-      <c r="H129" t="n">
-        <v>2.72</v>
-      </c>
       <c r="I129" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="J129" t="n">
         <v>3.75</v>
@@ -17830,94 +17830,94 @@
         <v>3.85</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N129" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="O129" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P129" t="n">
         <v>2.34</v>
       </c>
       <c r="Q129" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S129" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U129" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V129" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W129" t="n">
         <v>1.58</v>
       </c>
-      <c r="R129" t="n">
-        <v>0</v>
-      </c>
-      <c r="S129" t="n">
-        <v>0</v>
-      </c>
-      <c r="T129" t="n">
-        <v>0</v>
-      </c>
-      <c r="U129" t="n">
-        <v>0</v>
-      </c>
-      <c r="V129" t="n">
-        <v>0</v>
-      </c>
-      <c r="W129" t="n">
-        <v>0</v>
-      </c>
       <c r="X129" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y129" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z129" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA129" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB129" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC129" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD129" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE129" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF129" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG129" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH129" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI129" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ129" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK129" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL129" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM129" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN129" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO129" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="130">
@@ -17947,13 +17947,13 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G130" t="n">
         <v>3.75</v>
       </c>
       <c r="H130" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="I130" t="n">
         <v>2.28</v>
@@ -17965,16 +17965,16 @@
         <v>3.95</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N130" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P130" t="n">
         <v>2.08</v>
@@ -17983,76 +17983,76 @@
         <v>1.78</v>
       </c>
       <c r="R130" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S130" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="T130" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U130" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V130" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="W130" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X130" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y130" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z130" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA130" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AB130" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AC130" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD130" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE130" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF130" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG130" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH130" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI130" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ130" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK130" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL130" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM130" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN130" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO130" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="131">
@@ -18082,13 +18082,13 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G131" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H131" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I131" t="n">
         <v>4.2</v>
@@ -18109,10 +18109,10 @@
         <v>2.76</v>
       </c>
       <c r="O131" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P131" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q131" t="n">
         <v>2.68</v>
@@ -18136,31 +18136,31 @@
         <v>0</v>
       </c>
       <c r="X131" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y131" t="n">
         <v>11</v>
       </c>
       <c r="Z131" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA131" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB131" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC131" t="n">
         <v>7</v>
       </c>
       <c r="AD131" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE131" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF131" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG131" t="n">
         <v>12</v>
@@ -18169,25 +18169,25 @@
         <v>25</v>
       </c>
       <c r="AI131" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ131" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK131" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL131" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM131" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN131" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO131" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132">
@@ -18352,16 +18352,16 @@
         </is>
       </c>
       <c r="F133" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G133" t="n">
         <v>1.87</v>
       </c>
-      <c r="G133" t="n">
-        <v>1.89</v>
-      </c>
       <c r="H133" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I133" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J133" t="n">
         <v>4.2</v>
@@ -18409,7 +18409,7 @@
         <v>22</v>
       </c>
       <c r="Y133" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z133" t="n">
         <v>36</v>
@@ -18493,7 +18493,7 @@
         <v>5</v>
       </c>
       <c r="H134" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="I134" t="n">
         <v>1.9</v>
@@ -18517,10 +18517,10 @@
         <v>0</v>
       </c>
       <c r="P134" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="R134" t="n">
         <v>0</v>
@@ -18625,13 +18625,13 @@
         <v>8.4</v>
       </c>
       <c r="G135" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="H135" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="I135" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="J135" t="n">
         <v>6.2</v>
@@ -18721,7 +18721,7 @@
         <v>85</v>
       </c>
       <c r="AM135" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN135" t="n">
         <v>80</v>
@@ -18757,13 +18757,13 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G136" t="n">
         <v>2.14</v>
       </c>
       <c r="H136" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I136" t="n">
         <v>4.5</v>
@@ -18892,19 +18892,19 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G137" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="H137" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I137" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J137" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K137" t="n">
         <v>4.2</v>
@@ -19297,16 +19297,16 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G140" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H140" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I140" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J140" t="n">
         <v>3.25</v>
@@ -19330,7 +19330,7 @@
         <v>1.7</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R140" t="n">
         <v>0</v>
@@ -19435,7 +19435,7 @@
         <v>2.16</v>
       </c>
       <c r="G141" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H141" t="n">
         <v>3.3</v>
@@ -19840,13 +19840,13 @@
         <v>2.08</v>
       </c>
       <c r="G144" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H144" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I144" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="J144" t="n">
         <v>2.94</v>
@@ -19870,7 +19870,7 @@
         <v>1.45</v>
       </c>
       <c r="Q144" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="R144" t="n">
         <v>0</v>
@@ -19984,7 +19984,7 @@
         <v>6.4</v>
       </c>
       <c r="J145" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K145" t="n">
         <v>4.3</v>
@@ -20002,7 +20002,7 @@
         <v>0</v>
       </c>
       <c r="P145" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q145" t="n">
         <v>1.9</v>
@@ -20257,7 +20257,7 @@
         <v>3.3</v>
       </c>
       <c r="K147" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L147" t="n">
         <v>0</v>
@@ -20377,19 +20377,19 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G148" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="H148" t="n">
         <v>2.14</v>
       </c>
       <c r="I148" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="J148" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K148" t="n">
         <v>3.9</v>
@@ -20407,10 +20407,10 @@
         <v>0</v>
       </c>
       <c r="P148" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R148" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-31.xlsx
@@ -685,7 +685,7 @@
         <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
@@ -697,7 +697,7 @@
         <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q2" t="n">
         <v>1.57</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G3" t="n">
         <v>4.4</v>
@@ -826,7 +826,7 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
@@ -841,10 +841,10 @@
         <v>1.34</v>
       </c>
       <c r="S3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U3" t="n">
         <v>2.08</v>
@@ -868,7 +868,7 @@
         <v>25</v>
       </c>
       <c r="AB3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC3" t="n">
         <v>8.4</v>
@@ -949,7 +949,7 @@
         <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
         <v>4.4</v>
@@ -976,13 +976,13 @@
         <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T4" t="n">
         <v>1.56</v>
       </c>
       <c r="U4" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="V4" t="n">
         <v>1.36</v>
@@ -1003,7 +1003,7 @@
         <v>65</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC4" t="n">
         <v>10.5</v>
@@ -1015,7 +1015,7 @@
         <v>40</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
@@ -1030,7 +1030,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>30</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="H5" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I5" t="n">
         <v>2.86</v>
@@ -1090,40 +1090,40 @@
         <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q5" t="n">
         <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S5" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T5" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U5" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X5" t="n">
         <v>19.5</v>
@@ -1171,13 +1171,13 @@
         <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -1240,7 +1240,7 @@
         <v>1.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>1.64</v>
       </c>
       <c r="G7" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="H7" t="n">
         <v>4.6</v>
@@ -1480,16 +1480,16 @@
         <v>3.7</v>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I8" t="n">
         <v>2.18</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
         <v>3.85</v>
@@ -1516,7 +1516,7 @@
         <v>1.41</v>
       </c>
       <c r="S8" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T8" t="n">
         <v>1.75</v>
@@ -1528,7 +1528,7 @@
         <v>1.84</v>
       </c>
       <c r="W8" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X8" t="n">
         <v>16.5</v>
@@ -1627,7 +1627,7 @@
         <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.43</v>
@@ -1714,7 +1714,7 @@
         <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
         <v>65</v>
@@ -1774,7 +1774,7 @@
         <v>2.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
         <v>2.2</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="G11" t="n">
         <v>1.53</v>
@@ -1897,7 +1897,7 @@
         <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.41</v>
@@ -1930,7 +1930,7 @@
         <v>1.72</v>
       </c>
       <c r="V11" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W11" t="n">
         <v>2.88</v>
@@ -1972,7 +1972,7 @@
         <v>160</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK11" t="n">
         <v>18.5</v>
@@ -1984,7 +1984,7 @@
         <v>220</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO11" t="n">
         <v>290</v>
@@ -2026,10 +2026,10 @@
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>11.5</v>
@@ -2065,7 +2065,7 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="W12" t="n">
         <v>2.4</v>
@@ -2167,7 +2167,7 @@
         <v>2.74</v>
       </c>
       <c r="K13" t="n">
-        <v>5.7</v>
+        <v>950</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2290,7 +2290,7 @@
         <v>3.75</v>
       </c>
       <c r="G14" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
         <v>1.89</v>
@@ -2338,7 +2338,7 @@
         <v>1.89</v>
       </c>
       <c r="W14" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2425,19 +2425,19 @@
         <v>2.34</v>
       </c>
       <c r="G15" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H15" t="n">
         <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L15" t="n">
         <v>1.35</v>
@@ -2452,10 +2452,10 @@
         <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R15" t="n">
         <v>1.43</v>
@@ -2470,16 +2470,16 @@
         <v>2.32</v>
       </c>
       <c r="V15" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W15" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="n">
         <v>27</v>
@@ -2500,7 +2500,7 @@
         <v>36</v>
       </c>
       <c r="AF15" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG15" t="n">
         <v>12</v>
@@ -2518,7 +2518,7 @@
         <v>25</v>
       </c>
       <c r="AL15" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
         <v>70</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G16" t="n">
         <v>1.77</v>
@@ -2590,7 +2590,7 @@
         <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="R16" t="n">
         <v>1.5</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G17" t="n">
         <v>2.8</v>
@@ -2704,7 +2704,7 @@
         <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
         <v>3.5</v>
@@ -2719,7 +2719,7 @@
         <v>3.45</v>
       </c>
       <c r="O17" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
         <v>1.84</v>
@@ -2746,13 +2746,13 @@
         <v>1.56</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
         <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
         <v>50</v>
@@ -2779,7 +2779,7 @@
         <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
         <v>40</v>
@@ -2836,7 +2836,7 @@
         <v>5.1</v>
       </c>
       <c r="I18" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J18" t="n">
         <v>4.3</v>
@@ -2989,7 +2989,7 @@
         <v>2.66</v>
       </c>
       <c r="O19" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="P19" t="n">
         <v>1.56</v>
@@ -3001,10 +3001,10 @@
         <v>1.2</v>
       </c>
       <c r="S19" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U19" t="n">
         <v>1.83</v>
@@ -3100,19 +3100,19 @@
         <v>2.1</v>
       </c>
       <c r="G20" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="H20" t="n">
         <v>3.45</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.28</v>
@@ -3130,13 +3130,13 @@
         <v>2.16</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R20" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S20" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="T20" t="n">
         <v>1.52</v>
@@ -3145,10 +3145,10 @@
         <v>2.12</v>
       </c>
       <c r="V20" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W20" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3373,16 +3373,16 @@
         <v>2.88</v>
       </c>
       <c r="H22" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I22" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L22" t="n">
         <v>1.51</v>
@@ -3415,7 +3415,7 @@
         <v>1.98</v>
       </c>
       <c r="V22" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W22" t="n">
         <v>1.53</v>
@@ -3442,7 +3442,7 @@
         <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="n">
         <v>17</v>
@@ -3568,10 +3568,10 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AC23" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AD23" t="n">
         <v>23</v>
@@ -3583,7 +3583,7 @@
         <v>20</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH23" t="n">
         <v>23</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="I24" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J24" t="n">
         <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>5.2</v>
+        <v>950</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3688,7 +3688,7 @@
         <v>1.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="G25" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="J25" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>9.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,16 +3796,16 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="O25" t="n">
         <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="R25" t="n">
         <v>1.48</v>
@@ -3820,10 +3820,10 @@
         <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="W25" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3916,10 +3916,10 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="J26" t="n">
-        <v>1.72</v>
+        <v>1.09</v>
       </c>
       <c r="K26" t="n">
         <v>3.8</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="G27" t="n">
         <v>2.38</v>
@@ -4051,7 +4051,7 @@
         <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J27" t="n">
         <v>3.4</v>
@@ -4072,13 +4072,13 @@
         <v>1.29</v>
       </c>
       <c r="P27" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q27" t="n">
         <v>1.86</v>
       </c>
       <c r="R27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S27" t="n">
         <v>2.88</v>
@@ -4090,10 +4090,10 @@
         <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W27" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4186,7 +4186,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J28" t="n">
         <v>2.86</v>
@@ -4195,7 +4195,7 @@
         <v>3.75</v>
       </c>
       <c r="L28" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
@@ -4207,16 +4207,16 @@
         <v>1.4</v>
       </c>
       <c r="P28" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R28" t="n">
         <v>1.26</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="T28" t="n">
         <v>1.89</v>
@@ -4225,7 +4225,7 @@
         <v>1.89</v>
       </c>
       <c r="V28" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="W28" t="n">
         <v>1.73</v>
@@ -4354,10 +4354,10 @@
         <v>6</v>
       </c>
       <c r="T29" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="U29" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="V29" t="n">
         <v>1.42</v>
@@ -4384,7 +4384,7 @@
         <v>8.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE29" t="n">
         <v>65</v>
@@ -4393,7 +4393,7 @@
         <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AH29" t="n">
         <v>34</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="G30" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="n">
         <v>2.66</v>
       </c>
       <c r="K30" t="n">
-        <v>5.3</v>
+        <v>60</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,22 +4471,22 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="O30" t="n">
         <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="R30" t="n">
         <v>1.12</v>
       </c>
       <c r="S30" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T30" t="n">
         <v>1.01</v>
@@ -4495,10 +4495,10 @@
         <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W30" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4585,7 +4585,7 @@
         <v>2.38</v>
       </c>
       <c r="G31" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="H31" t="n">
         <v>2.9</v>
@@ -4594,7 +4594,7 @@
         <v>3.25</v>
       </c>
       <c r="J31" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
         <v>3.9</v>
@@ -4606,10 +4606,10 @@
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P31" t="n">
         <v>2.02</v>
@@ -4618,22 +4618,22 @@
         <v>1.82</v>
       </c>
       <c r="R31" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S31" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T31" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="U31" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="V31" t="n">
         <v>1.45</v>
       </c>
       <c r="W31" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="X31" t="n">
         <v>19</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="G32" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="H32" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="I32" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L32" t="n">
         <v>1.44</v>
@@ -4744,13 +4744,13 @@
         <v>1.57</v>
       </c>
       <c r="O32" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P32" t="n">
         <v>1.57</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R32" t="n">
         <v>1.2</v>
@@ -4765,10 +4765,10 @@
         <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W32" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4852,25 +4852,25 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H33" t="n">
         <v>2.5</v>
       </c>
-      <c r="G33" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2.54</v>
-      </c>
       <c r="I33" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J33" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="K33" t="n">
         <v>4.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M33" t="n">
         <v>1.12</v>
@@ -4885,7 +4885,7 @@
         <v>1.49</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="R33" t="n">
         <v>1.18</v>
@@ -4900,25 +4900,25 @@
         <v>1.67</v>
       </c>
       <c r="V33" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W33" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="X33" t="n">
         <v>9.4</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA33" t="n">
         <v>65</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC33" t="n">
         <v>8</v>
@@ -4930,7 +4930,7 @@
         <v>55</v>
       </c>
       <c r="AF33" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG33" t="n">
         <v>16.5</v>
@@ -4939,7 +4939,7 @@
         <v>27</v>
       </c>
       <c r="AI33" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ33" t="n">
         <v>65</v>
@@ -4948,7 +4948,7 @@
         <v>55</v>
       </c>
       <c r="AL33" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM33" t="n">
         <v>1000</v>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G34" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="I34" t="n">
         <v>3.65</v>
@@ -5002,7 +5002,7 @@
         <v>2.78</v>
       </c>
       <c r="K34" t="n">
-        <v>11</v>
+        <v>5.4</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5020,13 +5020,13 @@
         <v>1.6</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="R34" t="n">
         <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T34" t="n">
         <v>1.01</v>
@@ -5035,7 +5035,7 @@
         <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W34" t="n">
         <v>1.42</v>
@@ -5131,55 +5131,55 @@
         <v>3.9</v>
       </c>
       <c r="I35" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K35" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
         <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O35" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P35" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R35" t="n">
         <v>1.26</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T35" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U35" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="V35" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W35" t="n">
         <v>1.81</v>
       </c>
       <c r="X35" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z35" t="n">
         <v>36</v>
@@ -5188,16 +5188,16 @@
         <v>110</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC35" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD35" t="n">
         <v>20</v>
       </c>
       <c r="AE35" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF35" t="n">
         <v>14.5</v>
@@ -5209,7 +5209,7 @@
         <v>23</v>
       </c>
       <c r="AI35" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ35" t="n">
         <v>30</v>
@@ -5227,7 +5227,7 @@
         <v>21</v>
       </c>
       <c r="AO35" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
@@ -5263,13 +5263,13 @@
         <v>2.8</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I36" t="n">
         <v>3.7</v>
       </c>
       <c r="J36" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K36" t="n">
         <v>3.45</v>
@@ -5290,7 +5290,7 @@
         <v>1.61</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R36" t="n">
         <v>1.22</v>
@@ -5329,13 +5329,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD36" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AE36" t="n">
         <v>60</v>
       </c>
       <c r="AF36" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AG36" t="n">
         <v>14.5</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
         <v>2.66</v>
@@ -5401,7 +5401,7 @@
         <v>3.05</v>
       </c>
       <c r="I37" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J37" t="n">
         <v>2.84</v>
@@ -5416,13 +5416,13 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O37" t="n">
         <v>1.01</v>
       </c>
       <c r="P37" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q37" t="n">
         <v>2.02</v>
@@ -5431,7 +5431,7 @@
         <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T37" t="n">
         <v>1.01</v>
@@ -5440,7 +5440,7 @@
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W37" t="n">
         <v>1.6</v>
@@ -5746,7 +5746,7 @@
         <v>10.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI39" t="n">
         <v>55</v>
@@ -5764,7 +5764,7 @@
         <v>100</v>
       </c>
       <c r="AN39" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO39" t="n">
         <v>50</v>
@@ -5809,7 +5809,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="K40" t="n">
         <v>4.7</v>
@@ -5845,7 +5845,7 @@
         <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W40" t="n">
         <v>2.48</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="G41" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="H41" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="I41" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J41" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="K41" t="n">
-        <v>19.5</v>
+        <v>6.8</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5980,10 +5980,10 @@
         <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W41" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6073,7 +6073,7 @@
         <v>2.24</v>
       </c>
       <c r="H42" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I42" t="n">
         <v>4.5</v>
@@ -6118,7 +6118,7 @@
         <v>1.32</v>
       </c>
       <c r="W42" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X42" t="n">
         <v>13.5</v>
@@ -6205,10 +6205,10 @@
         <v>3.05</v>
       </c>
       <c r="G43" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H43" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I43" t="n">
         <v>2.68</v>
@@ -6235,7 +6235,7 @@
         <v>1.82</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="R43" t="n">
         <v>1.31</v>
@@ -6244,7 +6244,7 @@
         <v>3.5</v>
       </c>
       <c r="T43" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="U43" t="n">
         <v>2.1</v>
@@ -6253,7 +6253,7 @@
         <v>1.59</v>
       </c>
       <c r="W43" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X43" t="n">
         <v>14</v>
@@ -6262,7 +6262,7 @@
         <v>11</v>
       </c>
       <c r="Z43" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AA43" t="n">
         <v>38</v>
@@ -6283,7 +6283,7 @@
         <v>23</v>
       </c>
       <c r="AG43" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH43" t="n">
         <v>21</v>
@@ -6292,19 +6292,19 @@
         <v>44</v>
       </c>
       <c r="AJ43" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="n">
         <v>40</v>
       </c>
       <c r="AL43" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM43" t="n">
         <v>120</v>
       </c>
       <c r="AN43" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AO43" t="n">
         <v>25</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="G44" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I44" t="n">
         <v>3.75</v>
       </c>
       <c r="J44" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K44" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L44" t="n">
         <v>1.51</v>
@@ -6424,7 +6424,7 @@
         <v>23</v>
       </c>
       <c r="AI44" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ44" t="n">
         <v>44</v>
@@ -6436,13 +6436,13 @@
         <v>55</v>
       </c>
       <c r="AM44" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN44" t="n">
         <v>36</v>
       </c>
       <c r="AO44" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45">
@@ -6607,112 +6607,112 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.16</v>
+        <v>1.45</v>
       </c>
       <c r="G46" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="H46" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="I46" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J46" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K46" t="n">
-        <v>7.4</v>
+        <v>5.2</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>2.1</v>
+        <v>2.44</v>
       </c>
       <c r="O46" t="n">
         <v>1.21</v>
       </c>
       <c r="P46" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="R46" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="S46" t="n">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="T46" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U46" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="V46" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W46" t="n">
-        <v>2.7</v>
+        <v>2.96</v>
       </c>
       <c r="X46" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47">
@@ -6877,13 +6877,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G48" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H48" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I48" t="n">
         <v>2.98</v>
@@ -6895,7 +6895,7 @@
         <v>3.9</v>
       </c>
       <c r="L48" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M48" t="n">
         <v>1.06</v>
@@ -6904,7 +6904,7 @@
         <v>3.95</v>
       </c>
       <c r="O48" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P48" t="n">
         <v>2.02</v>
@@ -6943,7 +6943,7 @@
         <v>44</v>
       </c>
       <c r="AB48" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC48" t="n">
         <v>8.6</v>
@@ -6955,7 +6955,7 @@
         <v>32</v>
       </c>
       <c r="AF48" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG48" t="n">
         <v>13</v>
@@ -6967,10 +6967,10 @@
         <v>46</v>
       </c>
       <c r="AJ48" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK48" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL48" t="n">
         <v>40</v>
@@ -6979,7 +6979,7 @@
         <v>80</v>
       </c>
       <c r="AN48" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO48" t="n">
         <v>24</v>
@@ -7018,7 +7018,7 @@
         <v>1000</v>
       </c>
       <c r="H49" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I49" t="n">
         <v>5.6</v>
@@ -7039,7 +7039,7 @@
         <v>1.58</v>
       </c>
       <c r="O49" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P49" t="n">
         <v>1.58</v>
@@ -7177,10 +7177,10 @@
         <v>1.01</v>
       </c>
       <c r="P50" t="n">
-        <v>1.71</v>
+        <v>1.26</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.14</v>
+        <v>1.38</v>
       </c>
       <c r="R50" t="n">
         <v>1.25</v>
@@ -7429,7 +7429,7 @@
         <v>1000</v>
       </c>
       <c r="J52" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K52" t="n">
         <v>3.8</v>
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G53" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="H53" t="n">
         <v>4.7</v>
@@ -7579,7 +7579,7 @@
         <v>4.3</v>
       </c>
       <c r="O53" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P53" t="n">
         <v>2.1</v>
@@ -7603,7 +7603,7 @@
         <v>1.26</v>
       </c>
       <c r="W53" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X53" t="n">
         <v>16.5</v>
@@ -7750,7 +7750,7 @@
         <v>18.5</v>
       </c>
       <c r="AA54" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB54" t="n">
         <v>19.5</v>
@@ -7831,7 +7831,7 @@
         <v>4.3</v>
       </c>
       <c r="I55" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J55" t="n">
         <v>3.4</v>
@@ -7987,7 +7987,7 @@
         <v>1.18</v>
       </c>
       <c r="P56" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q56" t="n">
         <v>1.55</v>
@@ -8008,7 +8008,7 @@
         <v>1.19</v>
       </c>
       <c r="W56" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X56" t="n">
         <v>27</v>
@@ -8059,7 +8059,7 @@
         <v>75</v>
       </c>
       <c r="AN56" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO56" t="n">
         <v>55</v>
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="F57" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G57" t="n">
         <v>2.5</v>
       </c>
-      <c r="G57" t="n">
-        <v>2.54</v>
-      </c>
       <c r="H57" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J57" t="n">
         <v>3.75</v>
@@ -8140,10 +8140,10 @@
         <v>2.52</v>
       </c>
       <c r="V57" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W57" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X57" t="n">
         <v>19</v>
@@ -8227,25 +8227,25 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G58" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H58" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="I58" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="J58" t="n">
         <v>3.35</v>
       </c>
       <c r="K58" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L58" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M58" t="n">
         <v>1.06</v>
@@ -8254,7 +8254,7 @@
         <v>3.4</v>
       </c>
       <c r="O58" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P58" t="n">
         <v>1.94</v>
@@ -8269,22 +8269,22 @@
         <v>3.1</v>
       </c>
       <c r="T58" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U58" t="n">
         <v>2.14</v>
       </c>
       <c r="V58" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="W58" t="n">
         <v>1.38</v>
       </c>
       <c r="X58" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y58" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z58" t="n">
         <v>18</v>
@@ -8293,19 +8293,19 @@
         <v>36</v>
       </c>
       <c r="AB58" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC58" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD58" t="n">
         <v>12.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AF58" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG58" t="n">
         <v>16</v>
@@ -8329,7 +8329,7 @@
         <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO58" t="n">
         <v>21</v>
@@ -8368,16 +8368,16 @@
         <v>2.92</v>
       </c>
       <c r="H59" t="n">
-        <v>2.52</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
         <v>3.7</v>
       </c>
       <c r="J59" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K59" t="n">
-        <v>7.8</v>
+        <v>950</v>
       </c>
       <c r="L59" t="n">
         <v>1.01</v>
@@ -8416,7 +8416,7 @@
         <v>1.52</v>
       </c>
       <c r="X59" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y59" t="n">
         <v>18</v>
@@ -8428,7 +8428,7 @@
         <v>1000</v>
       </c>
       <c r="AB59" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC59" t="n">
         <v>11</v>
@@ -8446,7 +8446,7 @@
         <v>16</v>
       </c>
       <c r="AH59" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI59" t="n">
         <v>1000</v>
@@ -8497,19 +8497,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G60" t="n">
         <v>2.18</v>
       </c>
       <c r="H60" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I60" t="n">
         <v>4.7</v>
       </c>
       <c r="J60" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K60" t="n">
         <v>3.85</v>
@@ -8533,19 +8533,19 @@
         <v>1.97</v>
       </c>
       <c r="R60" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S60" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="T60" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U60" t="n">
         <v>1.75</v>
       </c>
       <c r="V60" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W60" t="n">
         <v>1.84</v>
@@ -8569,7 +8569,7 @@
         <v>11</v>
       </c>
       <c r="AD60" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE60" t="n">
         <v>70</v>
@@ -8587,13 +8587,13 @@
         <v>85</v>
       </c>
       <c r="AJ60" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK60" t="n">
         <v>30</v>
       </c>
       <c r="AL60" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM60" t="n">
         <v>1000</v>
@@ -8632,100 +8632,100 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="G61" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H61" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I61" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J61" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K61" t="n">
         <v>3.9</v>
       </c>
       <c r="L61" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M61" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>1.81</v>
+        <v>3.35</v>
       </c>
       <c r="O61" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P61" t="n">
         <v>1.81</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R61" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V61" t="n">
         <v>1.23</v>
       </c>
-      <c r="S61" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T61" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U61" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V61" t="n">
-        <v>1.25</v>
-      </c>
       <c r="W61" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X61" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y61" t="n">
         <v>16</v>
       </c>
       <c r="Z61" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA61" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB61" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC61" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD61" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE61" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF61" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG61" t="n">
         <v>10.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI61" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ61" t="n">
         <v>23</v>
       </c>
       <c r="AK61" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL61" t="n">
         <v>42</v>
@@ -8734,10 +8734,10 @@
         <v>140</v>
       </c>
       <c r="AN61" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO61" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62">
@@ -8776,7 +8776,7 @@
         <v>1.77</v>
       </c>
       <c r="I62" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="J62" t="n">
         <v>3.7</v>
@@ -8785,7 +8785,7 @@
         <v>4.1</v>
       </c>
       <c r="L62" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M62" t="n">
         <v>1.06</v>
@@ -8809,25 +8809,25 @@
         <v>3.35</v>
       </c>
       <c r="T62" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U62" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V62" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W62" t="n">
         <v>1.22</v>
       </c>
       <c r="X62" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y62" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z62" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AA62" t="n">
         <v>20</v>
@@ -8836,7 +8836,7 @@
         <v>18</v>
       </c>
       <c r="AC62" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD62" t="n">
         <v>10.5</v>
@@ -8866,13 +8866,13 @@
         <v>70</v>
       </c>
       <c r="AM62" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN62" t="n">
         <v>85</v>
       </c>
       <c r="AO62" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="63">
@@ -8956,7 +8956,7 @@
         <v>1.87</v>
       </c>
       <c r="X63" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Y63" t="n">
         <v>23</v>
@@ -8980,7 +8980,7 @@
         <v>32</v>
       </c>
       <c r="AF63" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG63" t="n">
         <v>12</v>
@@ -8998,10 +8998,10 @@
         <v>19.5</v>
       </c>
       <c r="AL63" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM63" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN63" t="n">
         <v>10</v>
@@ -9040,7 +9040,7 @@
         <v>1.66</v>
       </c>
       <c r="G64" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H64" t="n">
         <v>4.6</v>
@@ -9049,7 +9049,7 @@
         <v>6.2</v>
       </c>
       <c r="J64" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K64" t="n">
         <v>4.8</v>
@@ -9061,22 +9061,22 @@
         <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="O64" t="n">
         <v>1.18</v>
       </c>
       <c r="P64" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S64" t="n">
         <v>2.28</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R64" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S64" t="n">
-        <v>2.26</v>
       </c>
       <c r="T64" t="n">
         <v>1.01</v>
@@ -9088,7 +9088,7 @@
         <v>1.19</v>
       </c>
       <c r="W64" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X64" t="n">
         <v>1000</v>
@@ -9331,16 +9331,16 @@
         <v>1.01</v>
       </c>
       <c r="N66" t="n">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="O66" t="n">
         <v>1.25</v>
       </c>
       <c r="P66" t="n">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="R66" t="n">
         <v>1.34</v>
@@ -9367,13 +9367,13 @@
         <v>20</v>
       </c>
       <c r="Z66" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA66" t="n">
         <v>1000</v>
       </c>
       <c r="AB66" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC66" t="n">
         <v>11</v>
@@ -9385,10 +9385,10 @@
         <v>1000</v>
       </c>
       <c r="AF66" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG66" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH66" t="n">
         <v>21</v>
@@ -9448,7 +9448,7 @@
         <v>4.6</v>
       </c>
       <c r="H67" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="I67" t="n">
         <v>1.94</v>
@@ -9463,10 +9463,10 @@
         <v>1.41</v>
       </c>
       <c r="M67" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N67" t="n">
-        <v>1.91</v>
+        <v>3.65</v>
       </c>
       <c r="O67" t="n">
         <v>1.33</v>
@@ -9475,19 +9475,19 @@
         <v>1.91</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="R67" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="S67" t="n">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="T67" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="U67" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="V67" t="n">
         <v>2.06</v>
@@ -9496,58 +9496,58 @@
         <v>1.28</v>
       </c>
       <c r="X67" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y67" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z67" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA67" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB67" t="n">
         <v>17</v>
       </c>
       <c r="AC67" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD67" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF67" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AG67" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AH67" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI67" t="n">
         <v>38</v>
       </c>
       <c r="AJ67" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK67" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL67" t="n">
         <v>70</v>
       </c>
       <c r="AM67" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN67" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO67" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="68">
@@ -9598,10 +9598,10 @@
         <v>1.45</v>
       </c>
       <c r="M68" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N68" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O68" t="n">
         <v>1.38</v>
@@ -9613,16 +9613,16 @@
         <v>2</v>
       </c>
       <c r="R68" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S68" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="T68" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="U68" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V68" t="n">
         <v>1.59</v>
@@ -9631,58 +9631,58 @@
         <v>1.46</v>
       </c>
       <c r="X68" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y68" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB68" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z68" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB68" t="n">
+      <c r="AC68" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG68" t="n">
         <v>14</v>
       </c>
-      <c r="AC68" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH68" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI68" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJ68" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK68" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL68" t="n">
         <v>55</v>
       </c>
       <c r="AM68" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN68" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO68" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
@@ -9724,7 +9724,7 @@
         <v>5.3</v>
       </c>
       <c r="J69" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K69" t="n">
         <v>4</v>
@@ -9787,7 +9787,7 @@
         <v>25</v>
       </c>
       <c r="AE69" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF69" t="n">
         <v>13</v>
@@ -9880,7 +9880,7 @@
         <v>1.8</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="R70" t="n">
         <v>1.26</v>
@@ -9988,7 +9988,7 @@
         <v>3.05</v>
       </c>
       <c r="H71" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I71" t="n">
         <v>2.8</v>
@@ -10006,16 +10006,16 @@
         <v>1.01</v>
       </c>
       <c r="N71" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="O71" t="n">
         <v>1.01</v>
       </c>
       <c r="P71" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="R71" t="n">
         <v>1.3</v>
@@ -10036,58 +10036,58 @@
         <v>1.48</v>
       </c>
       <c r="X71" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Y71" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="Z71" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AA71" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB71" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AC71" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AD71" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AE71" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI71" t="n">
         <v>38</v>
       </c>
-      <c r="AF71" t="n">
+      <c r="AJ71" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN71" t="n">
         <v>25</v>
       </c>
-      <c r="AG71" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM71" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO71" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
@@ -10255,10 +10255,10 @@
         <v>2.16</v>
       </c>
       <c r="G73" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="H73" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I73" t="n">
         <v>4.6</v>
@@ -10291,7 +10291,7 @@
         <v>1.23</v>
       </c>
       <c r="S73" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T73" t="n">
         <v>1.6</v>
@@ -10303,7 +10303,7 @@
         <v>1.27</v>
       </c>
       <c r="W73" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="X73" t="n">
         <v>17</v>
@@ -10420,7 +10420,7 @@
         <v>1.48</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R74" t="n">
         <v>1.16</v>
@@ -10555,7 +10555,7 @@
         <v>1.73</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R75" t="n">
         <v>1.27</v>
@@ -10579,7 +10579,7 @@
         <v>14.5</v>
       </c>
       <c r="Y75" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z75" t="n">
         <v>46</v>
@@ -10591,7 +10591,7 @@
         <v>7.8</v>
       </c>
       <c r="AC75" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD75" t="n">
         <v>24</v>
@@ -10600,7 +10600,7 @@
         <v>110</v>
       </c>
       <c r="AF75" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG75" t="n">
         <v>11</v>
@@ -10657,22 +10657,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="G76" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="H76" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="J76" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="K76" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="L76" t="n">
         <v>1.01</v>
@@ -10681,22 +10681,22 @@
         <v>1.01</v>
       </c>
       <c r="N76" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="O76" t="n">
         <v>1.21</v>
       </c>
       <c r="P76" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="R76" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S76" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T76" t="n">
         <v>1.01</v>
@@ -10705,10 +10705,10 @@
         <v>1.01</v>
       </c>
       <c r="V76" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="W76" t="n">
-        <v>2.56</v>
+        <v>2.28</v>
       </c>
       <c r="X76" t="n">
         <v>30</v>
@@ -10723,10 +10723,10 @@
         <v>1000</v>
       </c>
       <c r="AB76" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC76" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AD76" t="n">
         <v>34</v>
@@ -10735,10 +10735,10 @@
         <v>1000</v>
       </c>
       <c r="AF76" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AG76" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH76" t="n">
         <v>30</v>
@@ -10747,7 +10747,7 @@
         <v>1000</v>
       </c>
       <c r="AJ76" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AK76" t="n">
         <v>22</v>
@@ -10759,7 +10759,7 @@
         <v>1000</v>
       </c>
       <c r="AN76" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AO76" t="n">
         <v>1000</v>
@@ -10927,7 +10927,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="G78" t="n">
         <v>7.2</v>
@@ -10939,13 +10939,13 @@
         <v>1.58</v>
       </c>
       <c r="J78" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K78" t="n">
         <v>4.5</v>
       </c>
-      <c r="K78" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L78" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M78" t="n">
         <v>1.07</v>
@@ -10957,10 +10957,10 @@
         <v>1.34</v>
       </c>
       <c r="P78" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R78" t="n">
         <v>1.37</v>
@@ -11026,13 +11026,13 @@
         <v>110</v>
       </c>
       <c r="AM78" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN78" t="n">
         <v>160</v>
       </c>
       <c r="AO78" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="79">
@@ -11086,7 +11086,7 @@
         <v>1.06</v>
       </c>
       <c r="N79" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O79" t="n">
         <v>1.27</v>
@@ -11107,7 +11107,7 @@
         <v>1.68</v>
       </c>
       <c r="U79" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V79" t="n">
         <v>1.72</v>
@@ -11197,10 +11197,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G80" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H80" t="n">
         <v>4.3</v>
@@ -11227,10 +11227,10 @@
         <v>1.31</v>
       </c>
       <c r="P80" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R80" t="n">
         <v>1.39</v>
@@ -11239,13 +11239,13 @@
         <v>3.45</v>
       </c>
       <c r="T80" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U80" t="n">
         <v>2.16</v>
       </c>
       <c r="V80" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W80" t="n">
         <v>2.04</v>
@@ -11281,7 +11281,7 @@
         <v>10</v>
       </c>
       <c r="AH80" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI80" t="n">
         <v>60</v>
@@ -11530,7 +11530,7 @@
         <v>29</v>
       </c>
       <c r="AA82" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB82" t="n">
         <v>13.5</v>
@@ -11542,7 +11542,7 @@
         <v>15.5</v>
       </c>
       <c r="AE82" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF82" t="n">
         <v>18</v>
@@ -11554,7 +11554,7 @@
         <v>16</v>
       </c>
       <c r="AI82" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ82" t="n">
         <v>26</v>
@@ -11566,7 +11566,7 @@
         <v>30</v>
       </c>
       <c r="AM82" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN82" t="n">
         <v>11</v>
@@ -11635,7 +11635,7 @@
         <v>1.83</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R83" t="n">
         <v>1.27</v>
@@ -11644,10 +11644,10 @@
         <v>3</v>
       </c>
       <c r="T83" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="U83" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V83" t="n">
         <v>1.35</v>
@@ -11656,7 +11656,7 @@
         <v>1.56</v>
       </c>
       <c r="X83" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y83" t="n">
         <v>18</v>
@@ -11800,7 +11800,7 @@
         <v>18.5</v>
       </c>
       <c r="AA84" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB84" t="n">
         <v>12</v>
@@ -11812,7 +11812,7 @@
         <v>12.5</v>
       </c>
       <c r="AE84" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF84" t="n">
         <v>21</v>
@@ -11827,13 +11827,13 @@
         <v>42</v>
       </c>
       <c r="AJ84" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK84" t="n">
         <v>34</v>
       </c>
       <c r="AL84" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM84" t="n">
         <v>110</v>
@@ -12007,22 +12007,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="G86" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H86" t="n">
-        <v>1.52</v>
+        <v>1.29</v>
       </c>
       <c r="I86" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="J86" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K86" t="n">
-        <v>6.2</v>
+        <v>950</v>
       </c>
       <c r="L86" t="n">
         <v>1.01</v>
@@ -12031,34 +12031,34 @@
         <v>1.01</v>
       </c>
       <c r="N86" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O86" t="n">
         <v>1.17</v>
       </c>
       <c r="P86" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R86" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S86" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T86" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="U86" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V86" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W86" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X86" t="n">
         <v>38</v>
@@ -12145,16 +12145,16 @@
         <v>1.07</v>
       </c>
       <c r="G87" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="H87" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I87" t="n">
         <v>1000</v>
       </c>
       <c r="J87" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="K87" t="n">
         <v>950</v>
@@ -12193,7 +12193,7 @@
         <v>1.01</v>
       </c>
       <c r="W87" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X87" t="n">
         <v>55</v>
@@ -12208,7 +12208,7 @@
         <v>1000</v>
       </c>
       <c r="AB87" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC87" t="n">
         <v>44</v>
@@ -12220,7 +12220,7 @@
         <v>1000</v>
       </c>
       <c r="AF87" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AG87" t="n">
         <v>23</v>
@@ -12232,7 +12232,7 @@
         <v>1000</v>
       </c>
       <c r="AJ87" t="n">
-        <v>7.4</v>
+        <v>970</v>
       </c>
       <c r="AK87" t="n">
         <v>22</v>
@@ -12424,7 +12424,7 @@
         <v>4.2</v>
       </c>
       <c r="J89" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="K89" t="n">
         <v>3.1</v>
@@ -12454,7 +12454,7 @@
         <v>5.5</v>
       </c>
       <c r="T89" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="U89" t="n">
         <v>1.58</v>
@@ -12553,7 +12553,7 @@
         <v>2.22</v>
       </c>
       <c r="H90" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I90" t="n">
         <v>4.3</v>
@@ -12589,70 +12589,70 @@
         <v>3.25</v>
       </c>
       <c r="T90" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U90" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V90" t="n">
         <v>1.3</v>
       </c>
       <c r="W90" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X90" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y90" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z90" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA90" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB90" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC90" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD90" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH90" t="n">
         <v>19</v>
       </c>
-      <c r="AE90" t="n">
+      <c r="AI90" t="n">
         <v>60</v>
       </c>
-      <c r="AF90" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>70</v>
-      </c>
       <c r="AJ90" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AK90" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AL90" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM90" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN90" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO90" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91">
@@ -12688,10 +12688,10 @@
         <v>2.96</v>
       </c>
       <c r="H91" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I91" t="n">
         <v>2.64</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2.66</v>
       </c>
       <c r="J91" t="n">
         <v>3.5</v>
@@ -12712,7 +12712,7 @@
         <v>1.32</v>
       </c>
       <c r="P91" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q91" t="n">
         <v>1.98</v>
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.66</v>
+        <v>1.04</v>
       </c>
       <c r="G92" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="H92" t="n">
-        <v>2.3</v>
+        <v>1.99</v>
       </c>
       <c r="I92" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="J92" t="n">
-        <v>4.1</v>
+        <v>2.56</v>
       </c>
       <c r="K92" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="L92" t="n">
         <v>1.01</v>
@@ -12841,16 +12841,16 @@
         <v>1.01</v>
       </c>
       <c r="N92" t="n">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="O92" t="n">
         <v>1.12</v>
       </c>
       <c r="P92" t="n">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="R92" t="n">
         <v>1.73</v>
@@ -12859,7 +12859,7 @@
         <v>1.42</v>
       </c>
       <c r="T92" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="U92" t="n">
         <v>1.01</v>
@@ -12868,7 +12868,7 @@
         <v>1.67</v>
       </c>
       <c r="W92" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="X92" t="n">
         <v>1000</v>
@@ -12976,28 +12976,28 @@
         <v>1.03</v>
       </c>
       <c r="N93" t="n">
-        <v>1.03</v>
+        <v>6.4</v>
       </c>
       <c r="O93" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P93" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R93" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S93" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="T93" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="U93" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="V93" t="n">
         <v>1.31</v>
@@ -13006,58 +13006,58 @@
         <v>2.08</v>
       </c>
       <c r="X93" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y93" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Z93" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA93" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB93" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK93" t="n">
         <v>20</v>
       </c>
-      <c r="AC93" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>21</v>
-      </c>
       <c r="AL93" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AM93" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN93" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AO93" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
@@ -13225,13 +13225,13 @@
         <v>2.28</v>
       </c>
       <c r="G95" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H95" t="n">
         <v>3.5</v>
       </c>
       <c r="I95" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J95" t="n">
         <v>3.15</v>
@@ -13246,7 +13246,7 @@
         <v>1.01</v>
       </c>
       <c r="N95" t="n">
-        <v>1.65</v>
+        <v>2.92</v>
       </c>
       <c r="O95" t="n">
         <v>1.44</v>
@@ -13255,7 +13255,7 @@
         <v>1.65</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.44</v>
+        <v>2.14</v>
       </c>
       <c r="R95" t="n">
         <v>1.23</v>
@@ -13264,31 +13264,31 @@
         <v>3.8</v>
       </c>
       <c r="T95" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U95" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V95" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W95" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X95" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y95" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z95" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA95" t="n">
         <v>90</v>
       </c>
       <c r="AB95" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC95" t="n">
         <v>8.6</v>
@@ -13300,7 +13300,7 @@
         <v>60</v>
       </c>
       <c r="AF95" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG95" t="n">
         <v>13</v>
@@ -13315,7 +13315,7 @@
         <v>38</v>
       </c>
       <c r="AK95" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL95" t="n">
         <v>55</v>
@@ -13504,7 +13504,7 @@
         <v>44</v>
       </c>
       <c r="J97" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K97" t="n">
         <v>13</v>
@@ -13651,7 +13651,7 @@
         <v>1.05</v>
       </c>
       <c r="N98" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O98" t="n">
         <v>1.26</v>
@@ -13834,7 +13834,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD99" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE99" t="n">
         <v>65</v>
@@ -13846,7 +13846,7 @@
         <v>11.5</v>
       </c>
       <c r="AH99" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI99" t="n">
         <v>75</v>
@@ -13933,16 +13933,16 @@
         <v>1.84</v>
       </c>
       <c r="R100" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="S100" t="n">
         <v>2.76</v>
       </c>
       <c r="T100" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="U100" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="V100" t="n">
         <v>1.46</v>
@@ -14041,7 +14041,7 @@
         <v>2.86</v>
       </c>
       <c r="I101" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="J101" t="n">
         <v>2.76</v>
@@ -14056,13 +14056,13 @@
         <v>1.01</v>
       </c>
       <c r="N101" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="O101" t="n">
         <v>1.01</v>
       </c>
       <c r="P101" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q101" t="n">
         <v>2.38</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="G102" t="n">
         <v>2.22</v>
@@ -14176,37 +14176,37 @@
         <v>3.9</v>
       </c>
       <c r="I102" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="J102" t="n">
         <v>3</v>
       </c>
       <c r="K102" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L102" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M102" t="n">
         <v>1.01</v>
       </c>
       <c r="N102" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O102" t="n">
         <v>1.01</v>
       </c>
       <c r="P102" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R102" t="n">
         <v>1.08</v>
       </c>
       <c r="S102" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T102" t="n">
         <v>1.01</v>
@@ -14215,7 +14215,7 @@
         <v>1.01</v>
       </c>
       <c r="V102" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="W102" t="n">
         <v>1.81</v>
@@ -14335,13 +14335,13 @@
         <v>2.1</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="R103" t="n">
         <v>1.41</v>
       </c>
       <c r="S103" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="T103" t="n">
         <v>1.55</v>
@@ -14596,16 +14596,16 @@
         <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>2.42</v>
+        <v>2.14</v>
       </c>
       <c r="O105" t="n">
         <v>1.19</v>
       </c>
       <c r="P105" t="n">
-        <v>2.42</v>
+        <v>2.14</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="R105" t="n">
         <v>1.48</v>
@@ -14617,7 +14617,7 @@
         <v>1.01</v>
       </c>
       <c r="U105" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="V105" t="n">
         <v>2.16</v>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G106" t="n">
         <v>1.52</v>
@@ -14722,37 +14722,37 @@
         <v>4.4</v>
       </c>
       <c r="K106" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L106" t="n">
         <v>1.4</v>
       </c>
       <c r="M106" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N106" t="n">
-        <v>1.88</v>
+        <v>3.65</v>
       </c>
       <c r="O106" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P106" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q106" t="n">
         <v>1.98</v>
       </c>
       <c r="R106" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="S106" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="T106" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="U106" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V106" t="n">
         <v>1.11</v>
@@ -14761,58 +14761,58 @@
         <v>2.92</v>
       </c>
       <c r="X106" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y106" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>440</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH106" t="n">
         <v>30</v>
       </c>
-      <c r="Z106" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA106" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB106" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC106" t="n">
+      <c r="AI106" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ106" t="n">
         <v>13</v>
       </c>
-      <c r="AD106" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF106" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG106" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH106" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ106" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AK106" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AL106" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM106" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN106" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO106" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
     </row>
     <row r="107">
@@ -14866,13 +14866,13 @@
         <v>1.05</v>
       </c>
       <c r="N107" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="O107" t="n">
         <v>1.28</v>
       </c>
       <c r="P107" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q107" t="n">
         <v>1.89</v>
@@ -14887,7 +14887,7 @@
         <v>1.01</v>
       </c>
       <c r="U107" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V107" t="n">
         <v>1.39</v>
@@ -14980,7 +14980,7 @@
         <v>1.54</v>
       </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H108" t="n">
         <v>5.8</v>
@@ -15028,7 +15028,7 @@
         <v>1.18</v>
       </c>
       <c r="W108" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="X108" t="n">
         <v>34</v>
@@ -15115,7 +15115,7 @@
         <v>6.6</v>
       </c>
       <c r="G109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H109" t="n">
         <v>1.42</v>
@@ -15154,7 +15154,7 @@
         <v>2.9</v>
       </c>
       <c r="T109" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="U109" t="n">
         <v>1.01</v>
@@ -15271,16 +15271,16 @@
         <v>1.01</v>
       </c>
       <c r="N110" t="n">
-        <v>1.87</v>
+        <v>1.03</v>
       </c>
       <c r="O110" t="n">
         <v>1.01</v>
       </c>
       <c r="P110" t="n">
-        <v>1.87</v>
+        <v>1.28</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.98</v>
+        <v>1.31</v>
       </c>
       <c r="R110" t="n">
         <v>1.27</v>
@@ -15382,13 +15382,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G111" t="n">
         <v>1.86</v>
       </c>
       <c r="H111" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I111" t="n">
         <v>5.6</v>
@@ -15397,16 +15397,16 @@
         <v>3.6</v>
       </c>
       <c r="K111" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L111" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M111" t="n">
         <v>1.08</v>
       </c>
       <c r="N111" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O111" t="n">
         <v>1.37</v>
@@ -15421,16 +15421,16 @@
         <v>1.33</v>
       </c>
       <c r="S111" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T111" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U111" t="n">
         <v>1.96</v>
       </c>
       <c r="V111" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W111" t="n">
         <v>2.16</v>
@@ -15439,10 +15439,10 @@
         <v>12.5</v>
       </c>
       <c r="Y111" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z111" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA111" t="n">
         <v>140</v>
@@ -15457,7 +15457,7 @@
         <v>21</v>
       </c>
       <c r="AE111" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF111" t="n">
         <v>10</v>
@@ -15475,7 +15475,7 @@
         <v>19</v>
       </c>
       <c r="AK111" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL111" t="n">
         <v>40</v>
@@ -15658,10 +15658,10 @@
         <v>5.9</v>
       </c>
       <c r="H113" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I113" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="J113" t="n">
         <v>4.3</v>
@@ -15670,13 +15670,13 @@
         <v>4.4</v>
       </c>
       <c r="L113" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M113" t="n">
         <v>1.06</v>
       </c>
       <c r="N113" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O113" t="n">
         <v>1.27</v>
@@ -15691,7 +15691,7 @@
         <v>1.45</v>
       </c>
       <c r="S113" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T113" t="n">
         <v>1.85</v>
@@ -15700,7 +15700,7 @@
         <v>2.1</v>
       </c>
       <c r="V113" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="W113" t="n">
         <v>1.2</v>
@@ -15715,13 +15715,13 @@
         <v>10</v>
       </c>
       <c r="AA113" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB113" t="n">
         <v>21</v>
       </c>
       <c r="AC113" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD113" t="n">
         <v>9.6</v>
@@ -15757,7 +15757,7 @@
         <v>85</v>
       </c>
       <c r="AO113" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="114">
@@ -15790,7 +15790,7 @@
         <v>1.32</v>
       </c>
       <c r="G114" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H114" t="n">
         <v>9</v>
@@ -15799,7 +15799,7 @@
         <v>12.5</v>
       </c>
       <c r="J114" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="K114" t="n">
         <v>6.6</v>
@@ -15946,16 +15946,16 @@
         <v>1.01</v>
       </c>
       <c r="N115" t="n">
-        <v>3.4</v>
+        <v>1.86</v>
       </c>
       <c r="O115" t="n">
         <v>1.35</v>
       </c>
       <c r="P115" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R115" t="n">
         <v>1.25</v>
@@ -16057,7 +16057,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="G116" t="n">
         <v>10.5</v>
@@ -16066,7 +16066,7 @@
         <v>1.3</v>
       </c>
       <c r="I116" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="J116" t="n">
         <v>7</v>
@@ -16075,7 +16075,7 @@
         <v>7.2</v>
       </c>
       <c r="L116" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M116" t="n">
         <v>1.01</v>
@@ -16087,10 +16087,10 @@
         <v>1.11</v>
       </c>
       <c r="P116" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R116" t="n">
         <v>2.1</v>
@@ -16105,7 +16105,7 @@
         <v>2.4</v>
       </c>
       <c r="V116" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="W116" t="n">
         <v>1.1</v>
@@ -16114,7 +16114,7 @@
         <v>50</v>
       </c>
       <c r="Y116" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z116" t="n">
         <v>12</v>
@@ -16126,7 +16126,7 @@
         <v>55</v>
       </c>
       <c r="AC116" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD116" t="n">
         <v>11</v>
@@ -16147,7 +16147,7 @@
         <v>26</v>
       </c>
       <c r="AJ116" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AK116" t="n">
         <v>120</v>
@@ -16210,19 +16210,19 @@
         <v>4.9</v>
       </c>
       <c r="L117" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M117" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N117" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O117" t="n">
         <v>1.2</v>
       </c>
       <c r="P117" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q117" t="n">
         <v>1.59</v>
@@ -16231,7 +16231,7 @@
         <v>1.65</v>
       </c>
       <c r="S117" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T117" t="n">
         <v>1.72</v>
@@ -16246,7 +16246,7 @@
         <v>2.76</v>
       </c>
       <c r="X117" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y117" t="n">
         <v>29</v>
@@ -16288,10 +16288,10 @@
         <v>14</v>
       </c>
       <c r="AL117" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM117" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN117" t="n">
         <v>6</v>
@@ -16336,7 +16336,7 @@
         <v>2.8</v>
       </c>
       <c r="I118" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="J118" t="n">
         <v>3.55</v>
@@ -16351,16 +16351,16 @@
         <v>1.01</v>
       </c>
       <c r="N118" t="n">
-        <v>2.16</v>
+        <v>1.03</v>
       </c>
       <c r="O118" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P118" t="n">
         <v>2.16</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="R118" t="n">
         <v>1.38</v>
@@ -16378,7 +16378,7 @@
         <v>1.43</v>
       </c>
       <c r="W118" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="X118" t="n">
         <v>1000</v>
@@ -16486,10 +16486,10 @@
         <v>1.05</v>
       </c>
       <c r="N119" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="O119" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P119" t="n">
         <v>2.2</v>
@@ -16498,16 +16498,16 @@
         <v>1.69</v>
       </c>
       <c r="R119" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="S119" t="n">
-        <v>2.4</v>
+        <v>2.74</v>
       </c>
       <c r="T119" t="n">
         <v>1.6</v>
       </c>
       <c r="U119" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="V119" t="n">
         <v>1.46</v>
@@ -16516,58 +16516,58 @@
         <v>1.65</v>
       </c>
       <c r="X119" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y119" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z119" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA119" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB119" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC119" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD119" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE119" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF119" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG119" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH119" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI119" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ119" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK119" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL119" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM119" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN119" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO119" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120">
@@ -16603,7 +16603,7 @@
         <v>1.94</v>
       </c>
       <c r="H120" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I120" t="n">
         <v>4.9</v>
@@ -16627,7 +16627,7 @@
         <v>1.37</v>
       </c>
       <c r="P120" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q120" t="n">
         <v>2.12</v>
@@ -16639,7 +16639,7 @@
         <v>3.9</v>
       </c>
       <c r="T120" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="U120" t="n">
         <v>1.98</v>
@@ -16774,10 +16774,10 @@
         <v>3.9</v>
       </c>
       <c r="T121" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U121" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V121" t="n">
         <v>1.33</v>
@@ -16786,46 +16786,46 @@
         <v>1.76</v>
       </c>
       <c r="X121" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y121" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Z121" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA121" t="n">
         <v>1000</v>
       </c>
       <c r="AB121" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC121" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD121" t="n">
         <v>20</v>
       </c>
       <c r="AE121" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF121" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG121" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG121" t="n">
-        <v>13</v>
-      </c>
       <c r="AH121" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI121" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ121" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AK121" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AL121" t="n">
         <v>65</v>
@@ -16867,19 +16867,19 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="G122" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="H122" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="I122" t="n">
         <v>3.15</v>
       </c>
       <c r="J122" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K122" t="n">
         <v>3.4</v>
@@ -16918,7 +16918,7 @@
         <v>1.46</v>
       </c>
       <c r="W122" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X122" t="n">
         <v>15.5</v>
@@ -17053,7 +17053,7 @@
         <v>1.17</v>
       </c>
       <c r="W123" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="X123" t="n">
         <v>1000</v>
@@ -17146,10 +17146,10 @@
         <v>3.9</v>
       </c>
       <c r="I124" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="J124" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K124" t="n">
         <v>3.8</v>
@@ -17161,16 +17161,16 @@
         <v>1.01</v>
       </c>
       <c r="N124" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="O124" t="n">
         <v>1.01</v>
       </c>
       <c r="P124" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="R124" t="n">
         <v>1.22</v>
@@ -17185,7 +17185,7 @@
         <v>1.01</v>
       </c>
       <c r="V124" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="W124" t="n">
         <v>1.81</v>
@@ -17326,49 +17326,49 @@
         <v>1.74</v>
       </c>
       <c r="X125" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y125" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z125" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA125" t="n">
         <v>1000</v>
       </c>
       <c r="AB125" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC125" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD125" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE125" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF125" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG125" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH125" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI125" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ125" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK125" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL125" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM125" t="n">
         <v>1000</v>
@@ -17413,7 +17413,7 @@
         <v>1.54</v>
       </c>
       <c r="H126" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I126" t="n">
         <v>11.5</v>
@@ -17428,31 +17428,31 @@
         <v>1.01</v>
       </c>
       <c r="M126" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N126" t="n">
-        <v>1.69</v>
+        <v>2.82</v>
       </c>
       <c r="O126" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="P126" t="n">
         <v>1.69</v>
       </c>
       <c r="Q126" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="R126" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S126" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T126" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="U126" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V126" t="n">
         <v>1.09</v>
@@ -17461,58 +17461,58 @@
         <v>2.84</v>
       </c>
       <c r="X126" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="Y126" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Z126" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA126" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="AB126" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="AC126" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>280</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>240</v>
+      </c>
+      <c r="AJ126" t="n">
         <v>13.5</v>
       </c>
-      <c r="AD126" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE126" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF126" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG126" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH126" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI126" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ126" t="n">
-        <v>16</v>
-      </c>
       <c r="AK126" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AL126" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM126" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN126" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO126" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="127">
@@ -17545,13 +17545,13 @@
         <v>1.57</v>
       </c>
       <c r="G127" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H127" t="n">
         <v>5.6</v>
       </c>
       <c r="I127" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="J127" t="n">
         <v>4.4</v>
@@ -17566,88 +17566,88 @@
         <v>1.04</v>
       </c>
       <c r="N127" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="O127" t="n">
         <v>1.22</v>
       </c>
       <c r="P127" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R127" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="S127" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="T127" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U127" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="V127" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W127" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="X127" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y127" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z127" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA127" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB127" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC127" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD127" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE127" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF127" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG127" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH127" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI127" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ127" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK127" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL127" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM127" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN127" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AO127" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128">
@@ -17683,16 +17683,16 @@
         <v>2.22</v>
       </c>
       <c r="H128" t="n">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="I128" t="n">
         <v>5.2</v>
       </c>
       <c r="J128" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K128" t="n">
-        <v>5.8</v>
+        <v>950</v>
       </c>
       <c r="L128" t="n">
         <v>1.01</v>
@@ -17713,7 +17713,7 @@
         <v>1.16</v>
       </c>
       <c r="R128" t="n">
-        <v>1.63</v>
+        <v>1.27</v>
       </c>
       <c r="S128" t="n">
         <v>1.01</v>
@@ -17848,10 +17848,10 @@
         <v>1.64</v>
       </c>
       <c r="R129" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S129" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T129" t="n">
         <v>1.01</v>
@@ -17977,7 +17977,7 @@
         <v>1.26</v>
       </c>
       <c r="P130" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q130" t="n">
         <v>1.78</v>
@@ -17989,10 +17989,10 @@
         <v>1.78</v>
       </c>
       <c r="T130" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="U130" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="V130" t="n">
         <v>1.79</v>
@@ -18004,31 +18004,31 @@
         <v>21</v>
       </c>
       <c r="Y130" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z130" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA130" t="n">
         <v>36</v>
       </c>
       <c r="AB130" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG130" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AC130" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD130" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE130" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF130" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG130" t="n">
-        <v>18</v>
       </c>
       <c r="AH130" t="n">
         <v>22</v>
@@ -18043,7 +18043,7 @@
         <v>50</v>
       </c>
       <c r="AL130" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM130" t="n">
         <v>100</v>
@@ -18094,25 +18094,25 @@
         <v>4.2</v>
       </c>
       <c r="J131" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K131" t="n">
         <v>3.15</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="M131" t="n">
         <v>1.13</v>
       </c>
       <c r="N131" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O131" t="n">
         <v>1.55</v>
       </c>
       <c r="P131" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q131" t="n">
         <v>2.68</v>
@@ -18124,16 +18124,16 @@
         <v>5.6</v>
       </c>
       <c r="T131" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U131" t="n">
         <v>1.8</v>
       </c>
       <c r="V131" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W131" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X131" t="n">
         <v>8.4</v>
@@ -18142,7 +18142,7 @@
         <v>11</v>
       </c>
       <c r="Z131" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA131" t="n">
         <v>95</v>
@@ -18154,7 +18154,7 @@
         <v>7</v>
       </c>
       <c r="AD131" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE131" t="n">
         <v>65</v>
@@ -18181,7 +18181,7 @@
         <v>60</v>
       </c>
       <c r="AM131" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AN131" t="n">
         <v>30</v>
@@ -18235,16 +18235,16 @@
         <v>3.9</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N132" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O132" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P132" t="n">
         <v>2.14</v>
@@ -18253,76 +18253,76 @@
         <v>1.8</v>
       </c>
       <c r="R132" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S132" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T132" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U132" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V132" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W132" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X132" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y132" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z132" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA132" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB132" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC132" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD132" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE132" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AF132" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG132" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH132" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI132" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ132" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK132" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL132" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM132" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN132" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO132" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133">
@@ -18355,7 +18355,7 @@
         <v>1.86</v>
       </c>
       <c r="G133" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H133" t="n">
         <v>4.4</v>
@@ -18370,7 +18370,7 @@
         <v>4.3</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M133" t="n">
         <v>1.04</v>
@@ -18382,7 +18382,7 @@
         <v>1.22</v>
       </c>
       <c r="P133" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q133" t="n">
         <v>1.69</v>
@@ -18391,49 +18391,49 @@
         <v>1.55</v>
       </c>
       <c r="S133" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T133" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U133" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V133" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W133" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="X133" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y133" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z133" t="n">
         <v>36</v>
       </c>
       <c r="AA133" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB133" t="n">
         <v>12</v>
       </c>
       <c r="AC133" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD133" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE133" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF133" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG133" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH133" t="n">
         <v>16.5</v>
@@ -18445,7 +18445,7 @@
         <v>21</v>
       </c>
       <c r="AK133" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL133" t="n">
         <v>27</v>
@@ -18457,7 +18457,7 @@
         <v>9</v>
       </c>
       <c r="AO133" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134">
@@ -18505,16 +18505,16 @@
         <v>4.1</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N134" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O134" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P134" t="n">
         <v>2.06</v>
@@ -18523,76 +18523,76 @@
         <v>1.84</v>
       </c>
       <c r="R134" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S134" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="T134" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U134" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V134" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W134" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y134" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z134" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA134" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AB134" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC134" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD134" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE134" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF134" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AG134" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH134" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI134" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK134" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL134" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO134" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="135">
@@ -18622,25 +18622,25 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G135" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H135" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="I135" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="J135" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K135" t="n">
         <v>6.4</v>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="M135" t="n">
         <v>1.02</v>
@@ -18661,22 +18661,22 @@
         <v>2</v>
       </c>
       <c r="S135" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T135" t="n">
         <v>1.65</v>
       </c>
       <c r="U135" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V135" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="W135" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X135" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y135" t="n">
         <v>15.5</v>
@@ -18688,46 +18688,46 @@
         <v>13.5</v>
       </c>
       <c r="AB135" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC135" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD135" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE135" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF135" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AG135" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH135" t="n">
         <v>21</v>
       </c>
       <c r="AI135" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ135" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AK135" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AL135" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AM135" t="n">
         <v>75</v>
       </c>
       <c r="AN135" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO135" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="136">
@@ -18775,16 +18775,16 @@
         <v>3.75</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M136" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N136" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="O136" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P136" t="n">
         <v>1.81</v>
@@ -18793,76 +18793,76 @@
         <v>2.02</v>
       </c>
       <c r="R136" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S136" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T136" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U136" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V136" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W136" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="X136" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y136" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z136" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB136" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC136" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD136" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE136" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF136" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG136" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH136" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI136" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ136" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK136" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL136" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO136" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="137">
@@ -18892,16 +18892,16 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G137" t="n">
         <v>2.12</v>
       </c>
       <c r="H137" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I137" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J137" t="n">
         <v>4</v>
@@ -18910,7 +18910,7 @@
         <v>4.2</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M137" t="n">
         <v>1.03</v>
@@ -18937,13 +18937,13 @@
         <v>1.53</v>
       </c>
       <c r="U137" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="V137" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W137" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X137" t="n">
         <v>32</v>
@@ -18958,7 +18958,7 @@
         <v>75</v>
       </c>
       <c r="AB137" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AC137" t="n">
         <v>10.5</v>
@@ -19045,94 +19045,94 @@
         <v>4.3</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M138" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N138" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="O138" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P138" t="n">
         <v>1.86</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R138" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="S138" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T138" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U138" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V138" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W138" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X138" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y138" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z138" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA138" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB138" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC138" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD138" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE138" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF138" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG138" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH138" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI138" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ138" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK138" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL138" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM138" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN138" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO138" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="139">
@@ -19162,10 +19162,10 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G139" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H139" t="n">
         <v>6.2</v>
@@ -19180,16 +19180,16 @@
         <v>3.35</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M139" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N139" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="O139" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P139" t="n">
         <v>1.37</v>
@@ -19198,76 +19198,76 @@
         <v>3.2</v>
       </c>
       <c r="R139" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="S139" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="T139" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="U139" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V139" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W139" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X139" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y139" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z139" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA139" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB139" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AC139" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD139" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AE139" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF139" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG139" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH139" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AI139" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ139" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK139" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL139" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM139" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN139" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO139" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="140">
@@ -19297,112 +19297,112 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="G140" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H140" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I140" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J140" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K140" t="n">
         <v>3.55</v>
       </c>
       <c r="L140" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M140" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O140" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P140" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R140" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S140" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T140" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U140" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V140" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W140" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="X140" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y140" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z140" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA140" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB140" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC140" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD140" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE140" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF140" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG140" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH140" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI140" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ140" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK140" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL140" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM140" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN140" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO140" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="141">
@@ -19435,7 +19435,7 @@
         <v>2.16</v>
       </c>
       <c r="G141" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H141" t="n">
         <v>3.3</v>
@@ -19450,16 +19450,16 @@
         <v>4.2</v>
       </c>
       <c r="L141" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M141" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N141" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="O141" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P141" t="n">
         <v>2.14</v>
@@ -19468,76 +19468,76 @@
         <v>1.76</v>
       </c>
       <c r="R141" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S141" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="T141" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U141" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V141" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W141" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X141" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y141" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z141" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA141" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB141" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC141" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD141" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE141" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF141" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG141" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH141" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI141" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ141" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK141" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL141" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM141" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN141" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO141" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="142">
@@ -19567,7 +19567,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G142" t="n">
         <v>3.1</v>
@@ -19576,25 +19576,25 @@
         <v>2.92</v>
       </c>
       <c r="I142" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J142" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K142" t="n">
         <v>3.25</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M142" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N142" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O142" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P142" t="n">
         <v>1.5</v>
@@ -19603,76 +19603,76 @@
         <v>2.6</v>
       </c>
       <c r="R142" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S142" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T142" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U142" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="V142" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W142" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO142" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="143">
@@ -19867,10 +19867,10 @@
         <v>0</v>
       </c>
       <c r="P144" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="Q144" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="R144" t="n">
         <v>0</v>
@@ -19981,7 +19981,7 @@
         <v>4.9</v>
       </c>
       <c r="I145" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J145" t="n">
         <v>3.6</v>
@@ -20380,16 +20380,16 @@
         <v>3.45</v>
       </c>
       <c r="G148" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="H148" t="n">
         <v>2.14</v>
       </c>
       <c r="I148" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="J148" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K148" t="n">
         <v>3.9</v>
@@ -20407,7 +20407,7 @@
         <v>0</v>
       </c>
       <c r="P148" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q148" t="n">
         <v>1.85</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-31.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I2" t="n">
         <v>5.5</v>
@@ -688,55 +688,55 @@
         <v>1.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="R2" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="S2" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="V2" t="n">
         <v>1.22</v>
       </c>
       <c r="W2" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
         <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>22</v>
@@ -745,7 +745,7 @@
         <v>60</v>
       </c>
       <c r="AF2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
@@ -769,10 +769,10 @@
         <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
         <v>1.45</v>
@@ -835,19 +835,19 @@
         <v>1.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
         <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
         <v>1.96</v>
@@ -904,10 +904,10 @@
         <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO3" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -937,34 +937,34 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.28</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
         <v>5.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
         <v>2.64</v>
@@ -979,16 +979,16 @@
         <v>2.38</v>
       </c>
       <c r="T4" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U4" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X4" t="n">
         <v>26</v>
@@ -1015,7 +1015,7 @@
         <v>36</v>
       </c>
       <c r="AF4" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG4" t="n">
         <v>11.5</v>
@@ -1030,16 +1030,16 @@
         <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM4" t="n">
         <v>60</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO4" t="n">
         <v>24</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="H5" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="K5" t="n">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,19 +1096,19 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.56</v>
+        <v>1.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>2.56</v>
+        <v>1.15</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="R5" t="n">
-        <v>1.64</v>
+        <v>1.15</v>
       </c>
       <c r="S5" t="n">
         <v>1.94</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W5" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G6" t="n">
         <v>2.66</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="I6" t="n">
         <v>2.82</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>3.9</v>
@@ -1237,25 +1237,25 @@
         <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R6" t="n">
         <v>1.51</v>
       </c>
       <c r="S6" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T6" t="n">
         <v>1.62</v>
       </c>
       <c r="U6" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W6" t="n">
         <v>1.6</v>
@@ -1282,7 +1282,7 @@
         <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF6" t="n">
         <v>19.5</v>
@@ -1309,7 +1309,7 @@
         <v>65</v>
       </c>
       <c r="AN6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
@@ -1342,46 +1342,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>2.86</v>
       </c>
       <c r="H7" t="n">
-        <v>2.24</v>
+        <v>2.62</v>
       </c>
       <c r="I7" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
         <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,10 +1390,10 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1510,7 +1510,7 @@
         <v>1.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="G9" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="H9" t="n">
-        <v>2.16</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>6.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>3.9</v>
       </c>
       <c r="H10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I10" t="n">
         <v>2.2</v>
@@ -1777,7 +1777,7 @@
         <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
         <v>1.89</v>
@@ -1792,10 +1792,10 @@
         <v>1.74</v>
       </c>
       <c r="U10" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
         <v>1.34</v>
@@ -1882,31 +1882,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="H11" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O11" t="n">
         <v>1.41</v>
@@ -1915,7 +1915,7 @@
         <v>1.72</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
         <v>1.27</v>
@@ -1927,37 +1927,37 @@
         <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V11" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W11" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="X11" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AA11" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB11" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="n">
         <v>970</v>
@@ -1966,7 +1966,7 @@
         <v>970</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>75</v>
@@ -1981,10 +1981,10 @@
         <v>55</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO11" t="n">
         <v>60</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="G12" t="n">
         <v>1.68</v>
@@ -2032,7 +2032,7 @@
         <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2041,22 +2041,22 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>2.44</v>
+        <v>2.78</v>
       </c>
       <c r="T12" t="n">
         <v>1.01</v>
@@ -2155,16 +2155,16 @@
         <v>1.47</v>
       </c>
       <c r="G13" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="H13" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
         <v>4.7</v>
@@ -2176,7 +2176,7 @@
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.34</v>
@@ -2185,7 +2185,7 @@
         <v>1.91</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
         <v>1.34</v>
@@ -2203,7 +2203,7 @@
         <v>1.11</v>
       </c>
       <c r="W13" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="X13" t="n">
         <v>16.5</v>
@@ -2215,7 +2215,7 @@
         <v>85</v>
       </c>
       <c r="AA13" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="AB13" t="n">
         <v>7.4</v>
@@ -2227,7 +2227,7 @@
         <v>36</v>
       </c>
       <c r="AE13" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AF13" t="n">
         <v>8.4</v>
@@ -2236,28 +2236,28 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ13" t="n">
         <v>13.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN13" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AO13" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14">
@@ -2290,25 +2290,25 @@
         <v>3.3</v>
       </c>
       <c r="G14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H14" t="n">
         <v>1.78</v>
       </c>
       <c r="I14" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J14" t="n">
         <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
         <v>1.97</v>
@@ -2335,7 +2335,7 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W14" t="n">
         <v>1.23</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G16" t="n">
         <v>1.81</v>
@@ -2572,7 +2572,7 @@
         <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="G17" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J17" t="n">
         <v>3.4</v>
@@ -2710,13 +2710,13 @@
         <v>3.55</v>
       </c>
       <c r="L17" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O17" t="n">
         <v>1.28</v>
@@ -2725,7 +2725,7 @@
         <v>2.08</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R17" t="n">
         <v>1.43</v>
@@ -2737,67 +2737,67 @@
         <v>1.68</v>
       </c>
       <c r="U17" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V17" t="n">
         <v>1.4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
         <v>14</v>
       </c>
       <c r="AE17" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
         <v>15.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ17" t="n">
         <v>32</v>
       </c>
       <c r="AK17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
         <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN17" t="n">
         <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2830,16 +2830,16 @@
         <v>1.73</v>
       </c>
       <c r="G18" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I18" t="n">
         <v>5.4</v>
       </c>
       <c r="J18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
         <v>4.3</v>
@@ -2863,13 +2863,13 @@
         <v>1.74</v>
       </c>
       <c r="R18" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S18" t="n">
         <v>2.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U18" t="n">
         <v>2.2</v>
@@ -2878,7 +2878,7 @@
         <v>1.22</v>
       </c>
       <c r="W18" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="X18" t="n">
         <v>19.5</v>
@@ -2920,7 +2920,7 @@
         <v>18</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL18" t="n">
         <v>30</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G19" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
         <v>1.44</v>
@@ -2986,7 +2986,7 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3004,16 +3004,16 @@
         <v>3.75</v>
       </c>
       <c r="T19" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V19" t="n">
         <v>1.48</v>
       </c>
       <c r="W19" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
@@ -3100,7 +3100,7 @@
         <v>1.59</v>
       </c>
       <c r="G20" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="H20" t="n">
         <v>5.1</v>
@@ -3124,7 +3124,7 @@
         <v>5.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
         <v>2.46</v>
@@ -3160,19 +3160,19 @@
         <v>55</v>
       </c>
       <c r="AA20" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB20" t="n">
         <v>14</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD20" t="n">
         <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
@@ -3235,7 +3235,7 @@
         <v>2.94</v>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
         <v>2.7</v>
@@ -3253,7 +3253,7 @@
         <v>1.54</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N21" t="n">
         <v>2.7</v>
@@ -3277,13 +3277,13 @@
         <v>2.08</v>
       </c>
       <c r="U21" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V21" t="n">
         <v>1.51</v>
       </c>
       <c r="W21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X21" t="n">
         <v>9.6</v>
@@ -3313,10 +3313,10 @@
         <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
         <v>80</v>
@@ -3331,10 +3331,10 @@
         <v>85</v>
       </c>
       <c r="AM21" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO21" t="n">
         <v>55</v>
@@ -3406,7 +3406,7 @@
         <v>1.46</v>
       </c>
       <c r="S22" t="n">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="T22" t="n">
         <v>1.64</v>
@@ -3415,10 +3415,10 @@
         <v>2.32</v>
       </c>
       <c r="V22" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W22" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G23" t="n">
         <v>2.06</v>
       </c>
       <c r="H23" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
         <v>4.6</v>
@@ -3535,7 +3535,7 @@
         <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3640,13 +3640,13 @@
         <v>2.9</v>
       </c>
       <c r="G24" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H24" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="I24" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J24" t="n">
         <v>3.15</v>
@@ -3667,7 +3667,7 @@
         <v>1.45</v>
       </c>
       <c r="P24" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q24" t="n">
         <v>2.4</v>
@@ -3679,16 +3679,16 @@
         <v>4.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U24" t="n">
         <v>1.98</v>
       </c>
       <c r="V24" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W24" t="n">
         <v>1.51</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.52</v>
       </c>
       <c r="X24" t="n">
         <v>10</v>
@@ -3775,19 +3775,19 @@
         <v>1.75</v>
       </c>
       <c r="G25" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="I25" t="n">
         <v>5.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K25" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3805,7 +3805,7 @@
         <v>2.12</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R25" t="n">
         <v>1.47</v>
@@ -3823,10 +3823,10 @@
         <v>1.23</v>
       </c>
       <c r="W25" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="X25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y25" t="n">
         <v>28</v>
@@ -3850,22 +3850,22 @@
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AG25" t="n">
         <v>970</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL25" t="n">
         <v>1000</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G26" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
         <v>2.56</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G28" t="n">
         <v>2.2</v>
@@ -4186,13 +4186,13 @@
         <v>4.1</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J28" t="n">
         <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4204,28 +4204,28 @@
         <v>3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="R28" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S28" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="U28" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="V28" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="W28" t="n">
         <v>1.83</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G29" t="n">
         <v>2.36</v>
@@ -4321,7 +4321,7 @@
         <v>3.35</v>
       </c>
       <c r="I29" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J29" t="n">
         <v>3.15</v>
@@ -4342,25 +4342,25 @@
         <v>1.29</v>
       </c>
       <c r="P29" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="R29" t="n">
         <v>1.36</v>
       </c>
       <c r="S29" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="T29" t="n">
         <v>1.71</v>
       </c>
       <c r="U29" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V29" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W29" t="n">
         <v>1.74</v>
@@ -4378,7 +4378,7 @@
         <v>85</v>
       </c>
       <c r="AB29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
         <v>10</v>
@@ -4456,7 +4456,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
         <v>3.2</v>
@@ -4534,7 +4534,7 @@
         <v>25</v>
       </c>
       <c r="AI30" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ30" t="n">
         <v>32</v>
@@ -4591,7 +4591,7 @@
         <v>3.05</v>
       </c>
       <c r="I31" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J31" t="n">
         <v>2.76</v>
@@ -4606,19 +4606,19 @@
         <v>1.16</v>
       </c>
       <c r="N31" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="O31" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="P31" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q31" t="n">
         <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S31" t="n">
         <v>6.4</v>
@@ -4627,7 +4627,7 @@
         <v>2.26</v>
       </c>
       <c r="U31" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V31" t="n">
         <v>1.4</v>
@@ -4651,7 +4651,7 @@
         <v>8.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
         <v>970</v>
@@ -4666,7 +4666,7 @@
         <v>970</v>
       </c>
       <c r="AH31" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI31" t="n">
         <v>120</v>
@@ -4678,7 +4678,7 @@
         <v>60</v>
       </c>
       <c r="AL31" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
@@ -4687,7 +4687,7 @@
         <v>85</v>
       </c>
       <c r="AO31" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="G33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H33" t="n">
         <v>2.94</v>
       </c>
-      <c r="H33" t="n">
-        <v>2.64</v>
-      </c>
       <c r="I33" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="J33" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K33" t="n">
         <v>950</v>
@@ -4873,19 +4873,19 @@
         <v>1.32</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O33" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P33" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R33" t="n">
         <v>1.41</v>
@@ -4897,67 +4897,67 @@
         <v>1.68</v>
       </c>
       <c r="U33" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V33" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="W33" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="X33" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Z33" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AA33" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB33" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD33" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AE33" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AF33" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG33" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
         <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL33" t="n">
         <v>40</v>
       </c>
-      <c r="AK33" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>42</v>
-      </c>
       <c r="AM33" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN33" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
@@ -5140,13 +5140,13 @@
         <v>3.55</v>
       </c>
       <c r="L35" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M35" t="n">
         <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O35" t="n">
         <v>1.46</v>
@@ -5161,13 +5161,13 @@
         <v>1.23</v>
       </c>
       <c r="S35" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T35" t="n">
         <v>2.02</v>
       </c>
       <c r="U35" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V35" t="n">
         <v>1.27</v>
@@ -5392,34 +5392,34 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="G37" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="H37" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="I37" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J37" t="n">
         <v>2.52</v>
       </c>
       <c r="K37" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L37" t="n">
         <v>1.52</v>
       </c>
       <c r="M37" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="O37" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P37" t="n">
         <v>1.38</v>
@@ -5440,10 +5440,10 @@
         <v>1.67</v>
       </c>
       <c r="V37" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="W37" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X37" t="n">
         <v>970</v>
@@ -5455,7 +5455,7 @@
         <v>970</v>
       </c>
       <c r="AA37" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB37" t="n">
         <v>970</v>
@@ -5470,7 +5470,7 @@
         <v>55</v>
       </c>
       <c r="AF37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG37" t="n">
         <v>970</v>
@@ -5479,25 +5479,25 @@
         <v>27</v>
       </c>
       <c r="AI37" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL37" t="n">
         <v>85</v>
       </c>
-      <c r="AJ37" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>90</v>
-      </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO37" t="n">
         <v>75</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="38">
@@ -5533,10 +5533,10 @@
         <v>2.7</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I38" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J38" t="n">
         <v>2.94</v>
@@ -5545,10 +5545,10 @@
         <v>3.45</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M38" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N38" t="n">
         <v>2.8</v>
@@ -5587,7 +5587,7 @@
         <v>970</v>
       </c>
       <c r="Z38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA38" t="n">
         <v>80</v>
@@ -5662,94 +5662,94 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="G39" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="H39" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="I39" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J39" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K39" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="L39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P39" t="n">
         <v>1.46</v>
       </c>
-      <c r="M39" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q39" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="R39" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="V39" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="W39" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ39" t="n">
         <v>1000</v>
@@ -5767,7 +5767,7 @@
         <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="G40" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="H40" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J40" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K40" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
@@ -5824,13 +5824,13 @@
         <v>3.15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P40" t="n">
         <v>1.62</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R40" t="n">
         <v>1.26</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="G41" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H41" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I41" t="n">
         <v>4.7</v>
       </c>
       <c r="J41" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K41" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
         <v>1.36</v>
@@ -5968,13 +5968,13 @@
         <v>1.8</v>
       </c>
       <c r="R41" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S41" t="n">
         <v>3</v>
       </c>
       <c r="T41" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U41" t="n">
         <v>2.18</v>
@@ -5983,10 +5983,10 @@
         <v>1.27</v>
       </c>
       <c r="W41" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X41" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y41" t="n">
         <v>970</v>
@@ -6028,13 +6028,13 @@
         <v>23</v>
       </c>
       <c r="AL41" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM41" t="n">
         <v>100</v>
       </c>
       <c r="AN41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO41" t="n">
         <v>50</v>
@@ -6070,7 +6070,7 @@
         <v>1.6</v>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H42" t="n">
         <v>6</v>
@@ -6094,7 +6094,7 @@
         <v>3.65</v>
       </c>
       <c r="O42" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P42" t="n">
         <v>1.92</v>
@@ -6118,7 +6118,7 @@
         <v>1.16</v>
       </c>
       <c r="W42" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X42" t="n">
         <v>17.5</v>
@@ -6208,13 +6208,13 @@
         <v>1.35</v>
       </c>
       <c r="H43" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I43" t="n">
         <v>12.5</v>
       </c>
       <c r="J43" t="n">
-        <v>5.9</v>
+        <v>2.2</v>
       </c>
       <c r="K43" t="n">
         <v>7</v>
@@ -6253,7 +6253,7 @@
         <v>1.08</v>
       </c>
       <c r="W43" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6400,7 +6400,7 @@
         <v>29</v>
       </c>
       <c r="AA44" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB44" t="n">
         <v>970</v>
@@ -6436,7 +6436,7 @@
         <v>44</v>
       </c>
       <c r="AM44" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN44" t="n">
         <v>21</v>
@@ -6472,31 +6472,31 @@
         </is>
       </c>
       <c r="F45" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J45" t="n">
         <v>3.3</v>
       </c>
-      <c r="G45" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K45" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O45" t="n">
         <v>1.34</v>
@@ -6505,22 +6505,22 @@
         <v>1.84</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R45" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S45" t="n">
         <v>3.55</v>
       </c>
       <c r="T45" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U45" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V45" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="W45" t="n">
         <v>1.38</v>
@@ -6541,7 +6541,7 @@
         <v>13</v>
       </c>
       <c r="AC45" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD45" t="n">
         <v>12.5</v>
@@ -6550,7 +6550,7 @@
         <v>28</v>
       </c>
       <c r="AF45" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG45" t="n">
         <v>970</v>
@@ -6565,7 +6565,7 @@
         <v>60</v>
       </c>
       <c r="AK45" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AL45" t="n">
         <v>55</v>
@@ -6610,7 +6610,7 @@
         <v>2.42</v>
       </c>
       <c r="G46" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H46" t="n">
         <v>3.55</v>
@@ -6619,7 +6619,7 @@
         <v>3.75</v>
       </c>
       <c r="J46" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
         <v>3.15</v>
@@ -6667,7 +6667,7 @@
         <v>11.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA46" t="n">
         <v>75</v>
@@ -6691,7 +6691,7 @@
         <v>12</v>
       </c>
       <c r="AH46" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI46" t="n">
         <v>75</v>
@@ -6748,7 +6748,7 @@
         <v>4.3</v>
       </c>
       <c r="H47" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="I47" t="n">
         <v>2.28</v>
@@ -6787,7 +6787,7 @@
         <v>1.94</v>
       </c>
       <c r="U47" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V47" t="n">
         <v>1.78</v>
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G48" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H48" t="n">
         <v>8.199999999999999</v>
@@ -6901,7 +6901,7 @@
         <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O48" t="n">
         <v>1.22</v>
@@ -6919,10 +6919,10 @@
         <v>2.68</v>
       </c>
       <c r="T48" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U48" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V48" t="n">
         <v>1.12</v>
@@ -6943,7 +6943,7 @@
         <v>300</v>
       </c>
       <c r="AB48" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC48" t="n">
         <v>13</v>
@@ -6958,7 +6958,7 @@
         <v>10.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH48" t="n">
         <v>28</v>
@@ -6967,10 +6967,10 @@
         <v>120</v>
       </c>
       <c r="AJ48" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL48" t="n">
         <v>36</v>
@@ -7012,16 +7012,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G49" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H49" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="I49" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="J49" t="n">
         <v>3.15</v>
@@ -7057,13 +7057,13 @@
         <v>1.95</v>
       </c>
       <c r="U49" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W49" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X49" t="n">
         <v>10</v>
@@ -7105,10 +7105,10 @@
         <v>55</v>
       </c>
       <c r="AK49" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL49" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM49" t="n">
         <v>130</v>
@@ -7162,7 +7162,7 @@
         <v>3.4</v>
       </c>
       <c r="K50" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
@@ -7174,7 +7174,7 @@
         <v>4</v>
       </c>
       <c r="O50" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P50" t="n">
         <v>2.02</v>
@@ -7189,7 +7189,7 @@
         <v>3</v>
       </c>
       <c r="T50" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U50" t="n">
         <v>2.24</v>
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="G52" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="H52" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="I52" t="n">
         <v>8.6</v>
       </c>
       <c r="J52" t="n">
-        <v>2.58</v>
+        <v>1.03</v>
       </c>
       <c r="K52" t="n">
-        <v>950</v>
+        <v>5.1</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
@@ -7444,31 +7444,31 @@
         <v>1.03</v>
       </c>
       <c r="O52" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P52" t="n">
         <v>1.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R52" t="n">
         <v>1.24</v>
       </c>
       <c r="S52" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T52" t="n">
         <v>1.01</v>
       </c>
       <c r="U52" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="V52" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="W52" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="X52" t="n">
         <v>1000</v>
@@ -7576,13 +7576,13 @@
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>1.39</v>
+        <v>2.08</v>
       </c>
       <c r="O53" t="n">
         <v>1.21</v>
       </c>
       <c r="P53" t="n">
-        <v>1.39</v>
+        <v>2.08</v>
       </c>
       <c r="Q53" t="n">
         <v>1.57</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G54" t="n">
         <v>1000</v>
@@ -7696,10 +7696,10 @@
         <v>2.24</v>
       </c>
       <c r="I54" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J54" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K54" t="n">
         <v>3.35</v>
@@ -7723,7 +7723,7 @@
         <v>1.42</v>
       </c>
       <c r="R54" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S54" t="n">
         <v>2.14</v>
@@ -7735,7 +7735,7 @@
         <v>1.01</v>
       </c>
       <c r="V54" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W54" t="n">
         <v>1.32</v>
@@ -7825,13 +7825,13 @@
         <v>1.86</v>
       </c>
       <c r="G55" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H55" t="n">
         <v>4.7</v>
       </c>
       <c r="I55" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J55" t="n">
         <v>3.9</v>
@@ -7849,13 +7849,13 @@
         <v>4.3</v>
       </c>
       <c r="O55" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P55" t="n">
         <v>2.1</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R55" t="n">
         <v>1.43</v>
@@ -7864,7 +7864,7 @@
         <v>3.25</v>
       </c>
       <c r="T55" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U55" t="n">
         <v>2.18</v>
@@ -7873,7 +7873,7 @@
         <v>1.26</v>
       </c>
       <c r="W55" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X55" t="n">
         <v>16.5</v>
@@ -7888,7 +7888,7 @@
         <v>110</v>
       </c>
       <c r="AB55" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC55" t="n">
         <v>8.6</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G56" t="n">
         <v>3.25</v>
@@ -8002,7 +8002,7 @@
         <v>1.52</v>
       </c>
       <c r="U56" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="V56" t="n">
         <v>1.75</v>
@@ -8023,7 +8023,7 @@
         <v>30</v>
       </c>
       <c r="AB56" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC56" t="n">
         <v>9.4</v>
@@ -8098,10 +8098,10 @@
         <v>2.08</v>
       </c>
       <c r="H57" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I57" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J57" t="n">
         <v>3.4</v>
@@ -8230,19 +8230,19 @@
         <v>1.59</v>
       </c>
       <c r="G58" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H58" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I58" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J58" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K58" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L58" t="n">
         <v>1.28</v>
@@ -8275,10 +8275,10 @@
         <v>2.4</v>
       </c>
       <c r="V58" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W58" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X58" t="n">
         <v>27</v>
@@ -8329,7 +8329,7 @@
         <v>75</v>
       </c>
       <c r="AN58" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO58" t="n">
         <v>55</v>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G59" t="n">
         <v>2.54</v>
@@ -8371,10 +8371,10 @@
         <v>2.96</v>
       </c>
       <c r="I59" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K59" t="n">
         <v>3.75</v>
@@ -8386,7 +8386,7 @@
         <v>1.05</v>
       </c>
       <c r="N59" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O59" t="n">
         <v>1.24</v>
@@ -8395,7 +8395,7 @@
         <v>2.3</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R59" t="n">
         <v>1.52</v>
@@ -8404,13 +8404,13 @@
         <v>2.86</v>
       </c>
       <c r="T59" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U59" t="n">
         <v>2.52</v>
       </c>
       <c r="V59" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W59" t="n">
         <v>1.64</v>
@@ -8419,19 +8419,19 @@
         <v>19</v>
       </c>
       <c r="Y59" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z59" t="n">
         <v>22</v>
       </c>
       <c r="AA59" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB59" t="n">
         <v>13.5</v>
       </c>
       <c r="AC59" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD59" t="n">
         <v>13</v>
@@ -8638,7 +8638,7 @@
         <v>3.85</v>
       </c>
       <c r="H61" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="I61" t="n">
         <v>2.48</v>
@@ -8647,16 +8647,16 @@
         <v>3.05</v>
       </c>
       <c r="K61" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L61" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O61" t="n">
         <v>1.29</v>
@@ -8665,16 +8665,16 @@
         <v>1.94</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R61" t="n">
         <v>1.37</v>
       </c>
       <c r="S61" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="T61" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U61" t="n">
         <v>2.14</v>
@@ -8773,7 +8773,7 @@
         <v>2.92</v>
       </c>
       <c r="H62" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="I62" t="n">
         <v>3.6</v>
@@ -8782,10 +8782,10 @@
         <v>3.1</v>
       </c>
       <c r="K62" t="n">
-        <v>60</v>
+        <v>7.6</v>
       </c>
       <c r="L62" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M62" t="n">
         <v>1.01</v>
@@ -8851,7 +8851,7 @@
         <v>970</v>
       </c>
       <c r="AH62" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI62" t="n">
         <v>1000</v>
@@ -8902,13 +8902,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="G63" t="n">
         <v>2.18</v>
       </c>
       <c r="H63" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I63" t="n">
         <v>4.3</v>
@@ -8947,7 +8947,7 @@
         <v>1.8</v>
       </c>
       <c r="U63" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V63" t="n">
         <v>1.3</v>
@@ -8992,7 +8992,7 @@
         <v>70</v>
       </c>
       <c r="AJ63" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK63" t="n">
         <v>27</v>
@@ -9076,7 +9076,7 @@
         <v>1.36</v>
       </c>
       <c r="S64" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T64" t="n">
         <v>1.85</v>
@@ -9139,7 +9139,7 @@
         <v>120</v>
       </c>
       <c r="AN64" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AO64" t="n">
         <v>14.5</v>
@@ -9202,7 +9202,7 @@
         <v>1.16</v>
       </c>
       <c r="P65" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q65" t="n">
         <v>1.47</v>
@@ -9214,7 +9214,7 @@
         <v>2.16</v>
       </c>
       <c r="T65" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="U65" t="n">
         <v>2.72</v>
@@ -9244,7 +9244,7 @@
         <v>13</v>
       </c>
       <c r="AD65" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE65" t="n">
         <v>40</v>
@@ -9259,7 +9259,7 @@
         <v>18.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ65" t="n">
         <v>27</v>
@@ -9307,16 +9307,16 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G66" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H66" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I66" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J66" t="n">
         <v>4</v>
@@ -9346,16 +9346,16 @@
         <v>1.51</v>
       </c>
       <c r="S66" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T66" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U66" t="n">
         <v>2.22</v>
       </c>
       <c r="V66" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W66" t="n">
         <v>2.16</v>
@@ -9394,7 +9394,7 @@
         <v>19</v>
       </c>
       <c r="AI66" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ66" t="n">
         <v>19.5</v>
@@ -9403,7 +9403,7 @@
         <v>18</v>
       </c>
       <c r="AL66" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM66" t="n">
         <v>80</v>
@@ -9412,7 +9412,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO66" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67">
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="G67" t="n">
         <v>3.35</v>
@@ -9451,7 +9451,7 @@
         <v>2.38</v>
       </c>
       <c r="I67" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J67" t="n">
         <v>3.3</v>
@@ -9478,7 +9478,7 @@
         <v>1.76</v>
       </c>
       <c r="R67" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="S67" t="n">
         <v>1.76</v>
@@ -9490,7 +9490,7 @@
         <v>1.01</v>
       </c>
       <c r="V67" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W67" t="n">
         <v>1.42</v>
@@ -9499,10 +9499,10 @@
         <v>21</v>
       </c>
       <c r="Y67" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA67" t="n">
         <v>50</v>
@@ -9514,7 +9514,7 @@
         <v>11.5</v>
       </c>
       <c r="AD67" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE67" t="n">
         <v>40</v>
@@ -9577,16 +9577,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="G68" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="H68" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="I68" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J68" t="n">
         <v>3.7</v>
@@ -9601,7 +9601,7 @@
         <v>1.02</v>
       </c>
       <c r="N68" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O68" t="n">
         <v>1.16</v>
@@ -9610,25 +9610,25 @@
         <v>2.68</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R68" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S68" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T68" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="U68" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="V68" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="W68" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="X68" t="n">
         <v>34</v>
@@ -9637,7 +9637,7 @@
         <v>24</v>
       </c>
       <c r="Z68" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA68" t="n">
         <v>55</v>
@@ -9664,7 +9664,7 @@
         <v>970</v>
       </c>
       <c r="AI68" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ68" t="n">
         <v>36</v>
@@ -9673,10 +9673,10 @@
         <v>24</v>
       </c>
       <c r="AL68" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM68" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN68" t="n">
         <v>970</v>
@@ -9718,10 +9718,10 @@
         <v>4.6</v>
       </c>
       <c r="H69" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="I69" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="J69" t="n">
         <v>3.75</v>
@@ -9757,7 +9757,7 @@
         <v>1.82</v>
       </c>
       <c r="U69" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V69" t="n">
         <v>2.02</v>
@@ -9772,7 +9772,7 @@
         <v>11</v>
       </c>
       <c r="Z69" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA69" t="n">
         <v>22</v>
@@ -9784,7 +9784,7 @@
         <v>8.6</v>
       </c>
       <c r="AD69" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE69" t="n">
         <v>21</v>
@@ -9793,10 +9793,10 @@
         <v>34</v>
       </c>
       <c r="AG69" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AH69" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI69" t="n">
         <v>38</v>
@@ -9847,22 +9847,22 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="G70" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H70" t="n">
         <v>2.48</v>
       </c>
       <c r="I70" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J70" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K70" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L70" t="n">
         <v>1.45</v>
@@ -9874,13 +9874,13 @@
         <v>3.5</v>
       </c>
       <c r="O70" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P70" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q70" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R70" t="n">
         <v>1.32</v>
@@ -9895,7 +9895,7 @@
         <v>2.1</v>
       </c>
       <c r="V70" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W70" t="n">
         <v>1.45</v>
@@ -9913,10 +9913,10 @@
         <v>44</v>
       </c>
       <c r="AB70" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC70" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD70" t="n">
         <v>12.5</v>
@@ -9952,7 +9952,7 @@
         <v>36</v>
       </c>
       <c r="AO70" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
@@ -9982,22 +9982,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G71" t="n">
         <v>1.87</v>
       </c>
       <c r="H71" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I71" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J71" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K71" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L71" t="n">
         <v>1.39</v>
@@ -10009,25 +10009,25 @@
         <v>3.6</v>
       </c>
       <c r="O71" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P71" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R71" t="n">
         <v>1.34</v>
       </c>
       <c r="S71" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T71" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U71" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V71" t="n">
         <v>1.25</v>
@@ -10036,58 +10036,58 @@
         <v>2.14</v>
       </c>
       <c r="X71" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="Z71" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AA71" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AB71" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC71" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD71" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE71" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AF71" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG71" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH71" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI71" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AJ71" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK71" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL71" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM71" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN71" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO71" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
@@ -10117,13 +10117,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="G72" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="I72" t="n">
         <v>2.5</v>
@@ -10132,10 +10132,10 @@
         <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="L72" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M72" t="n">
         <v>1.01</v>
@@ -10156,7 +10156,7 @@
         <v>1.25</v>
       </c>
       <c r="S72" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T72" t="n">
         <v>1.68</v>
@@ -10168,7 +10168,7 @@
         <v>1.66</v>
       </c>
       <c r="W72" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X72" t="n">
         <v>1000</v>
@@ -10252,10 +10252,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G73" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H73" t="n">
         <v>2.44</v>
@@ -10273,7 +10273,7 @@
         <v>1.01</v>
       </c>
       <c r="M73" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N73" t="n">
         <v>5.1</v>
@@ -10303,13 +10303,13 @@
         <v>1.59</v>
       </c>
       <c r="W73" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X73" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y73" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z73" t="n">
         <v>23</v>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G74" t="n">
         <v>3.05</v>
@@ -10414,7 +10414,7 @@
         <v>3.45</v>
       </c>
       <c r="O74" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P74" t="n">
         <v>1.84</v>
@@ -10522,31 +10522,31 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="G75" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="H75" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I75" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="J75" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K75" t="n">
         <v>3.9</v>
       </c>
       <c r="L75" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M75" t="n">
         <v>1.07</v>
       </c>
       <c r="N75" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O75" t="n">
         <v>1.36</v>
@@ -10570,10 +10570,10 @@
         <v>1.93</v>
       </c>
       <c r="V75" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W75" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="X75" t="n">
         <v>13.5</v>
@@ -10585,19 +10585,19 @@
         <v>40</v>
       </c>
       <c r="AA75" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB75" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC75" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD75" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE75" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF75" t="n">
         <v>11.5</v>
@@ -10606,10 +10606,10 @@
         <v>10.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI75" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ75" t="n">
         <v>21</v>
@@ -10621,13 +10621,13 @@
         <v>42</v>
       </c>
       <c r="AM75" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN75" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO75" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76">
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="G76" t="n">
         <v>2.6</v>
@@ -10666,13 +10666,13 @@
         <v>3.45</v>
       </c>
       <c r="I76" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J76" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="K76" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L76" t="n">
         <v>1.01</v>
@@ -10681,25 +10681,25 @@
         <v>1.01</v>
       </c>
       <c r="N76" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="O76" t="n">
         <v>1.01</v>
       </c>
       <c r="P76" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="R76" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="S76" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="T76" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="U76" t="n">
         <v>1.01</v>
@@ -10708,10 +10708,10 @@
         <v>1.35</v>
       </c>
       <c r="W76" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X76" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y76" t="n">
         <v>1000</v>
@@ -10801,7 +10801,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J77" t="n">
         <v>3.8</v>
@@ -10840,7 +10840,7 @@
         <v>2.12</v>
       </c>
       <c r="V77" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W77" t="n">
         <v>1.32</v>
@@ -10951,7 +10951,7 @@
         <v>1.01</v>
       </c>
       <c r="N78" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O78" t="n">
         <v>1.11</v>
@@ -10966,10 +10966,10 @@
         <v>1.92</v>
       </c>
       <c r="S78" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T78" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U78" t="n">
         <v>1.37</v>
@@ -10996,7 +10996,7 @@
         <v>970</v>
       </c>
       <c r="AC78" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AD78" t="n">
         <v>1000</v>
@@ -11008,7 +11008,7 @@
         <v>970</v>
       </c>
       <c r="AG78" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH78" t="n">
         <v>130</v>
@@ -11023,13 +11023,13 @@
         <v>22</v>
       </c>
       <c r="AL78" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM78" t="n">
         <v>1000</v>
       </c>
       <c r="AN78" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="AO78" t="n">
         <v>1000</v>
@@ -11122,7 +11122,7 @@
         <v>970</v>
       </c>
       <c r="Z79" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA79" t="n">
         <v>28</v>
@@ -11203,13 +11203,13 @@
         <v>1.55</v>
       </c>
       <c r="H80" t="n">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
       <c r="I80" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="J80" t="n">
-        <v>2.8</v>
+        <v>3.55</v>
       </c>
       <c r="K80" t="n">
         <v>7.8</v>
@@ -11377,7 +11377,7 @@
         <v>1.74</v>
       </c>
       <c r="U81" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V81" t="n">
         <v>1.54</v>
@@ -11467,67 +11467,67 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="G82" t="n">
-        <v>2.82</v>
+        <v>2.3</v>
       </c>
       <c r="H82" t="n">
-        <v>2.82</v>
+        <v>3.5</v>
       </c>
       <c r="I82" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J82" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K82" t="n">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="L82" t="n">
         <v>1.01</v>
       </c>
       <c r="M82" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N82" t="n">
-        <v>1.72</v>
+        <v>3.5</v>
       </c>
       <c r="O82" t="n">
         <v>1.32</v>
       </c>
       <c r="P82" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="R82" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S82" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="T82" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="U82" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V82" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W82" t="n">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="X82" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Y82" t="n">
         <v>970</v>
       </c>
       <c r="Z82" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA82" t="n">
         <v>1000</v>
@@ -11539,28 +11539,28 @@
         <v>970</v>
       </c>
       <c r="AD82" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AE82" t="n">
         <v>1000</v>
       </c>
       <c r="AF82" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AG82" t="n">
         <v>970</v>
       </c>
       <c r="AH82" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AI82" t="n">
         <v>1000</v>
       </c>
       <c r="AJ82" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK82" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AL82" t="n">
         <v>1000</v>
@@ -11569,7 +11569,7 @@
         <v>1000</v>
       </c>
       <c r="AN82" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO82" t="n">
         <v>1000</v>
@@ -11605,7 +11605,7 @@
         <v>2.02</v>
       </c>
       <c r="G83" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H83" t="n">
         <v>3.35</v>
@@ -11632,10 +11632,10 @@
         <v>1.21</v>
       </c>
       <c r="P83" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R83" t="n">
         <v>1.55</v>
@@ -11647,13 +11647,13 @@
         <v>1.59</v>
       </c>
       <c r="U83" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V83" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W83" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X83" t="n">
         <v>23</v>
@@ -11677,7 +11677,7 @@
         <v>15.5</v>
       </c>
       <c r="AE83" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF83" t="n">
         <v>16</v>
@@ -11689,7 +11689,7 @@
         <v>16</v>
       </c>
       <c r="AI83" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ83" t="n">
         <v>26</v>
@@ -11761,7 +11761,7 @@
         <v>1.08</v>
       </c>
       <c r="N84" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O84" t="n">
         <v>1.37</v>
@@ -11797,7 +11797,7 @@
         <v>19.5</v>
       </c>
       <c r="Z84" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA84" t="n">
         <v>180</v>
@@ -11809,19 +11809,19 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD84" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE84" t="n">
         <v>100</v>
       </c>
       <c r="AF84" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG84" t="n">
         <v>11</v>
       </c>
       <c r="AH84" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI84" t="n">
         <v>110</v>
@@ -11833,13 +11833,13 @@
         <v>25</v>
       </c>
       <c r="AL84" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM84" t="n">
         <v>180</v>
       </c>
       <c r="AN84" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO84" t="n">
         <v>140</v>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G85" t="n">
         <v>1.97</v>
@@ -11881,7 +11881,7 @@
         <v>4.3</v>
       </c>
       <c r="I85" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J85" t="n">
         <v>3.8</v>
@@ -11908,19 +11908,19 @@
         <v>1.95</v>
       </c>
       <c r="R85" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S85" t="n">
         <v>3.4</v>
       </c>
       <c r="T85" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U85" t="n">
         <v>2.16</v>
       </c>
       <c r="V85" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W85" t="n">
         <v>2.02</v>
@@ -11938,7 +11938,7 @@
         <v>95</v>
       </c>
       <c r="AB85" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC85" t="n">
         <v>8.199999999999999</v>
@@ -11950,10 +11950,10 @@
         <v>55</v>
       </c>
       <c r="AF85" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG85" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH85" t="n">
         <v>18</v>
@@ -12151,7 +12151,7 @@
         <v>2.36</v>
       </c>
       <c r="I87" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J87" t="n">
         <v>3.7</v>
@@ -12187,7 +12187,7 @@
         <v>1.68</v>
       </c>
       <c r="U87" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V87" t="n">
         <v>1.72</v>
@@ -12196,7 +12196,7 @@
         <v>1.44</v>
       </c>
       <c r="X87" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y87" t="n">
         <v>12</v>
@@ -12211,7 +12211,7 @@
         <v>14.5</v>
       </c>
       <c r="AC87" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD87" t="n">
         <v>11</v>
@@ -12307,7 +12307,7 @@
         <v>1.34</v>
       </c>
       <c r="P88" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q88" t="n">
         <v>2.02</v>
@@ -12382,7 +12382,7 @@
         <v>150</v>
       </c>
       <c r="AO88" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="89">
@@ -12421,16 +12421,16 @@
         <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J89" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K89" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L89" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M89" t="n">
         <v>1.01</v>
@@ -12460,7 +12460,7 @@
         <v>1.69</v>
       </c>
       <c r="V89" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W89" t="n">
         <v>1.26</v>
@@ -12571,19 +12571,19 @@
         <v>1.01</v>
       </c>
       <c r="N90" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="O90" t="n">
         <v>1.21</v>
       </c>
       <c r="P90" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q90" t="n">
         <v>1.56</v>
       </c>
       <c r="R90" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S90" t="n">
         <v>2.32</v>
@@ -12682,16 +12682,16 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="G91" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I91" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J91" t="n">
         <v>3.5</v>
@@ -12727,7 +12727,7 @@
         <v>1.75</v>
       </c>
       <c r="U91" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V91" t="n">
         <v>1.6</v>
@@ -12787,7 +12787,7 @@
         <v>28</v>
       </c>
       <c r="AO91" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
@@ -12817,22 +12817,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="H92" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I92" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="J92" t="n">
         <v>3.45</v>
       </c>
       <c r="K92" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L92" t="n">
         <v>1.41</v>
@@ -12841,43 +12841,43 @@
         <v>1.08</v>
       </c>
       <c r="N92" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O92" t="n">
         <v>1.35</v>
       </c>
       <c r="P92" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q92" t="n">
         <v>2.04</v>
       </c>
       <c r="R92" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S92" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T92" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U92" t="n">
         <v>2.04</v>
       </c>
       <c r="V92" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="W92" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="X92" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="Y92" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="Z92" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA92" t="n">
         <v>110</v>
@@ -12886,16 +12886,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC92" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AD92" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AE92" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF92" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AG92" t="n">
         <v>11</v>
@@ -12907,22 +12907,22 @@
         <v>65</v>
       </c>
       <c r="AJ92" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK92" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL92" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AM92" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN92" t="n">
         <v>970</v>
       </c>
       <c r="AO92" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93">
@@ -12973,7 +12973,7 @@
         <v>1.01</v>
       </c>
       <c r="M93" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N93" t="n">
         <v>2.44</v>
@@ -12994,10 +12994,10 @@
         <v>5.5</v>
       </c>
       <c r="T93" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="U93" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="V93" t="n">
         <v>1.34</v>
@@ -13006,7 +13006,7 @@
         <v>1.64</v>
       </c>
       <c r="X93" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Y93" t="n">
         <v>12</v>
@@ -13018,10 +13018,10 @@
         <v>1000</v>
       </c>
       <c r="AB93" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC93" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD93" t="n">
         <v>21</v>
@@ -13036,7 +13036,7 @@
         <v>15.5</v>
       </c>
       <c r="AH93" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI93" t="n">
         <v>1000</v>
@@ -13087,7 +13087,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="G94" t="n">
         <v>2.44</v>
@@ -13096,103 +13096,103 @@
         <v>3.5</v>
       </c>
       <c r="I94" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J94" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K94" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L94" t="n">
         <v>1.51</v>
       </c>
       <c r="M94" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N94" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O94" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P94" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R94" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S94" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T94" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U94" t="n">
         <v>1.92</v>
       </c>
       <c r="V94" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W94" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y94" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Z94" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA94" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AB94" t="n">
         <v>8.6</v>
       </c>
       <c r="AC94" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD94" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AE94" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF94" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AG94" t="n">
         <v>12</v>
       </c>
       <c r="AH94" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI94" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ94" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK94" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL94" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM94" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN94" t="n">
         <v>32</v>
       </c>
       <c r="AO94" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95">
@@ -13234,7 +13234,7 @@
         <v>1.4</v>
       </c>
       <c r="J95" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K95" t="n">
         <v>17</v>
@@ -13246,22 +13246,22 @@
         <v>1.01</v>
       </c>
       <c r="N95" t="n">
-        <v>2.38</v>
+        <v>2.68</v>
       </c>
       <c r="O95" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="P95" t="n">
-        <v>2.36</v>
+        <v>2.68</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="R95" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="S95" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="T95" t="n">
         <v>1.01</v>
@@ -13270,7 +13270,7 @@
         <v>1.01</v>
       </c>
       <c r="V95" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="W95" t="n">
         <v>1.01</v>
@@ -13357,13 +13357,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="G96" t="n">
         <v>3.4</v>
       </c>
       <c r="H96" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="I96" t="n">
         <v>2.52</v>
@@ -13372,7 +13372,7 @@
         <v>3.9</v>
       </c>
       <c r="K96" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="L96" t="n">
         <v>1.01</v>
@@ -13390,13 +13390,13 @@
         <v>1.75</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.41</v>
+        <v>1.12</v>
       </c>
       <c r="R96" t="n">
         <v>1.75</v>
       </c>
       <c r="S96" t="n">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="T96" t="n">
         <v>1.33</v>
@@ -13492,19 +13492,19 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H97" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I97" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J97" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K97" t="n">
         <v>4.6</v>
@@ -13516,7 +13516,7 @@
         <v>1.03</v>
       </c>
       <c r="N97" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O97" t="n">
         <v>1.15</v>
@@ -13534,19 +13534,19 @@
         <v>2.22</v>
       </c>
       <c r="T97" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U97" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="V97" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W97" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X97" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y97" t="n">
         <v>26</v>
@@ -13561,22 +13561,22 @@
         <v>16</v>
       </c>
       <c r="AC97" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG97" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD97" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>12</v>
-      </c>
       <c r="AH97" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI97" t="n">
         <v>40</v>
@@ -13585,10 +13585,10 @@
         <v>23</v>
       </c>
       <c r="AK97" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL97" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM97" t="n">
         <v>55</v>
@@ -13597,7 +13597,7 @@
         <v>7.6</v>
       </c>
       <c r="AO97" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
@@ -13627,46 +13627,46 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G98" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I98" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J98" t="n">
         <v>3</v>
       </c>
       <c r="K98" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L98" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M98" t="n">
         <v>1.01</v>
       </c>
       <c r="N98" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="O98" t="n">
         <v>1.01</v>
       </c>
       <c r="P98" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="R98" t="n">
         <v>1.08</v>
       </c>
       <c r="S98" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="T98" t="n">
         <v>1.01</v>
@@ -13678,7 +13678,7 @@
         <v>1.26</v>
       </c>
       <c r="W98" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X98" t="n">
         <v>1000</v>
@@ -13762,16 +13762,16 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G99" t="n">
         <v>4.2</v>
       </c>
       <c r="H99" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I99" t="n">
         <v>1.98</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2</v>
       </c>
       <c r="J99" t="n">
         <v>3.9</v>
@@ -13792,10 +13792,10 @@
         <v>1.26</v>
       </c>
       <c r="P99" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R99" t="n">
         <v>1.49</v>
@@ -13804,16 +13804,16 @@
         <v>2.94</v>
       </c>
       <c r="T99" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U99" t="n">
         <v>2.32</v>
       </c>
       <c r="V99" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W99" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X99" t="n">
         <v>18.5</v>
@@ -13822,13 +13822,13 @@
         <v>11</v>
       </c>
       <c r="Z99" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA99" t="n">
         <v>23</v>
       </c>
       <c r="AB99" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC99" t="n">
         <v>8.800000000000001</v>
@@ -13855,7 +13855,7 @@
         <v>80</v>
       </c>
       <c r="AK99" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL99" t="n">
         <v>48</v>
@@ -13864,7 +13864,7 @@
         <v>80</v>
       </c>
       <c r="AN99" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO99" t="n">
         <v>11.5</v>
@@ -13912,7 +13912,7 @@
         <v>3.3</v>
       </c>
       <c r="K100" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L100" t="n">
         <v>1.46</v>
@@ -14062,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="Q101" t="n">
         <v>1.47</v>
@@ -14167,10 +14167,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G102" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H102" t="n">
         <v>3.1</v>
@@ -14206,7 +14206,7 @@
         <v>1.42</v>
       </c>
       <c r="S102" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T102" t="n">
         <v>1.7</v>
@@ -14218,7 +14218,7 @@
         <v>1.44</v>
       </c>
       <c r="W102" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X102" t="n">
         <v>16</v>
@@ -14305,13 +14305,13 @@
         <v>2.7</v>
       </c>
       <c r="G103" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>2.56</v>
       </c>
       <c r="I103" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J103" t="n">
         <v>3.55</v>
@@ -14332,13 +14332,13 @@
         <v>1.26</v>
       </c>
       <c r="P103" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q103" t="n">
         <v>1.74</v>
       </c>
       <c r="R103" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S103" t="n">
         <v>2.88</v>
@@ -14353,7 +14353,7 @@
         <v>1.56</v>
       </c>
       <c r="W103" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X103" t="n">
         <v>21</v>
@@ -14437,112 +14437,112 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="G104" t="n">
-        <v>2.54</v>
+        <v>1.96</v>
       </c>
       <c r="H104" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I104" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K104" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N104" t="n">
+        <v>4</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P104" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S104" t="n">
         <v>3.05</v>
       </c>
-      <c r="I104" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K104" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L104" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M104" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N104" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="O104" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P104" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R104" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S104" t="n">
-        <v>2.68</v>
-      </c>
       <c r="T104" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U104" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="V104" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W104" t="n">
-        <v>1.64</v>
+        <v>2.04</v>
       </c>
       <c r="X104" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y104" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z104" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA104" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB104" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC104" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD104" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE104" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF104" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG104" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH104" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI104" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ104" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK104" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL104" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM104" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN104" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO104" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105">
@@ -14572,22 +14572,22 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="G105" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I105" t="n">
         <v>3.35</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3.75</v>
       </c>
       <c r="J105" t="n">
         <v>2.78</v>
       </c>
       <c r="K105" t="n">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="L105" t="n">
         <v>1.01</v>
@@ -14596,16 +14596,16 @@
         <v>1.01</v>
       </c>
       <c r="N105" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="O105" t="n">
         <v>1.01</v>
       </c>
       <c r="P105" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="R105" t="n">
         <v>1.17</v>
@@ -14620,10 +14620,10 @@
         <v>1.01</v>
       </c>
       <c r="V105" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="W105" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X105" t="n">
         <v>1000</v>
@@ -14707,112 +14707,112 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="G106" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="H106" t="n">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="I106" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="J106" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="K106" t="n">
-        <v>6.6</v>
+        <v>3.65</v>
       </c>
       <c r="L106" t="n">
         <v>1.01</v>
       </c>
       <c r="M106" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N106" t="n">
-        <v>1.56</v>
+        <v>2.84</v>
       </c>
       <c r="O106" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P106" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R106" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="S106" t="n">
-        <v>2.12</v>
+        <v>4.4</v>
       </c>
       <c r="T106" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U106" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V106" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="W106" t="n">
-        <v>1.69</v>
+        <v>2.04</v>
       </c>
       <c r="X106" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y106" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z106" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA106" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB106" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC106" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD106" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE106" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF106" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG106" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH106" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI106" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ106" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK106" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL106" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM106" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN106" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO106" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107">
@@ -14980,13 +14980,13 @@
         <v>8</v>
       </c>
       <c r="G108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H108" t="n">
         <v>1.41</v>
       </c>
       <c r="I108" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="J108" t="n">
         <v>4.4</v>
@@ -15007,13 +15007,13 @@
         <v>1.32</v>
       </c>
       <c r="P108" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q108" t="n">
         <v>1.94</v>
       </c>
       <c r="R108" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S108" t="n">
         <v>3.4</v>
@@ -15115,16 +15115,16 @@
         <v>1.82</v>
       </c>
       <c r="G109" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H109" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I109" t="n">
         <v>5.7</v>
       </c>
       <c r="J109" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K109" t="n">
         <v>3.7</v>
@@ -15163,7 +15163,7 @@
         <v>1.21</v>
       </c>
       <c r="W109" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X109" t="n">
         <v>12.5</v>
@@ -15172,13 +15172,13 @@
         <v>17</v>
       </c>
       <c r="Z109" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA109" t="n">
         <v>140</v>
       </c>
       <c r="AB109" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC109" t="n">
         <v>8</v>
@@ -15187,7 +15187,7 @@
         <v>21</v>
       </c>
       <c r="AE109" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF109" t="n">
         <v>10</v>
@@ -15247,16 +15247,16 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G110" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H110" t="n">
         <v>3.3</v>
       </c>
       <c r="I110" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J110" t="n">
         <v>3.5</v>
@@ -15268,7 +15268,7 @@
         <v>1.01</v>
       </c>
       <c r="M110" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N110" t="n">
         <v>3.9</v>
@@ -15280,13 +15280,13 @@
         <v>2.06</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R110" t="n">
         <v>1.39</v>
       </c>
       <c r="S110" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T110" t="n">
         <v>1.73</v>
@@ -15295,10 +15295,10 @@
         <v>2.2</v>
       </c>
       <c r="V110" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W110" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X110" t="n">
         <v>15.5</v>
@@ -15388,7 +15388,7 @@
         <v>4.8</v>
       </c>
       <c r="H111" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I111" t="n">
         <v>1.85</v>
@@ -15406,25 +15406,25 @@
         <v>1.01</v>
       </c>
       <c r="N111" t="n">
-        <v>2.16</v>
+        <v>4.4</v>
       </c>
       <c r="O111" t="n">
         <v>1.19</v>
       </c>
       <c r="P111" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="Q111" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R111" t="n">
         <v>1.55</v>
       </c>
-      <c r="R111" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S111" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="T111" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="U111" t="n">
         <v>2.18</v>
@@ -15436,58 +15436,58 @@
         <v>1.26</v>
       </c>
       <c r="X111" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Y111" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH111" t="n">
         <v>17</v>
       </c>
-      <c r="Z111" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA111" t="n">
+      <c r="AI111" t="n">
         <v>28</v>
       </c>
-      <c r="AB111" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC111" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD111" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE111" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF111" t="n">
+      <c r="AJ111" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK111" t="n">
         <v>50</v>
       </c>
-      <c r="AG111" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH111" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI111" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK111" t="n">
-        <v>65</v>
-      </c>
       <c r="AL111" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AM111" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AN111" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO111" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="112">
@@ -15520,7 +15520,7 @@
         <v>1.48</v>
       </c>
       <c r="G112" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="H112" t="n">
         <v>8.199999999999999</v>
@@ -15529,7 +15529,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J112" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K112" t="n">
         <v>4.7</v>
@@ -15568,7 +15568,7 @@
         <v>1.12</v>
       </c>
       <c r="W112" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="X112" t="n">
         <v>16.5</v>
@@ -15586,7 +15586,7 @@
         <v>7.4</v>
       </c>
       <c r="AC112" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD112" t="n">
         <v>36</v>
@@ -15655,19 +15655,19 @@
         <v>1.56</v>
       </c>
       <c r="G113" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H113" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="I113" t="n">
         <v>6.4</v>
       </c>
       <c r="J113" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K113" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L113" t="n">
         <v>1.27</v>
@@ -15682,7 +15682,7 @@
         <v>1.17</v>
       </c>
       <c r="P113" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q113" t="n">
         <v>1.53</v>
@@ -15697,13 +15697,13 @@
         <v>1.66</v>
       </c>
       <c r="U113" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V113" t="n">
         <v>1.19</v>
       </c>
       <c r="W113" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="X113" t="n">
         <v>30</v>
@@ -15787,112 +15787,112 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="G114" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="H114" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="I114" t="n">
-        <v>26</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J114" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K114" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="L114" t="n">
         <v>1.01</v>
       </c>
       <c r="M114" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N114" t="n">
-        <v>2.28</v>
+        <v>5.3</v>
       </c>
       <c r="O114" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P114" t="n">
-        <v>2.28</v>
+        <v>2.8</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R114" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="S114" t="n">
         <v>2.1</v>
       </c>
       <c r="T114" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U114" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V114" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="W114" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="X114" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y114" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z114" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA114" t="n">
         <v>1000</v>
       </c>
       <c r="AB114" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC114" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD114" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE114" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF114" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG114" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH114" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI114" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ114" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK114" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL114" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM114" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN114" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AO114" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115">
@@ -15922,16 +15922,16 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G115" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H115" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I115" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="J115" t="n">
         <v>3.3</v>
@@ -15943,40 +15943,40 @@
         <v>1.44</v>
       </c>
       <c r="M115" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N115" t="n">
-        <v>1.86</v>
+        <v>3.25</v>
       </c>
       <c r="O115" t="n">
         <v>1.35</v>
       </c>
       <c r="P115" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q115" t="n">
         <v>1.96</v>
       </c>
       <c r="R115" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S115" t="n">
         <v>3.4</v>
       </c>
       <c r="T115" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U115" t="n">
         <v>2</v>
       </c>
       <c r="V115" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="W115" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X115" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Y115" t="n">
         <v>1000</v>
@@ -15991,7 +15991,7 @@
         <v>1000</v>
       </c>
       <c r="AC115" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD115" t="n">
         <v>1000</v>
@@ -16060,10 +16060,10 @@
         <v>5.8</v>
       </c>
       <c r="G116" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H116" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I116" t="n">
         <v>1.69</v>
@@ -16213,13 +16213,13 @@
         <v>1.01</v>
       </c>
       <c r="M117" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N117" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="O117" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P117" t="n">
         <v>2.64</v>
@@ -16228,16 +16228,16 @@
         <v>1.49</v>
       </c>
       <c r="R117" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="S117" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T117" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U117" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V117" t="n">
         <v>1.08</v>
@@ -16246,58 +16246,58 @@
         <v>3.5</v>
       </c>
       <c r="X117" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y117" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Z117" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA117" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AB117" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC117" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD117" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE117" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF117" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG117" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH117" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI117" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ117" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AK117" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL117" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM117" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN117" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="AO117" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118">
@@ -16327,10 +16327,10 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G118" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H118" t="n">
         <v>1.3</v>
@@ -16357,19 +16357,19 @@
         <v>1.11</v>
       </c>
       <c r="P118" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R118" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S118" t="n">
         <v>1.87</v>
       </c>
       <c r="T118" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U118" t="n">
         <v>2.4</v>
@@ -16393,10 +16393,10 @@
         <v>12.5</v>
       </c>
       <c r="AB118" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AC118" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD118" t="n">
         <v>11</v>
@@ -16417,7 +16417,7 @@
         <v>24</v>
       </c>
       <c r="AJ118" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AK118" t="n">
         <v>120</v>
@@ -16432,7 +16432,7 @@
         <v>85</v>
       </c>
       <c r="AO118" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="119">
@@ -16462,7 +16462,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G119" t="n">
         <v>1.57</v>
@@ -16495,7 +16495,7 @@
         <v>2.62</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R119" t="n">
         <v>1.65</v>
@@ -16507,7 +16507,7 @@
         <v>1.72</v>
       </c>
       <c r="U119" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V119" t="n">
         <v>1.17</v>
@@ -16519,7 +16519,7 @@
         <v>23</v>
       </c>
       <c r="Y119" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z119" t="n">
         <v>60</v>
@@ -16549,7 +16549,7 @@
         <v>19</v>
       </c>
       <c r="AI119" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ119" t="n">
         <v>14.5</v>
@@ -16561,7 +16561,7 @@
         <v>26</v>
       </c>
       <c r="AM119" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN119" t="n">
         <v>6</v>
@@ -16597,112 +16597,112 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="G120" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H120" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="I120" t="n">
         <v>3.6</v>
       </c>
       <c r="J120" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="K120" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="L120" t="n">
         <v>1.01</v>
       </c>
       <c r="M120" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N120" t="n">
-        <v>1.02</v>
+        <v>4.1</v>
       </c>
       <c r="O120" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P120" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="R120" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S120" t="n">
-        <v>2.42</v>
+        <v>3</v>
       </c>
       <c r="T120" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U120" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V120" t="n">
         <v>1.38</v>
       </c>
       <c r="W120" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X120" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y120" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z120" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA120" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB120" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC120" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD120" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE120" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF120" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG120" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH120" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI120" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ120" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK120" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL120" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM120" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN120" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO120" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121">
@@ -16735,7 +16735,7 @@
         <v>2.36</v>
       </c>
       <c r="G121" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="H121" t="n">
         <v>2.96</v>
@@ -16771,7 +16771,7 @@
         <v>1.51</v>
       </c>
       <c r="S121" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="T121" t="n">
         <v>1.6</v>
@@ -16783,7 +16783,7 @@
         <v>1.47</v>
       </c>
       <c r="W121" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="X121" t="n">
         <v>23</v>
@@ -16837,7 +16837,7 @@
         <v>17</v>
       </c>
       <c r="AO121" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122">
@@ -16879,7 +16879,7 @@
         <v>4.9</v>
       </c>
       <c r="J122" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K122" t="n">
         <v>3.75</v>
@@ -16891,7 +16891,7 @@
         <v>1.08</v>
       </c>
       <c r="N122" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O122" t="n">
         <v>1.37</v>
@@ -16909,7 +16909,7 @@
         <v>3.95</v>
       </c>
       <c r="T122" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U122" t="n">
         <v>1.98</v>
@@ -16924,7 +16924,7 @@
         <v>13</v>
       </c>
       <c r="Y122" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z122" t="n">
         <v>36</v>
@@ -17011,13 +17011,13 @@
         <v>3.8</v>
       </c>
       <c r="I123" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J123" t="n">
         <v>3.25</v>
       </c>
       <c r="K123" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L123" t="n">
         <v>1.52</v>
@@ -17032,13 +17032,13 @@
         <v>1.5</v>
       </c>
       <c r="P123" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="Q123" t="n">
         <v>2.48</v>
       </c>
       <c r="R123" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S123" t="n">
         <v>5</v>
@@ -17047,13 +17047,13 @@
         <v>2.08</v>
       </c>
       <c r="U123" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="V123" t="n">
         <v>1.32</v>
       </c>
       <c r="W123" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X123" t="n">
         <v>970</v>
@@ -17065,28 +17065,28 @@
         <v>27</v>
       </c>
       <c r="AA123" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB123" t="n">
         <v>7.6</v>
       </c>
       <c r="AC123" t="n">
-        <v>970</v>
+        <v>7.4</v>
       </c>
       <c r="AD123" t="n">
         <v>970</v>
       </c>
       <c r="AE123" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF123" t="n">
         <v>970</v>
       </c>
       <c r="AG123" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH123" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI123" t="n">
         <v>85</v>
@@ -17101,13 +17101,13 @@
         <v>60</v>
       </c>
       <c r="AM123" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN123" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO123" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124">
@@ -17167,7 +17167,7 @@
         <v>1.37</v>
       </c>
       <c r="P124" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q124" t="n">
         <v>2.04</v>
@@ -17239,7 +17239,7 @@
         <v>120</v>
       </c>
       <c r="AN124" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO124" t="n">
         <v>36</v>
@@ -17410,13 +17410,13 @@
         <v>2</v>
       </c>
       <c r="G126" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H126" t="n">
         <v>3.9</v>
       </c>
       <c r="I126" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J126" t="n">
         <v>3.3</v>
@@ -17428,25 +17428,25 @@
         <v>1.01</v>
       </c>
       <c r="M126" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N126" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="O126" t="n">
         <v>1.39</v>
       </c>
       <c r="P126" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q126" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="R126" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S126" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="T126" t="n">
         <v>1.87</v>
@@ -17458,7 +17458,7 @@
         <v>1.27</v>
       </c>
       <c r="W126" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X126" t="n">
         <v>14</v>
@@ -17557,13 +17557,13 @@
         <v>3.15</v>
       </c>
       <c r="K127" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L127" t="n">
         <v>1.01</v>
       </c>
       <c r="M127" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N127" t="n">
         <v>2.92</v>
@@ -17677,22 +17677,22 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G128" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H128" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I128" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="J128" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K128" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L128" t="n">
         <v>1.01</v>
@@ -17707,16 +17707,16 @@
         <v>1.28</v>
       </c>
       <c r="P128" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q128" t="n">
         <v>1.85</v>
       </c>
       <c r="R128" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S128" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T128" t="n">
         <v>1.01</v>
@@ -17725,10 +17725,10 @@
         <v>1.01</v>
       </c>
       <c r="V128" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W128" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X128" t="n">
         <v>1000</v>
@@ -17818,7 +17818,7 @@
         <v>1.54</v>
       </c>
       <c r="H129" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I129" t="n">
         <v>11.5</v>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="G130" t="n">
         <v>1.65</v>
@@ -17956,52 +17956,52 @@
         <v>5.7</v>
       </c>
       <c r="I130" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J130" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K130" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L130" t="n">
         <v>1.01</v>
       </c>
       <c r="M130" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N130" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="O130" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P130" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="Q130" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="R130" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="S130" t="n">
-        <v>2.46</v>
+        <v>2.88</v>
       </c>
       <c r="T130" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U130" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="V130" t="n">
         <v>1.16</v>
       </c>
       <c r="W130" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="X130" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y130" t="n">
         <v>26</v>
@@ -18013,7 +18013,7 @@
         <v>190</v>
       </c>
       <c r="AB130" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC130" t="n">
         <v>11.5</v>
@@ -18022,13 +18022,13 @@
         <v>25</v>
       </c>
       <c r="AE130" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF130" t="n">
         <v>11.5</v>
       </c>
       <c r="AG130" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH130" t="n">
         <v>21</v>
@@ -18049,10 +18049,10 @@
         <v>120</v>
       </c>
       <c r="AN130" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AO130" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131">
@@ -18085,10 +18085,10 @@
         <v>1.68</v>
       </c>
       <c r="G131" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="H131" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="I131" t="n">
         <v>4.9</v>
@@ -18118,13 +18118,13 @@
         <v>1.45</v>
       </c>
       <c r="R131" t="n">
-        <v>1.27</v>
+        <v>1.63</v>
       </c>
       <c r="S131" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T131" t="n">
         <v>1.45</v>
-      </c>
-      <c r="T131" t="n">
-        <v>1.44</v>
       </c>
       <c r="U131" t="n">
         <v>1.01</v>
@@ -18133,7 +18133,7 @@
         <v>1.25</v>
       </c>
       <c r="W131" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="X131" t="n">
         <v>1000</v>
@@ -18217,61 +18217,61 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="G132" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="H132" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="I132" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="J132" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K132" t="n">
         <v>3.8</v>
       </c>
       <c r="L132" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M132" t="n">
         <v>1.05</v>
       </c>
       <c r="N132" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O132" t="n">
         <v>1.22</v>
       </c>
       <c r="P132" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="R132" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S132" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="T132" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="U132" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V132" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="W132" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X132" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y132" t="n">
         <v>970</v>
@@ -18280,40 +18280,40 @@
         <v>21</v>
       </c>
       <c r="AA132" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB132" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AC132" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD132" t="n">
         <v>970</v>
       </c>
       <c r="AE132" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF132" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG132" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH132" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AI132" t="n">
         <v>34</v>
       </c>
       <c r="AJ132" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK132" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL132" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM132" t="n">
         <v>65</v>
@@ -18355,13 +18355,13 @@
         <v>3.4</v>
       </c>
       <c r="G133" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H133" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I133" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J133" t="n">
         <v>3.65</v>
@@ -18391,7 +18391,7 @@
         <v>1.45</v>
       </c>
       <c r="S133" t="n">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="T133" t="n">
         <v>1.66</v>
@@ -18400,13 +18400,13 @@
         <v>2.28</v>
       </c>
       <c r="V133" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="W133" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X133" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y133" t="n">
         <v>12</v>
@@ -18637,7 +18637,7 @@
         <v>3.05</v>
       </c>
       <c r="K135" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L135" t="n">
         <v>1.59</v>
@@ -18655,7 +18655,7 @@
         <v>1.57</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R135" t="n">
         <v>1.2</v>
@@ -18664,7 +18664,7 @@
         <v>5.6</v>
       </c>
       <c r="T135" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U135" t="n">
         <v>1.8</v>
@@ -18676,7 +18676,7 @@
         <v>1.75</v>
       </c>
       <c r="X135" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Y135" t="n">
         <v>11</v>
@@ -18700,7 +18700,7 @@
         <v>65</v>
       </c>
       <c r="AF135" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG135" t="n">
         <v>12</v>
@@ -18709,7 +18709,7 @@
         <v>23</v>
       </c>
       <c r="AI135" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ135" t="n">
         <v>32</v>
@@ -18757,10 +18757,10 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G136" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H136" t="n">
         <v>4</v>
@@ -18769,10 +18769,10 @@
         <v>4.5</v>
       </c>
       <c r="J136" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K136" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L136" t="n">
         <v>1.45</v>
@@ -18781,19 +18781,19 @@
         <v>1.08</v>
       </c>
       <c r="N136" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O136" t="n">
         <v>1.38</v>
       </c>
       <c r="P136" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="R136" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S136" t="n">
         <v>3.75</v>
@@ -18805,10 +18805,10 @@
         <v>2</v>
       </c>
       <c r="V136" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W136" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X136" t="n">
         <v>970</v>
@@ -18856,7 +18856,7 @@
         <v>42</v>
       </c>
       <c r="AM136" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN136" t="n">
         <v>970</v>
@@ -18907,34 +18907,34 @@
         <v>3.7</v>
       </c>
       <c r="K137" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L137" t="n">
         <v>1.36</v>
       </c>
       <c r="M137" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N137" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O137" t="n">
         <v>1.31</v>
       </c>
       <c r="P137" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q137" t="n">
         <v>1.92</v>
       </c>
       <c r="R137" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S137" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T137" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U137" t="n">
         <v>2.1</v>
@@ -18946,7 +18946,7 @@
         <v>1.25</v>
       </c>
       <c r="X137" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y137" t="n">
         <v>9.199999999999999</v>
@@ -19033,7 +19033,7 @@
         <v>9</v>
       </c>
       <c r="H138" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="I138" t="n">
         <v>1.38</v>
@@ -19042,7 +19042,7 @@
         <v>6.2</v>
       </c>
       <c r="K138" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L138" t="n">
         <v>1.22</v>
@@ -19051,13 +19051,13 @@
         <v>1.02</v>
       </c>
       <c r="N138" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="O138" t="n">
         <v>1.12</v>
       </c>
       <c r="P138" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q138" t="n">
         <v>1.39</v>
@@ -19084,7 +19084,7 @@
         <v>40</v>
       </c>
       <c r="Y138" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z138" t="n">
         <v>12</v>
@@ -19105,7 +19105,7 @@
         <v>12</v>
       </c>
       <c r="AF138" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AG138" t="n">
         <v>32</v>
@@ -19132,7 +19132,7 @@
         <v>70</v>
       </c>
       <c r="AO138" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="139">
@@ -19162,22 +19162,22 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G139" t="n">
         <v>2.86</v>
       </c>
       <c r="H139" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="I139" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J139" t="n">
         <v>3.55</v>
       </c>
       <c r="K139" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L139" t="n">
         <v>1.35</v>
@@ -19189,13 +19189,13 @@
         <v>4.1</v>
       </c>
       <c r="O139" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P139" t="n">
         <v>2.1</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R139" t="n">
         <v>1.44</v>
@@ -19204,10 +19204,10 @@
         <v>3</v>
       </c>
       <c r="T139" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U139" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V139" t="n">
         <v>1.56</v>
@@ -19264,10 +19264,10 @@
         <v>80</v>
       </c>
       <c r="AN139" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO139" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140">
@@ -19297,10 +19297,10 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G140" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H140" t="n">
         <v>4.4</v>
@@ -19327,10 +19327,10 @@
         <v>1.23</v>
       </c>
       <c r="P140" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R140" t="n">
         <v>1.55</v>
@@ -19348,7 +19348,7 @@
         <v>1.28</v>
       </c>
       <c r="W140" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X140" t="n">
         <v>21</v>
@@ -19360,7 +19360,7 @@
         <v>36</v>
       </c>
       <c r="AA140" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB140" t="n">
         <v>11.5</v>
@@ -19390,7 +19390,7 @@
         <v>21</v>
       </c>
       <c r="AK140" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL140" t="n">
         <v>27</v>
@@ -19444,7 +19444,7 @@
         <v>3.6</v>
       </c>
       <c r="J141" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K141" t="n">
         <v>4.2</v>
@@ -19459,13 +19459,13 @@
         <v>6.2</v>
       </c>
       <c r="O141" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P141" t="n">
         <v>2.74</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R141" t="n">
         <v>1.71</v>
@@ -19483,7 +19483,7 @@
         <v>1.38</v>
       </c>
       <c r="W141" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X141" t="n">
         <v>27</v>
@@ -19504,13 +19504,13 @@
         <v>10</v>
       </c>
       <c r="AD141" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE141" t="n">
         <v>34</v>
       </c>
       <c r="AF141" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG141" t="n">
         <v>11</v>
@@ -19525,7 +19525,7 @@
         <v>26</v>
       </c>
       <c r="AK141" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL141" t="n">
         <v>26</v>
@@ -19606,7 +19606,7 @@
         <v>1.13</v>
       </c>
       <c r="S142" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="T142" t="n">
         <v>2.68</v>
@@ -19618,7 +19618,7 @@
         <v>1.16</v>
       </c>
       <c r="W142" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X142" t="n">
         <v>7.2</v>
@@ -19630,7 +19630,7 @@
         <v>55</v>
       </c>
       <c r="AA142" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AB142" t="n">
         <v>5.1</v>
@@ -19642,7 +19642,7 @@
         <v>34</v>
       </c>
       <c r="AE142" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF142" t="n">
         <v>9.4</v>
@@ -19654,7 +19654,7 @@
         <v>42</v>
       </c>
       <c r="AI142" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AJ142" t="n">
         <v>24</v>
@@ -19666,13 +19666,13 @@
         <v>110</v>
       </c>
       <c r="AM142" t="n">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="AN142" t="n">
         <v>36</v>
       </c>
       <c r="AO142" t="n">
-        <v>490</v>
+        <v>460</v>
       </c>
     </row>
     <row r="143">
@@ -19702,61 +19702,61 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G143" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H143" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I143" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J143" t="n">
         <v>3.3</v>
       </c>
       <c r="K143" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L143" t="n">
         <v>1.5</v>
       </c>
       <c r="M143" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N143" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O143" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P143" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R143" t="n">
         <v>1.26</v>
       </c>
       <c r="S143" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T143" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U143" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="V143" t="n">
         <v>1.3</v>
       </c>
       <c r="W143" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X143" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y143" t="n">
         <v>13</v>
@@ -19765,7 +19765,7 @@
         <v>30</v>
       </c>
       <c r="AA143" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB143" t="n">
         <v>8</v>
@@ -19780,7 +19780,7 @@
         <v>65</v>
       </c>
       <c r="AF143" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG143" t="n">
         <v>11</v>
@@ -19801,13 +19801,13 @@
         <v>48</v>
       </c>
       <c r="AM143" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN143" t="n">
         <v>23</v>
       </c>
       <c r="AO143" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144">
@@ -19861,22 +19861,22 @@
         <v>1.01</v>
       </c>
       <c r="N144" t="n">
-        <v>1.75</v>
+        <v>1.03</v>
       </c>
       <c r="O144" t="n">
         <v>1.32</v>
       </c>
       <c r="P144" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R144" t="n">
         <v>1.09</v>
       </c>
       <c r="S144" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="T144" t="n">
         <v>1.01</v>
@@ -19972,22 +19972,22 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="G145" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="H145" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I145" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J145" t="n">
         <v>3.5</v>
       </c>
       <c r="K145" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L145" t="n">
         <v>1.01</v>
@@ -20002,13 +20002,13 @@
         <v>1.26</v>
       </c>
       <c r="P145" t="n">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="R145" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S145" t="n">
         <v>1.01</v>
@@ -20020,10 +20020,10 @@
         <v>1.01</v>
       </c>
       <c r="V145" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="W145" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="X145" t="n">
         <v>1000</v>
@@ -20110,16 +20110,16 @@
         <v>2.76</v>
       </c>
       <c r="G146" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H146" t="n">
         <v>2.92</v>
       </c>
       <c r="I146" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J146" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="K146" t="n">
         <v>3.25</v>
@@ -20131,16 +20131,16 @@
         <v>1.01</v>
       </c>
       <c r="N146" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="O146" t="n">
         <v>1.01</v>
       </c>
       <c r="P146" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="R146" t="n">
         <v>1.14</v>
@@ -20152,13 +20152,13 @@
         <v>1.01</v>
       </c>
       <c r="U146" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="V146" t="n">
         <v>1.4</v>
       </c>
       <c r="W146" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X146" t="n">
         <v>1000</v>
@@ -20398,25 +20398,25 @@
         <v>1.01</v>
       </c>
       <c r="M148" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N148" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O148" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P148" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q148" t="n">
         <v>1.83</v>
       </c>
       <c r="R148" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S148" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T148" t="n">
         <v>1.89</v>
@@ -20449,7 +20449,7 @@
         <v>10.5</v>
       </c>
       <c r="AD148" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE148" t="n">
         <v>110</v>
@@ -20512,16 +20512,16 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="G149" t="n">
         <v>2.26</v>
       </c>
       <c r="H149" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I149" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J149" t="n">
         <v>2.94</v>
@@ -20554,10 +20554,10 @@
         <v>6.4</v>
       </c>
       <c r="T149" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="U149" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="V149" t="n">
         <v>1.25</v>
@@ -20578,7 +20578,7 @@
         <v>160</v>
       </c>
       <c r="AB149" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC149" t="n">
         <v>8.800000000000001</v>
@@ -20590,7 +20590,7 @@
         <v>120</v>
       </c>
       <c r="AF149" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG149" t="n">
         <v>15</v>
@@ -20602,7 +20602,7 @@
         <v>150</v>
       </c>
       <c r="AJ149" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK149" t="n">
         <v>42</v>
@@ -20614,7 +20614,7 @@
         <v>320</v>
       </c>
       <c r="AN149" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO149" t="n">
         <v>200</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G150" t="n">
         <v>1.83</v>
@@ -20656,13 +20656,13 @@
         <v>5.1</v>
       </c>
       <c r="I150" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J150" t="n">
         <v>3.85</v>
       </c>
       <c r="K150" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L150" t="n">
         <v>1.01</v>
@@ -20692,7 +20692,7 @@
         <v>1.84</v>
       </c>
       <c r="U150" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V150" t="n">
         <v>1.2</v>
@@ -20788,13 +20788,13 @@
         <v>5.8</v>
       </c>
       <c r="H151" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="I151" t="n">
         <v>1.99</v>
       </c>
       <c r="J151" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K151" t="n">
         <v>950</v>
@@ -20932,7 +20932,7 @@
         <v>1.02</v>
       </c>
       <c r="K152" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="L152" t="n">
         <v>1.01</v>
@@ -21052,22 +21052,22 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="G153" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H153" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="I153" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="J153" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K153" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L153" t="n">
         <v>1.01</v>
@@ -21112,10 +21112,10 @@
         <v>6.4</v>
       </c>
       <c r="Z153" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AA153" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB153" t="n">
         <v>15</v>
@@ -21127,7 +21127,7 @@
         <v>11.5</v>
       </c>
       <c r="AE153" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF153" t="n">
         <v>50</v>
@@ -21142,10 +21142,10 @@
         <v>65</v>
       </c>
       <c r="AJ153" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AK153" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AL153" t="n">
         <v>160</v>
@@ -21154,7 +21154,7 @@
         <v>270</v>
       </c>
       <c r="AN153" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AO153" t="n">
         <v>23</v>
@@ -21202,7 +21202,7 @@
         <v>1.02</v>
       </c>
       <c r="K154" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="L154" t="n">
         <v>1.01</v>
@@ -21358,13 +21358,13 @@
         <v>2.96</v>
       </c>
       <c r="R155" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S155" t="n">
         <v>6.2</v>
       </c>
       <c r="T155" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="U155" t="n">
         <v>1.67</v>
@@ -21409,7 +21409,7 @@
         <v>28</v>
       </c>
       <c r="AI155" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ155" t="n">
         <v>55</v>
@@ -21421,13 +21421,13 @@
         <v>85</v>
       </c>
       <c r="AM155" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AN155" t="n">
         <v>65</v>
       </c>
       <c r="AO155" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156">
@@ -21463,7 +21463,7 @@
         <v>2.14</v>
       </c>
       <c r="H156" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I156" t="n">
         <v>6.8</v>
@@ -21472,7 +21472,7 @@
         <v>2.8</v>
       </c>
       <c r="K156" t="n">
-        <v>3.65</v>
+        <v>950</v>
       </c>
       <c r="L156" t="n">
         <v>1.01</v>
@@ -21490,7 +21490,7 @@
         <v>1.37</v>
       </c>
       <c r="Q156" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R156" t="n">
         <v>1.1</v>
@@ -21529,7 +21529,7 @@
         <v>10.5</v>
       </c>
       <c r="AD156" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE156" t="n">
         <v>1000</v>
@@ -21541,7 +21541,7 @@
         <v>18.5</v>
       </c>
       <c r="AH156" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI156" t="n">
         <v>1000</v>
@@ -21592,22 +21592,22 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="G157" t="n">
         <v>1.61</v>
       </c>
       <c r="H157" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I157" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J157" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="K157" t="n">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="L157" t="n">
         <v>1.01</v>
@@ -21616,16 +21616,16 @@
         <v>1.01</v>
       </c>
       <c r="N157" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="O157" t="n">
         <v>1.21</v>
       </c>
       <c r="P157" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="Q157" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R157" t="n">
         <v>1.44</v>
@@ -21634,13 +21634,13 @@
         <v>2.36</v>
       </c>
       <c r="T157" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="U157" t="n">
         <v>1.96</v>
       </c>
       <c r="V157" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W157" t="n">
         <v>2.62</v>
@@ -21760,7 +21760,7 @@
         <v>2</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R158" t="n">
         <v>1.37</v>
@@ -21769,7 +21769,7 @@
         <v>3.2</v>
       </c>
       <c r="T158" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U158" t="n">
         <v>2.16</v>
@@ -21784,13 +21784,13 @@
         <v>970</v>
       </c>
       <c r="Y158" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z158" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AA158" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB158" t="n">
         <v>15</v>
@@ -21832,7 +21832,7 @@
         <v>38</v>
       </c>
       <c r="AO158" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="159">
@@ -22012,7 +22012,7 @@
         <v>1.02</v>
       </c>
       <c r="K160" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="L160" t="n">
         <v>1.01</v>
@@ -22024,19 +22024,19 @@
         <v>1.08</v>
       </c>
       <c r="O160" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P160" t="n">
         <v>1.08</v>
       </c>
       <c r="Q160" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="R160" t="n">
         <v>1.08</v>
       </c>
       <c r="S160" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="T160" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-31.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.64</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.66</v>
-      </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
         <v>4.7</v>
@@ -694,7 +694,7 @@
         <v>5.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>2.46</v>
@@ -703,34 +703,34 @@
         <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
         <v>2.26</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
         <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AB2" t="n">
         <v>11.5</v>
@@ -742,13 +742,13 @@
         <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>19</v>
@@ -757,22 +757,22 @@
         <v>65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AK2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
         <v>2.12</v>
@@ -814,100 +814,100 @@
         <v>2.16</v>
       </c>
       <c r="J3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.7</v>
       </c>
-      <c r="K3" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="O3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.34</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.35</v>
-      </c>
       <c r="X3" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
         <v>11</v>
       </c>
-      <c r="Z3" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
         <v>16</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
         <v>55</v>
       </c>
       <c r="AO3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
         <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
         <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="R4" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="S4" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="U4" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="V4" t="n">
         <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
         <v>70</v>
       </c>
       <c r="AB4" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
         <v>15.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,43 +1072,43 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G5" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="K5" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="L5" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P5" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="Q5" t="n">
         <v>1.37</v>
       </c>
       <c r="R5" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="S5" t="n">
         <v>1.79</v>
@@ -1117,13 +1117,13 @@
         <v>1.79</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H6" t="n">
         <v>2.66</v>
       </c>
       <c r="I6" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
         <v>3.8</v>
@@ -1231,7 +1231,7 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
         <v>1.24</v>
@@ -1240,49 +1240,49 @@
         <v>2.28</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S6" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T6" t="n">
         <v>1.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V6" t="n">
         <v>1.58</v>
       </c>
       <c r="W6" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X6" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="n">
         <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
         <v>20</v>
@@ -1297,7 +1297,7 @@
         <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK6" t="n">
         <v>26</v>
@@ -1306,13 +1306,13 @@
         <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -1342,46 +1342,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="G7" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="H7" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>2.24</v>
+        <v>5.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.24</v>
+        <v>2.52</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="R7" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="S7" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="T7" t="n">
         <v>1.54</v>
@@ -1390,64 +1390,64 @@
         <v>2.6</v>
       </c>
       <c r="V7" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="X7" t="n">
         <v>27</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1489,10 +1489,10 @@
         <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1513,7 +1513,7 @@
         <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
         <v>2.08</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H9" t="n">
         <v>6.2</v>
@@ -1624,22 +1624,22 @@
         <v>7.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
         <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="P9" t="n">
         <v>1.73</v>
@@ -1648,7 +1648,7 @@
         <v>2.18</v>
       </c>
       <c r="R9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1663,58 +1663,58 @@
         <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="X9" t="n">
         <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA9" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE9" t="n">
         <v>140</v>
       </c>
       <c r="AF9" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
         <v>140</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
         <v>210</v>
       </c>
       <c r="AN9" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
         <v>220</v>
@@ -1753,7 +1753,7 @@
         <v>1.77</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
         <v>5.5</v>
@@ -1765,34 +1765,34 @@
         <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>2.46</v>
+        <v>5.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="S10" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="T10" t="n">
         <v>1.68</v>
       </c>
       <c r="U10" t="n">
-        <v>1.05</v>
+        <v>2.34</v>
       </c>
       <c r="V10" t="n">
         <v>1.22</v>
@@ -1801,58 +1801,58 @@
         <v>2.28</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="H11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I11" t="n">
         <v>2.12</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.18</v>
       </c>
       <c r="J11" t="n">
         <v>3.7</v>
@@ -1906,49 +1906,49 @@
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R11" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
         <v>2.24</v>
       </c>
       <c r="V11" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="W11" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X11" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
         <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
@@ -1981,13 +1981,13 @@
         <v>50</v>
       </c>
       <c r="AM11" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
         <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="12">
@@ -2020,13 +2020,13 @@
         <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J12" t="n">
         <v>3.15</v>
@@ -2035,7 +2035,7 @@
         <v>3.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
@@ -2056,7 +2056,7 @@
         <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
         <v>1.9</v>
@@ -2065,10 +2065,10 @@
         <v>1.98</v>
       </c>
       <c r="V12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W12" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X12" t="n">
         <v>12.5</v>
@@ -2179,10 +2179,10 @@
         <v>2.92</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q13" t="n">
         <v>1.73</v>
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="G14" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="H14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I14" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J14" t="n">
         <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P14" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="R14" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="U14" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="V14" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W14" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG14" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15">
@@ -2443,10 +2443,10 @@
         <v>1.34</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.24</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="G16" t="n">
         <v>3.05</v>
@@ -2566,10 +2566,10 @@
         <v>2.76</v>
       </c>
       <c r="I16" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K16" t="n">
         <v>3.65</v>
@@ -2581,7 +2581,7 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>1.02</v>
+        <v>2.56</v>
       </c>
       <c r="O16" t="n">
         <v>1.05</v>
@@ -2599,13 +2599,13 @@
         <v>2.82</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W16" t="n">
         <v>1.5</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="G17" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H17" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I17" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
         <v>4.8</v>
@@ -2716,16 +2716,16 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R17" t="n">
         <v>1.46</v>
@@ -2740,10 +2740,10 @@
         <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W17" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="X17" t="n">
         <v>21</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G18" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
         <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J18" t="n">
         <v>3.5</v>
@@ -2854,73 +2854,73 @@
         <v>4.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P18" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U18" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V18" t="n">
         <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="X18" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Y18" t="n">
         <v>16</v>
       </c>
       <c r="Z18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA18" t="n">
         <v>65</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF18" t="n">
         <v>15</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>15.5</v>
       </c>
       <c r="AG18" t="n">
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AI18" t="n">
         <v>46</v>
       </c>
       <c r="AJ18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK18" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
         <v>34</v>
@@ -2929,10 +2929,10 @@
         <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AO18" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="G19" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="H19" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J19" t="n">
         <v>4.2</v>
@@ -2986,7 +2986,7 @@
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O19" t="n">
         <v>1.25</v>
@@ -2998,7 +2998,7 @@
         <v>1.75</v>
       </c>
       <c r="R19" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S19" t="n">
         <v>2.88</v>
@@ -3007,64 +3007,64 @@
         <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V19" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W19" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="X19" t="n">
         <v>18.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA19" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
         <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF19" t="n">
         <v>11.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH19" t="n">
         <v>18.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ19" t="n">
         <v>18</v>
       </c>
       <c r="AK19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO19" t="n">
         <v>60</v>
@@ -3100,7 +3100,7 @@
         <v>2.68</v>
       </c>
       <c r="G20" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H20" t="n">
         <v>2.92</v>
@@ -3115,13 +3115,13 @@
         <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -3148,7 +3148,7 @@
         <v>1.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X20" t="n">
         <v>12.5</v>
@@ -3169,13 +3169,13 @@
         <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE20" t="n">
         <v>34</v>
       </c>
       <c r="AF20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG20" t="n">
         <v>12.5</v>
@@ -3184,7 +3184,7 @@
         <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ20" t="n">
         <v>46</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G21" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I21" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J21" t="n">
         <v>4.4</v>
@@ -3253,10 +3253,10 @@
         <v>1.28</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O21" t="n">
         <v>1.19</v>
@@ -3274,22 +3274,22 @@
         <v>2.38</v>
       </c>
       <c r="T21" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U21" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V21" t="n">
         <v>1.19</v>
       </c>
       <c r="W21" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z21" t="n">
         <v>55</v>
@@ -3301,16 +3301,16 @@
         <v>14</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
         <v>70</v>
       </c>
       <c r="AF21" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
@@ -3322,7 +3322,7 @@
         <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK21" t="n">
         <v>18</v>
@@ -3334,7 +3334,7 @@
         <v>85</v>
       </c>
       <c r="AN21" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AO21" t="n">
         <v>60</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
         <v>2.56</v>
@@ -3379,7 +3379,7 @@
         <v>2.62</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K22" t="n">
         <v>3.2</v>
@@ -3397,10 +3397,10 @@
         <v>1.55</v>
       </c>
       <c r="P22" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="R22" t="n">
         <v>1.18</v>
@@ -3415,10 +3415,10 @@
         <v>1.76</v>
       </c>
       <c r="V22" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W22" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X22" t="n">
         <v>8.800000000000001</v>
@@ -3640,16 +3640,16 @@
         <v>2.08</v>
       </c>
       <c r="G24" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I24" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
         <v>4.2</v>
@@ -3691,10 +3691,10 @@
         <v>1.8</v>
       </c>
       <c r="X24" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Z24" t="n">
         <v>29</v>
@@ -3709,19 +3709,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AE24" t="n">
         <v>42</v>
       </c>
       <c r="AF24" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AG24" t="n">
         <v>970</v>
       </c>
       <c r="AH24" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AI24" t="n">
         <v>46</v>
@@ -3739,7 +3739,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AO24" t="n">
         <v>36</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="G25" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>2.86</v>
       </c>
       <c r="I25" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J25" t="n">
         <v>3.15</v>
@@ -3793,19 +3793,19 @@
         <v>1.53</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
         <v>3.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P25" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R25" t="n">
         <v>1.26</v>
@@ -3817,16 +3817,16 @@
         <v>1.98</v>
       </c>
       <c r="U25" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V25" t="n">
         <v>1.53</v>
       </c>
       <c r="W25" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X25" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y25" t="n">
         <v>9.4</v>
@@ -3841,16 +3841,16 @@
         <v>9.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE25" t="n">
         <v>36</v>
       </c>
       <c r="AF25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -3859,7 +3859,7 @@
         <v>19.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ25" t="n">
         <v>48</v>
@@ -3871,7 +3871,7 @@
         <v>60</v>
       </c>
       <c r="AM25" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN25" t="n">
         <v>40</v>
@@ -3916,7 +3916,7 @@
         <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="J26" t="n">
         <v>3.6</v>
@@ -3931,10 +3931,10 @@
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P26" t="n">
         <v>2.36</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G27" t="n">
         <v>2.74</v>
@@ -4051,7 +4051,7 @@
         <v>2.8</v>
       </c>
       <c r="I27" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J27" t="n">
         <v>3.4</v>
@@ -4072,7 +4072,7 @@
         <v>1.29</v>
       </c>
       <c r="P27" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q27" t="n">
         <v>1.87</v>
@@ -4090,7 +4090,7 @@
         <v>2.2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W27" t="n">
         <v>1.57</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="G28" t="n">
         <v>2.36</v>
@@ -4201,7 +4201,7 @@
         <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>2.46</v>
+        <v>3.4</v>
       </c>
       <c r="O28" t="n">
         <v>1.14</v>
@@ -4210,16 +4210,16 @@
         <v>2.46</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S28" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="T28" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="U28" t="n">
         <v>1.01</v>
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="G29" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H29" t="n">
         <v>4.3</v>
@@ -4327,7 +4327,7 @@
         <v>3.9</v>
       </c>
       <c r="K29" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4363,7 +4363,7 @@
         <v>1.16</v>
       </c>
       <c r="W29" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4450,16 +4450,16 @@
         <v>2.1</v>
       </c>
       <c r="G30" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I30" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J30" t="n">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
         <v>3.5</v>
@@ -4495,10 +4495,10 @@
         <v>1.92</v>
       </c>
       <c r="V30" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W30" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X30" t="n">
         <v>13.5</v>
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G31" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H31" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
         <v>3.85</v>
       </c>
       <c r="J31" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K31" t="n">
         <v>3.95</v>
@@ -4606,34 +4606,34 @@
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O31" t="n">
         <v>1.27</v>
       </c>
       <c r="P31" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R31" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S31" t="n">
         <v>3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U31" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V31" t="n">
         <v>1.35</v>
       </c>
       <c r="W31" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X31" t="n">
         <v>18.5</v>
@@ -4663,7 +4663,7 @@
         <v>17.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
         <v>19.5</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="G32" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H32" t="n">
         <v>4.1</v>
       </c>
       <c r="I32" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J32" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K32" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
         <v>1.39</v>
@@ -4762,13 +4762,13 @@
         <v>1.92</v>
       </c>
       <c r="U32" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V32" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W32" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X32" t="n">
         <v>12</v>
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G33" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
         <v>2.68</v>
       </c>
       <c r="I33" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
         <v>2.76</v>
@@ -4870,7 +4870,7 @@
         <v>3.05</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M33" t="n">
         <v>1.14</v>
@@ -4882,10 +4882,10 @@
         <v>1.63</v>
       </c>
       <c r="P33" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="R33" t="n">
         <v>1.16</v>
@@ -4900,7 +4900,7 @@
         <v>1.68</v>
       </c>
       <c r="V33" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W33" t="n">
         <v>1.4</v>
@@ -5026,13 +5026,13 @@
         <v>1.12</v>
       </c>
       <c r="S34" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V34" t="n">
         <v>1.01</v>
@@ -5125,13 +5125,13 @@
         <v>2.06</v>
       </c>
       <c r="G35" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I35" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="J35" t="n">
         <v>3.5</v>
@@ -5149,7 +5149,7 @@
         <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P35" t="n">
         <v>2.06</v>
@@ -5161,19 +5161,19 @@
         <v>1.42</v>
       </c>
       <c r="S35" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T35" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U35" t="n">
         <v>2.24</v>
       </c>
       <c r="V35" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="W35" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X35" t="n">
         <v>19.5</v>
@@ -5257,19 +5257,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G36" t="n">
         <v>2.9</v>
       </c>
       <c r="H36" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="I36" t="n">
         <v>3.15</v>
       </c>
       <c r="J36" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K36" t="n">
         <v>3.55</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G37" t="n">
         <v>2.84</v>
       </c>
       <c r="H37" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="I37" t="n">
         <v>3.45</v>
@@ -5407,7 +5407,7 @@
         <v>2.88</v>
       </c>
       <c r="K37" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L37" t="n">
         <v>1.4</v>
@@ -5425,7 +5425,7 @@
         <v>1.62</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R37" t="n">
         <v>1.18</v>
@@ -5536,13 +5536,13 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K38" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L38" t="n">
         <v>1.45</v>
@@ -5566,7 +5566,7 @@
         <v>1.28</v>
       </c>
       <c r="S38" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T38" t="n">
         <v>1.84</v>
@@ -5575,7 +5575,7 @@
         <v>1.96</v>
       </c>
       <c r="V38" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W38" t="n">
         <v>1.84</v>
@@ -5668,7 +5668,7 @@
         <v>3.15</v>
       </c>
       <c r="H39" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I39" t="n">
         <v>3.55</v>
@@ -5677,7 +5677,7 @@
         <v>2.66</v>
       </c>
       <c r="K39" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="L39" t="n">
         <v>1.49</v>
@@ -5695,7 +5695,7 @@
         <v>1.53</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="R39" t="n">
         <v>1.19</v>
@@ -5710,7 +5710,7 @@
         <v>1.68</v>
       </c>
       <c r="V39" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="W39" t="n">
         <v>1.47</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G40" t="n">
         <v>2.6</v>
@@ -5815,7 +5815,7 @@
         <v>3.45</v>
       </c>
       <c r="L40" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="M40" t="n">
         <v>1.1</v>
@@ -5866,7 +5866,7 @@
         <v>9.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD40" t="n">
         <v>970</v>
@@ -5938,7 +5938,7 @@
         <v>10.5</v>
       </c>
       <c r="H41" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="I41" t="n">
         <v>1.67</v>
@@ -5947,7 +5947,7 @@
         <v>3.5</v>
       </c>
       <c r="K41" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L41" t="n">
         <v>1.51</v>
@@ -5965,7 +5965,7 @@
         <v>1.55</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R41" t="n">
         <v>1.19</v>
@@ -5995,7 +5995,7 @@
         <v>970</v>
       </c>
       <c r="AA41" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AB41" t="n">
         <v>22</v>
@@ -6016,7 +6016,7 @@
         <v>42</v>
       </c>
       <c r="AH41" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI41" t="n">
         <v>85</v>
@@ -6037,7 +6037,7 @@
         <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
     </row>
     <row r="42">
@@ -6067,13 +6067,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G42" t="n">
         <v>2.38</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I42" t="n">
         <v>3.8</v>
@@ -6208,7 +6208,7 @@
         <v>2.24</v>
       </c>
       <c r="H43" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I43" t="n">
         <v>4.3</v>
@@ -6250,7 +6250,7 @@
         <v>1.98</v>
       </c>
       <c r="V43" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W43" t="n">
         <v>1.8</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G44" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H44" t="n">
         <v>4.5</v>
@@ -6349,7 +6349,7 @@
         <v>4.6</v>
       </c>
       <c r="J44" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K44" t="n">
         <v>3.95</v>
@@ -6358,7 +6358,7 @@
         <v>1.36</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
         <v>4.2</v>
@@ -6379,10 +6379,10 @@
         <v>3.05</v>
       </c>
       <c r="T44" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U44" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V44" t="n">
         <v>1.27</v>
@@ -6391,25 +6391,25 @@
         <v>2.06</v>
       </c>
       <c r="X44" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y44" t="n">
         <v>20</v>
       </c>
       <c r="Z44" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA44" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB44" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC44" t="n">
         <v>10</v>
       </c>
       <c r="AD44" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE44" t="n">
         <v>55</v>
@@ -6418,31 +6418,31 @@
         <v>14</v>
       </c>
       <c r="AG44" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI44" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ44" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK44" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL44" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM44" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN44" t="n">
         <v>13</v>
       </c>
       <c r="AO44" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
@@ -6475,16 +6475,16 @@
         <v>1.6</v>
       </c>
       <c r="G45" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H45" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I45" t="n">
         <v>7</v>
       </c>
       <c r="J45" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
         <v>4.4</v>
@@ -6493,7 +6493,7 @@
         <v>1.4</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N45" t="n">
         <v>3.65</v>
@@ -6520,16 +6520,16 @@
         <v>1.91</v>
       </c>
       <c r="V45" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W45" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="X45" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y45" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z45" t="n">
         <v>65</v>
@@ -6541,7 +6541,7 @@
         <v>8</v>
       </c>
       <c r="AC45" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD45" t="n">
         <v>30</v>
@@ -6553,7 +6553,7 @@
         <v>11.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH45" t="n">
         <v>28</v>
@@ -6562,7 +6562,7 @@
         <v>120</v>
       </c>
       <c r="AJ45" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK45" t="n">
         <v>22</v>
@@ -6574,7 +6574,7 @@
         <v>170</v>
       </c>
       <c r="AN45" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO45" t="n">
         <v>160</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="G46" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H46" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I46" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J46" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="K46" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6634,7 +6634,7 @@
         <v>1.02</v>
       </c>
       <c r="O46" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P46" t="n">
         <v>2.3</v>
@@ -6646,7 +6646,7 @@
         <v>1.56</v>
       </c>
       <c r="S46" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T46" t="n">
         <v>1.01</v>
@@ -6658,7 +6658,7 @@
         <v>1.09</v>
       </c>
       <c r="W46" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6754,10 +6754,10 @@
         <v>2.54</v>
       </c>
       <c r="J47" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K47" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
@@ -6772,10 +6772,10 @@
         <v>1.34</v>
       </c>
       <c r="P47" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R47" t="n">
         <v>1.33</v>
@@ -6793,7 +6793,7 @@
         <v>1.64</v>
       </c>
       <c r="W47" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X47" t="n">
         <v>14</v>
@@ -6811,7 +6811,7 @@
         <v>13</v>
       </c>
       <c r="AC47" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD47" t="n">
         <v>12.5</v>
@@ -6829,7 +6829,7 @@
         <v>18.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AJ47" t="n">
         <v>65</v>
@@ -6877,40 +6877,40 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="G48" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="H48" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I48" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J48" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K48" t="n">
         <v>3.15</v>
       </c>
-      <c r="K48" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L48" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="M48" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N48" t="n">
         <v>3.05</v>
       </c>
       <c r="O48" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P48" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R48" t="n">
         <v>1.26</v>
@@ -6919,16 +6919,16 @@
         <v>4.5</v>
       </c>
       <c r="T48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U48" t="n">
         <v>1.96</v>
       </c>
-      <c r="U48" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V48" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W48" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="X48" t="n">
         <v>10.5</v>
@@ -6940,16 +6940,16 @@
         <v>25</v>
       </c>
       <c r="AA48" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB48" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD48" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE48" t="n">
         <v>50</v>
@@ -6961,7 +6961,7 @@
         <v>12</v>
       </c>
       <c r="AH48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI48" t="n">
         <v>70</v>
@@ -6970,16 +6970,16 @@
         <v>34</v>
       </c>
       <c r="AK48" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN48" t="n">
         <v>29</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>28</v>
       </c>
       <c r="AO48" t="n">
         <v>60</v>
@@ -7018,7 +7018,7 @@
         <v>4</v>
       </c>
       <c r="H49" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I49" t="n">
         <v>2.34</v>
@@ -7042,10 +7042,10 @@
         <v>1.42</v>
       </c>
       <c r="P49" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R49" t="n">
         <v>1.27</v>
@@ -7060,7 +7060,7 @@
         <v>1.95</v>
       </c>
       <c r="V49" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W49" t="n">
         <v>1.33</v>
@@ -7075,19 +7075,19 @@
         <v>13.5</v>
       </c>
       <c r="AA49" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB49" t="n">
         <v>12.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD49" t="n">
         <v>11.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AF49" t="n">
         <v>29</v>
@@ -7099,7 +7099,7 @@
         <v>23</v>
       </c>
       <c r="AI49" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ49" t="n">
         <v>95</v>
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G50" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H50" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I50" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J50" t="n">
         <v>4.9</v>
@@ -7171,34 +7171,34 @@
         <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O50" t="n">
         <v>1.23</v>
       </c>
       <c r="P50" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R50" t="n">
         <v>1.52</v>
       </c>
       <c r="S50" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="T50" t="n">
         <v>1.95</v>
       </c>
       <c r="U50" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="V50" t="n">
         <v>1.12</v>
       </c>
       <c r="W50" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="X50" t="n">
         <v>22</v>
@@ -7282,10 +7282,10 @@
         </is>
       </c>
       <c r="F51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G51" t="n">
         <v>3.15</v>
-      </c>
-      <c r="G51" t="n">
-        <v>3.2</v>
       </c>
       <c r="H51" t="n">
         <v>2.66</v>
@@ -7312,28 +7312,28 @@
         <v>1.46</v>
       </c>
       <c r="P51" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R51" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S51" t="n">
         <v>4.6</v>
       </c>
       <c r="T51" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U51" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V51" t="n">
         <v>1.59</v>
       </c>
       <c r="W51" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X51" t="n">
         <v>10</v>
@@ -7348,7 +7348,7 @@
         <v>42</v>
       </c>
       <c r="AB51" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC51" t="n">
         <v>7</v>
@@ -7357,7 +7357,7 @@
         <v>12</v>
       </c>
       <c r="AE51" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF51" t="n">
         <v>19.5</v>
@@ -7366,7 +7366,7 @@
         <v>13.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI51" t="n">
         <v>55</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G52" t="n">
         <v>2.88</v>
@@ -7429,13 +7429,13 @@
         <v>2.76</v>
       </c>
       <c r="J52" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K52" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L52" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="M52" t="n">
         <v>1.06</v>
@@ -7450,7 +7450,7 @@
         <v>2.02</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R52" t="n">
         <v>1.4</v>
@@ -7555,16 +7555,16 @@
         <v>2.14</v>
       </c>
       <c r="G53" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I53" t="n">
         <v>4.4</v>
       </c>
       <c r="J53" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K53" t="n">
         <v>3.4</v>
@@ -7582,7 +7582,7 @@
         <v>1.47</v>
       </c>
       <c r="P53" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q53" t="n">
         <v>2.38</v>
@@ -7597,7 +7597,7 @@
         <v>1.98</v>
       </c>
       <c r="U53" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V53" t="n">
         <v>1.3</v>
@@ -7615,7 +7615,7 @@
         <v>34</v>
       </c>
       <c r="AA53" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB53" t="n">
         <v>8.4</v>
@@ -7690,19 +7690,19 @@
         <v>1.75</v>
       </c>
       <c r="G54" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H54" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I54" t="n">
         <v>6.4</v>
       </c>
       <c r="J54" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K54" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
@@ -7711,28 +7711,28 @@
         <v>1.01</v>
       </c>
       <c r="N54" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="O54" t="n">
         <v>1.39</v>
       </c>
       <c r="P54" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R54" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S54" t="n">
         <v>3.6</v>
       </c>
       <c r="T54" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U54" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V54" t="n">
         <v>1.19</v>
@@ -7747,7 +7747,7 @@
         <v>22</v>
       </c>
       <c r="Z54" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AA54" t="n">
         <v>1000</v>
@@ -7783,7 +7783,7 @@
         <v>30</v>
       </c>
       <c r="AL54" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM54" t="n">
         <v>1000</v>
@@ -7828,16 +7828,16 @@
         <v>21</v>
       </c>
       <c r="H55" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="I55" t="n">
         <v>1.54</v>
       </c>
       <c r="J55" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K55" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L55" t="n">
         <v>1.01</v>
@@ -7867,7 +7867,7 @@
         <v>1.75</v>
       </c>
       <c r="U55" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V55" t="n">
         <v>2.84</v>
@@ -7957,13 +7957,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="G56" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H56" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="I56" t="n">
         <v>2.46</v>
@@ -7972,7 +7972,7 @@
         <v>3.05</v>
       </c>
       <c r="K56" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -8008,7 +8008,7 @@
         <v>1.68</v>
       </c>
       <c r="W56" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X56" t="n">
         <v>1000</v>
@@ -8026,7 +8026,7 @@
         <v>1000</v>
       </c>
       <c r="AC56" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD56" t="n">
         <v>1000</v>
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="F57" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G57" t="n">
         <v>1.84</v>
       </c>
-      <c r="G57" t="n">
-        <v>1.85</v>
-      </c>
       <c r="H57" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I57" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J57" t="n">
         <v>3.95</v>
@@ -8110,7 +8110,7 @@
         <v>4</v>
       </c>
       <c r="L57" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M57" t="n">
         <v>1.06</v>
@@ -8143,7 +8143,7 @@
         <v>1.25</v>
       </c>
       <c r="W57" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="X57" t="n">
         <v>16.5</v>
@@ -8152,7 +8152,7 @@
         <v>18</v>
       </c>
       <c r="Z57" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA57" t="n">
         <v>110</v>
@@ -8182,10 +8182,10 @@
         <v>65</v>
       </c>
       <c r="AJ57" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK57" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL57" t="n">
         <v>34</v>
@@ -8227,16 +8227,16 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G58" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H58" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I58" t="n">
         <v>2.2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2.22</v>
       </c>
       <c r="J58" t="n">
         <v>4</v>
@@ -8254,7 +8254,7 @@
         <v>6</v>
       </c>
       <c r="O58" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P58" t="n">
         <v>2.68</v>
@@ -8263,7 +8263,7 @@
         <v>1.58</v>
       </c>
       <c r="R58" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="S58" t="n">
         <v>2.42</v>
@@ -8275,10 +8275,10 @@
         <v>2.76</v>
       </c>
       <c r="V58" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W58" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X58" t="n">
         <v>24</v>
@@ -8329,7 +8329,7 @@
         <v>55</v>
       </c>
       <c r="AN58" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AO58" t="n">
         <v>10.5</v>
@@ -8386,7 +8386,7 @@
         <v>1.1</v>
       </c>
       <c r="N59" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O59" t="n">
         <v>1.47</v>
@@ -8398,7 +8398,7 @@
         <v>2.44</v>
       </c>
       <c r="R59" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S59" t="n">
         <v>4.8</v>
@@ -8416,7 +8416,7 @@
         <v>1.91</v>
       </c>
       <c r="X59" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y59" t="n">
         <v>12.5</v>
@@ -8497,22 +8497,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H60" t="n">
+        <v>6</v>
+      </c>
+      <c r="I60" t="n">
         <v>6.2</v>
       </c>
-      <c r="I60" t="n">
-        <v>6.4</v>
-      </c>
       <c r="J60" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K60" t="n">
         <v>4.7</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4.8</v>
       </c>
       <c r="L60" t="n">
         <v>1.28</v>
@@ -8530,10 +8530,10 @@
         <v>2.74</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R60" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S60" t="n">
         <v>2.4</v>
@@ -8545,16 +8545,16 @@
         <v>2.4</v>
       </c>
       <c r="V60" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W60" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="X60" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y60" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z60" t="n">
         <v>55</v>
@@ -8572,13 +8572,13 @@
         <v>23</v>
       </c>
       <c r="AE60" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF60" t="n">
         <v>11.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH60" t="n">
         <v>18</v>
@@ -8590,7 +8590,7 @@
         <v>15.5</v>
       </c>
       <c r="AK60" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL60" t="n">
         <v>25</v>
@@ -8599,7 +8599,7 @@
         <v>75</v>
       </c>
       <c r="AN60" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO60" t="n">
         <v>55</v>
@@ -8632,25 +8632,25 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="G61" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="I61" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J61" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K61" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L61" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M61" t="n">
         <v>1.05</v>
@@ -8671,19 +8671,19 @@
         <v>1.51</v>
       </c>
       <c r="S61" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T61" t="n">
         <v>1.63</v>
       </c>
       <c r="U61" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V61" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="W61" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="X61" t="n">
         <v>17.5</v>
@@ -8692,52 +8692,52 @@
         <v>16</v>
       </c>
       <c r="Z61" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA61" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB61" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD61" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE61" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AF61" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG61" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH61" t="n">
         <v>14.5</v>
       </c>
       <c r="AI61" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ61" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK61" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL61" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM61" t="n">
         <v>65</v>
       </c>
       <c r="AN61" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO61" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
@@ -8767,10 +8767,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G62" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>5.8</v>
@@ -8818,7 +8818,7 @@
         <v>1.17</v>
       </c>
       <c r="W62" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="X62" t="n">
         <v>13.5</v>
@@ -8830,7 +8830,7 @@
         <v>55</v>
       </c>
       <c r="AA62" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB62" t="n">
         <v>8</v>
@@ -8839,7 +8839,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD62" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE62" t="n">
         <v>110</v>
@@ -8872,7 +8872,7 @@
         <v>12</v>
       </c>
       <c r="AO62" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -8914,7 +8914,7 @@
         <v>4.7</v>
       </c>
       <c r="J63" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K63" t="n">
         <v>3.5</v>
@@ -8926,25 +8926,25 @@
         <v>1.1</v>
       </c>
       <c r="N63" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O63" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P63" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="Q63" t="n">
         <v>2.36</v>
       </c>
       <c r="R63" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S63" t="n">
         <v>4.4</v>
       </c>
       <c r="T63" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U63" t="n">
         <v>1.84</v>
@@ -9037,25 +9037,25 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H64" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I64" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="J64" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K64" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L64" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M64" t="n">
         <v>1.06</v>
@@ -9070,13 +9070,13 @@
         <v>1.91</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R64" t="n">
         <v>1.35</v>
       </c>
       <c r="S64" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="T64" t="n">
         <v>1.73</v>
@@ -9085,10 +9085,10 @@
         <v>2.14</v>
       </c>
       <c r="V64" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="W64" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X64" t="n">
         <v>970</v>
@@ -9184,37 +9184,37 @@
         <v>2.78</v>
       </c>
       <c r="J65" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K65" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L65" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M65" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N65" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O65" t="n">
         <v>1.29</v>
       </c>
       <c r="P65" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R65" t="n">
         <v>1.09</v>
       </c>
       <c r="S65" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T65" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U65" t="n">
         <v>1.01</v>
@@ -9313,7 +9313,7 @@
         <v>2.12</v>
       </c>
       <c r="H66" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I66" t="n">
         <v>4.4</v>
@@ -9445,10 +9445,10 @@
         <v>1.99</v>
       </c>
       <c r="G67" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H67" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I67" t="n">
         <v>3.7</v>
@@ -9457,7 +9457,7 @@
         <v>4.1</v>
       </c>
       <c r="K67" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L67" t="n">
         <v>1.01</v>
@@ -9469,16 +9469,16 @@
         <v>6</v>
       </c>
       <c r="O67" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P67" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R67" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="S67" t="n">
         <v>2.2</v>
@@ -9493,7 +9493,7 @@
         <v>1.37</v>
       </c>
       <c r="W67" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X67" t="n">
         <v>32</v>
@@ -9508,10 +9508,10 @@
         <v>60</v>
       </c>
       <c r="AB67" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC67" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD67" t="n">
         <v>19</v>
@@ -9523,7 +9523,7 @@
         <v>21</v>
       </c>
       <c r="AG67" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH67" t="n">
         <v>18.5</v>
@@ -9577,22 +9577,22 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G68" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I68" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="J68" t="n">
         <v>3.05</v>
       </c>
       <c r="K68" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="L68" t="n">
         <v>1.34</v>
@@ -9604,13 +9604,13 @@
         <v>1.03</v>
       </c>
       <c r="O68" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P68" t="n">
         <v>1.78</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="R68" t="n">
         <v>1.25</v>
@@ -9619,16 +9619,16 @@
         <v>3.25</v>
       </c>
       <c r="T68" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="U68" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V68" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W68" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X68" t="n">
         <v>1000</v>
@@ -9646,7 +9646,7 @@
         <v>1000</v>
       </c>
       <c r="AC68" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD68" t="n">
         <v>1000</v>
@@ -9760,7 +9760,7 @@
         <v>2.34</v>
       </c>
       <c r="V69" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="W69" t="n">
         <v>1.38</v>
@@ -9895,7 +9895,7 @@
         <v>1.8</v>
       </c>
       <c r="V70" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="W70" t="n">
         <v>1.43</v>
@@ -10117,16 +10117,16 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G72" t="n">
         <v>5</v>
       </c>
       <c r="H72" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I72" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="J72" t="n">
         <v>3.95</v>
@@ -10150,22 +10150,22 @@
         <v>2.02</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R72" t="n">
         <v>1.38</v>
       </c>
       <c r="S72" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T72" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U72" t="n">
         <v>2.1</v>
       </c>
       <c r="V72" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="W72" t="n">
         <v>1.25</v>
@@ -10174,16 +10174,16 @@
         <v>15.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z72" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA72" t="n">
         <v>19.5</v>
       </c>
       <c r="AB72" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AC72" t="n">
         <v>8.6</v>
@@ -10252,16 +10252,16 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G73" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H73" t="n">
         <v>2.46</v>
       </c>
       <c r="I73" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="J73" t="n">
         <v>3.4</v>
@@ -10276,7 +10276,7 @@
         <v>1.08</v>
       </c>
       <c r="N73" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O73" t="n">
         <v>1.36</v>
@@ -10303,7 +10303,7 @@
         <v>1.64</v>
       </c>
       <c r="W73" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="X73" t="n">
         <v>14</v>
@@ -10393,10 +10393,10 @@
         <v>1.87</v>
       </c>
       <c r="H74" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I74" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J74" t="n">
         <v>3.85</v>
@@ -10429,7 +10429,7 @@
         <v>3.6</v>
       </c>
       <c r="T74" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U74" t="n">
         <v>2</v>
@@ -10459,7 +10459,7 @@
         <v>8.6</v>
       </c>
       <c r="AD74" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE74" t="n">
         <v>70</v>
@@ -10468,7 +10468,7 @@
         <v>11</v>
       </c>
       <c r="AG74" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH74" t="n">
         <v>21</v>
@@ -10534,7 +10534,7 @@
         <v>5.2</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K75" t="n">
         <v>4.7</v>
@@ -10552,7 +10552,7 @@
         <v>1.21</v>
       </c>
       <c r="P75" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q75" t="n">
         <v>1.62</v>
@@ -10657,79 +10657,79 @@
         </is>
       </c>
       <c r="F76" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I76" t="n">
         <v>2.76</v>
       </c>
-      <c r="G76" t="n">
-        <v>3</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J76" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K76" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L76" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M76" t="n">
         <v>1.08</v>
       </c>
       <c r="N76" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O76" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P76" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R76" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S76" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T76" t="n">
         <v>1.9</v>
       </c>
       <c r="U76" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V76" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W76" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X76" t="n">
         <v>15.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z76" t="n">
         <v>22</v>
       </c>
       <c r="AA76" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB76" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC76" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD76" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE76" t="n">
         <v>40</v>
@@ -10816,7 +10816,7 @@
         <v>1.07</v>
       </c>
       <c r="N77" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O77" t="n">
         <v>1.31</v>
@@ -10825,7 +10825,7 @@
         <v>1.92</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R77" t="n">
         <v>1.35</v>
@@ -10834,7 +10834,7 @@
         <v>3.4</v>
       </c>
       <c r="T77" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="U77" t="n">
         <v>2.02</v>
@@ -10888,7 +10888,7 @@
         <v>80</v>
       </c>
       <c r="AL77" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM77" t="n">
         <v>130</v>
@@ -10930,7 +10930,7 @@
         <v>2.46</v>
       </c>
       <c r="G78" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>3.5</v>
@@ -10963,25 +10963,25 @@
         <v>2.44</v>
       </c>
       <c r="R78" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="S78" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T78" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U78" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="V78" t="n">
         <v>1.36</v>
       </c>
       <c r="W78" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X78" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y78" t="n">
         <v>1000</v>
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G79" t="n">
         <v>4.1</v>
@@ -11098,13 +11098,13 @@
         <v>1.61</v>
       </c>
       <c r="R79" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S79" t="n">
         <v>1.01</v>
       </c>
       <c r="T79" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U79" t="n">
         <v>2.22</v>
@@ -11236,7 +11236,7 @@
         <v>1.94</v>
       </c>
       <c r="S80" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="T80" t="n">
         <v>3.1</v>
@@ -11266,7 +11266,7 @@
         <v>970</v>
       </c>
       <c r="AC80" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD80" t="n">
         <v>1000</v>
@@ -11281,7 +11281,7 @@
         <v>22</v>
       </c>
       <c r="AH80" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AI80" t="n">
         <v>1000</v>
@@ -11341,7 +11341,7 @@
         <v>1.74</v>
       </c>
       <c r="I81" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="J81" t="n">
         <v>4.2</v>
@@ -11377,16 +11377,16 @@
         <v>1.56</v>
       </c>
       <c r="U81" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V81" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="W81" t="n">
         <v>1.25</v>
       </c>
       <c r="X81" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Y81" t="n">
         <v>970</v>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="G82" t="n">
         <v>1.47</v>
@@ -11476,13 +11476,13 @@
         <v>7.6</v>
       </c>
       <c r="I82" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="J82" t="n">
         <v>5</v>
       </c>
       <c r="K82" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -11632,7 +11632,7 @@
         <v>1.33</v>
       </c>
       <c r="P83" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q83" t="n">
         <v>1.97</v>
@@ -11644,7 +11644,7 @@
         <v>3.5</v>
       </c>
       <c r="T83" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U83" t="n">
         <v>2.14</v>
@@ -11740,22 +11740,22 @@
         <v>2.12</v>
       </c>
       <c r="G84" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="H84" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I84" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J84" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K84" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L84" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M84" t="n">
         <v>1.03</v>
@@ -11767,82 +11767,82 @@
         <v>1.21</v>
       </c>
       <c r="P84" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R84" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S84" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="T84" t="n">
         <v>1.6</v>
       </c>
       <c r="U84" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V84" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W84" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="X84" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y84" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z84" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA84" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB84" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC84" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG84" t="n">
         <v>11</v>
       </c>
-      <c r="AD84" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>13</v>
-      </c>
       <c r="AH84" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI84" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ84" t="n">
         <v>29</v>
       </c>
       <c r="AK84" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL84" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM84" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN84" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO84" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
@@ -11875,19 +11875,19 @@
         <v>1.98</v>
       </c>
       <c r="G85" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H85" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J85" t="n">
         <v>3.3</v>
       </c>
-      <c r="I85" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K85" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L85" t="n">
         <v>1.01</v>
@@ -11896,13 +11896,13 @@
         <v>1.07</v>
       </c>
       <c r="N85" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="O85" t="n">
         <v>1.32</v>
       </c>
       <c r="P85" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q85" t="n">
         <v>1.87</v>
@@ -11923,7 +11923,7 @@
         <v>1.31</v>
       </c>
       <c r="W85" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X85" t="n">
         <v>970</v>
@@ -11965,7 +11965,7 @@
         <v>34</v>
       </c>
       <c r="AK85" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL85" t="n">
         <v>48</v>
@@ -12034,10 +12034,10 @@
         <v>3.15</v>
       </c>
       <c r="O86" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P86" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q86" t="n">
         <v>2.1</v>
@@ -12169,10 +12169,10 @@
         <v>4</v>
       </c>
       <c r="O87" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P87" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q87" t="n">
         <v>1.95</v>
@@ -12184,10 +12184,10 @@
         <v>3.4</v>
       </c>
       <c r="T87" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U87" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V87" t="n">
         <v>1.27</v>
@@ -12199,7 +12199,7 @@
         <v>15</v>
       </c>
       <c r="Y87" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z87" t="n">
         <v>34</v>
@@ -12214,7 +12214,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD87" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE87" t="n">
         <v>55</v>
@@ -12226,7 +12226,7 @@
         <v>10</v>
       </c>
       <c r="AH87" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI87" t="n">
         <v>60</v>
@@ -12235,7 +12235,7 @@
         <v>21</v>
       </c>
       <c r="AK87" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL87" t="n">
         <v>34</v>
@@ -12295,34 +12295,34 @@
         <v>3.75</v>
       </c>
       <c r="L88" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M88" t="n">
         <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O88" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P88" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="R88" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="S88" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T88" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U88" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V88" t="n">
         <v>1.7</v>
@@ -12331,7 +12331,7 @@
         <v>1.46</v>
       </c>
       <c r="X88" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y88" t="n">
         <v>12</v>
@@ -12349,10 +12349,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD88" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE88" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF88" t="n">
         <v>22</v>
@@ -12376,13 +12376,13 @@
         <v>40</v>
       </c>
       <c r="AM88" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN88" t="n">
         <v>27</v>
       </c>
       <c r="AO88" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="89">
@@ -12418,10 +12418,10 @@
         <v>6.8</v>
       </c>
       <c r="H89" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I89" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="J89" t="n">
         <v>4.3</v>
@@ -12439,28 +12439,28 @@
         <v>3.8</v>
       </c>
       <c r="O89" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P89" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q89" t="n">
         <v>2.02</v>
       </c>
       <c r="R89" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S89" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T89" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U89" t="n">
         <v>1.9</v>
       </c>
       <c r="V89" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="W89" t="n">
         <v>1.17</v>
@@ -12469,7 +12469,7 @@
         <v>14.5</v>
       </c>
       <c r="Y89" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z89" t="n">
         <v>8.6</v>
@@ -12478,7 +12478,7 @@
         <v>14.5</v>
       </c>
       <c r="AB89" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC89" t="n">
         <v>9.4</v>
@@ -12487,7 +12487,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE89" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF89" t="n">
         <v>55</v>
@@ -12496,7 +12496,7 @@
         <v>25</v>
       </c>
       <c r="AH89" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI89" t="n">
         <v>38</v>
@@ -12517,7 +12517,7 @@
         <v>150</v>
       </c>
       <c r="AO89" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="90">
@@ -12571,13 +12571,13 @@
         <v>1.1</v>
       </c>
       <c r="N90" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="O90" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P90" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q90" t="n">
         <v>2.32</v>
@@ -12589,16 +12589,16 @@
         <v>4.5</v>
       </c>
       <c r="T90" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U90" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V90" t="n">
         <v>1.92</v>
       </c>
       <c r="W90" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X90" t="n">
         <v>10.5</v>
@@ -12646,7 +12646,7 @@
         <v>100</v>
       </c>
       <c r="AM90" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN90" t="n">
         <v>120</v>
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="G91" t="n">
         <v>1.55</v>
@@ -12691,7 +12691,7 @@
         <v>6.6</v>
       </c>
       <c r="I91" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="J91" t="n">
         <v>4.6</v>
@@ -12709,16 +12709,16 @@
         <v>2.16</v>
       </c>
       <c r="O91" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P91" t="n">
         <v>2.16</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="R91" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S91" t="n">
         <v>2.38</v>
@@ -12730,7 +12730,7 @@
         <v>1.01</v>
       </c>
       <c r="V91" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W91" t="n">
         <v>2.78</v>
@@ -12955,13 +12955,13 @@
         <v>2.92</v>
       </c>
       <c r="G93" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H93" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I93" t="n">
         <v>2.7</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2.72</v>
       </c>
       <c r="J93" t="n">
         <v>3.4</v>
@@ -12982,7 +12982,7 @@
         <v>1.32</v>
       </c>
       <c r="P93" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q93" t="n">
         <v>1.98</v>
@@ -13087,10 +13087,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G94" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H94" t="n">
         <v>4.1</v>
@@ -13111,7 +13111,7 @@
         <v>1.07</v>
       </c>
       <c r="N94" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O94" t="n">
         <v>1.35</v>
@@ -13138,13 +13138,13 @@
         <v>1.28</v>
       </c>
       <c r="W94" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X94" t="n">
         <v>16</v>
       </c>
       <c r="Y94" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Z94" t="n">
         <v>36</v>
@@ -13159,7 +13159,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD94" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE94" t="n">
         <v>60</v>
@@ -13180,7 +13180,7 @@
         <v>29</v>
       </c>
       <c r="AK94" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL94" t="n">
         <v>48</v>
@@ -13189,7 +13189,7 @@
         <v>140</v>
       </c>
       <c r="AN94" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AO94" t="n">
         <v>65</v>
@@ -13231,28 +13231,28 @@
         <v>3.7</v>
       </c>
       <c r="I95" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J95" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K95" t="n">
         <v>3.05</v>
       </c>
       <c r="L95" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="M95" t="n">
         <v>1.14</v>
       </c>
       <c r="N95" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O95" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="P95" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q95" t="n">
         <v>2.9</v>
@@ -13261,10 +13261,10 @@
         <v>1.16</v>
       </c>
       <c r="S95" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="T95" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U95" t="n">
         <v>1.71</v>
@@ -13282,49 +13282,49 @@
         <v>9.6</v>
       </c>
       <c r="Z95" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AA95" t="n">
         <v>110</v>
       </c>
       <c r="AB95" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC95" t="n">
         <v>7.2</v>
       </c>
       <c r="AD95" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE95" t="n">
         <v>85</v>
       </c>
       <c r="AF95" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG95" t="n">
         <v>13.5</v>
       </c>
       <c r="AH95" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AI95" t="n">
         <v>120</v>
       </c>
       <c r="AJ95" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK95" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL95" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM95" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AN95" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO95" t="n">
         <v>130</v>
@@ -13387,16 +13387,16 @@
         <v>1.16</v>
       </c>
       <c r="P96" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="R96" t="n">
         <v>1.77</v>
       </c>
       <c r="S96" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T96" t="n">
         <v>1.01</v>
@@ -13534,7 +13534,7 @@
         <v>2.7</v>
       </c>
       <c r="T97" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U97" t="n">
         <v>2.04</v>
@@ -13579,7 +13579,7 @@
         <v>23</v>
       </c>
       <c r="AI97" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ97" t="n">
         <v>90</v>
@@ -13633,10 +13633,10 @@
         <v>2.42</v>
       </c>
       <c r="H98" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I98" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J98" t="n">
         <v>3.2</v>
@@ -13651,16 +13651,16 @@
         <v>1.11</v>
       </c>
       <c r="N98" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="O98" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P98" t="n">
         <v>1.65</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R98" t="n">
         <v>1.24</v>
@@ -13669,16 +13669,16 @@
         <v>4.7</v>
       </c>
       <c r="T98" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U98" t="n">
         <v>1.9</v>
       </c>
       <c r="V98" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W98" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X98" t="n">
         <v>10</v>
@@ -13711,10 +13711,10 @@
         <v>12</v>
       </c>
       <c r="AH98" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI98" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ98" t="n">
         <v>34</v>
@@ -13807,7 +13807,7 @@
         <v>1.42</v>
       </c>
       <c r="U99" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V99" t="n">
         <v>1.7</v>
@@ -13822,7 +13822,7 @@
         <v>23</v>
       </c>
       <c r="Z99" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA99" t="n">
         <v>38</v>
@@ -13834,10 +13834,10 @@
         <v>13.5</v>
       </c>
       <c r="AD99" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE99" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF99" t="n">
         <v>32</v>
@@ -13849,7 +13849,7 @@
         <v>16.5</v>
       </c>
       <c r="AI99" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ99" t="n">
         <v>50</v>
@@ -13900,7 +13900,7 @@
         <v>1.88</v>
       </c>
       <c r="G100" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H100" t="n">
         <v>4</v>
@@ -13909,10 +13909,10 @@
         <v>4.2</v>
       </c>
       <c r="J100" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K100" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L100" t="n">
         <v>1.25</v>
@@ -13939,7 +13939,7 @@
         <v>2.22</v>
       </c>
       <c r="T100" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U100" t="n">
         <v>2.8</v>
@@ -13948,7 +13948,7 @@
         <v>1.31</v>
       </c>
       <c r="W100" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X100" t="n">
         <v>29</v>
@@ -13978,7 +13978,7 @@
         <v>16</v>
       </c>
       <c r="AG100" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH100" t="n">
         <v>15.5</v>
@@ -14032,7 +14032,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G101" t="n">
         <v>4.3</v>
@@ -14041,10 +14041,10 @@
         <v>1.96</v>
       </c>
       <c r="I101" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="J101" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K101" t="n">
         <v>4</v>
@@ -14056,28 +14056,28 @@
         <v>1.05</v>
       </c>
       <c r="N101" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O101" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P101" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R101" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="S101" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T101" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U101" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V101" t="n">
         <v>2.02</v>
@@ -14086,22 +14086,22 @@
         <v>1.3</v>
       </c>
       <c r="X101" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y101" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z101" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA101" t="n">
         <v>22</v>
       </c>
       <c r="AB101" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC101" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD101" t="n">
         <v>10</v>
@@ -14113,16 +14113,16 @@
         <v>32</v>
       </c>
       <c r="AG101" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH101" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI101" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ101" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK101" t="n">
         <v>46</v>
@@ -14134,10 +14134,10 @@
         <v>80</v>
       </c>
       <c r="AN101" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO101" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="102">
@@ -14167,19 +14167,19 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G102" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="H102" t="n">
         <v>3.85</v>
       </c>
       <c r="I102" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J102" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K102" t="n">
         <v>3.45</v>
@@ -14197,7 +14197,7 @@
         <v>1.4</v>
       </c>
       <c r="P102" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q102" t="n">
         <v>2.2</v>
@@ -14215,10 +14215,10 @@
         <v>1.94</v>
       </c>
       <c r="V102" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W102" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="X102" t="n">
         <v>13.5</v>
@@ -14305,7 +14305,7 @@
         <v>2.16</v>
       </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H103" t="n">
         <v>3.55</v>
@@ -14353,7 +14353,7 @@
         <v>1.31</v>
       </c>
       <c r="W103" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X103" t="n">
         <v>19</v>
@@ -14440,16 +14440,16 @@
         <v>1.14</v>
       </c>
       <c r="G104" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="H104" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I104" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J104" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="K104" t="n">
         <v>10.5</v>
@@ -14479,7 +14479,7 @@
         <v>2.2</v>
       </c>
       <c r="T104" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="U104" t="n">
         <v>1.51</v>
@@ -14488,7 +14488,7 @@
         <v>1.03</v>
       </c>
       <c r="W104" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="X104" t="n">
         <v>38</v>
@@ -14587,7 +14587,7 @@
         <v>3.5</v>
       </c>
       <c r="K105" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L105" t="n">
         <v>1.31</v>
@@ -14614,7 +14614,7 @@
         <v>3.2</v>
       </c>
       <c r="T105" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U105" t="n">
         <v>2.28</v>
@@ -14668,7 +14668,7 @@
         <v>30</v>
       </c>
       <c r="AL105" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM105" t="n">
         <v>95</v>
@@ -14878,10 +14878,10 @@
         <v>2.22</v>
       </c>
       <c r="R107" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="S107" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="T107" t="n">
         <v>1.01</v>
@@ -14980,7 +14980,7 @@
         <v>2.56</v>
       </c>
       <c r="G108" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H108" t="n">
         <v>2.68</v>
@@ -14992,7 +14992,7 @@
         <v>2.58</v>
       </c>
       <c r="K108" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="L108" t="n">
         <v>1.01</v>
@@ -15013,7 +15013,7 @@
         <v>2.44</v>
       </c>
       <c r="R108" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S108" t="n">
         <v>1.01</v>
@@ -15028,7 +15028,7 @@
         <v>1.33</v>
       </c>
       <c r="W108" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X108" t="n">
         <v>1000</v>
@@ -15112,10 +15112,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G109" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H109" t="n">
         <v>2.56</v>
@@ -15130,7 +15130,7 @@
         <v>4</v>
       </c>
       <c r="L109" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="M109" t="n">
         <v>1.05</v>
@@ -15160,10 +15160,10 @@
         <v>2.32</v>
       </c>
       <c r="V109" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W109" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X109" t="n">
         <v>21</v>
@@ -15193,7 +15193,7 @@
         <v>22</v>
       </c>
       <c r="AG109" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH109" t="n">
         <v>18.5</v>
@@ -15382,40 +15382,40 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="G111" t="n">
         <v>3.2</v>
       </c>
       <c r="H111" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I111" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="J111" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="K111" t="n">
         <v>3.45</v>
       </c>
       <c r="L111" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M111" t="n">
         <v>1.1</v>
       </c>
       <c r="N111" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O111" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P111" t="n">
         <v>1.6</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="R111" t="n">
         <v>1.22</v>
@@ -15424,13 +15424,13 @@
         <v>4.5</v>
       </c>
       <c r="T111" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U111" t="n">
         <v>1.86</v>
       </c>
       <c r="V111" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W111" t="n">
         <v>1.46</v>
@@ -15454,7 +15454,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD111" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AE111" t="n">
         <v>50</v>
@@ -15463,13 +15463,13 @@
         <v>20</v>
       </c>
       <c r="AG111" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH111" t="n">
         <v>24</v>
       </c>
       <c r="AI111" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ111" t="n">
         <v>55</v>
@@ -15487,7 +15487,7 @@
         <v>48</v>
       </c>
       <c r="AO111" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112">
@@ -15541,22 +15541,22 @@
         <v>1.1</v>
       </c>
       <c r="N112" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="O112" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="P112" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="R112" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S112" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="T112" t="n">
         <v>1.94</v>
@@ -15652,16 +15652,16 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G113" t="n">
         <v>6.4</v>
       </c>
       <c r="H113" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="I113" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="J113" t="n">
         <v>3.75</v>
@@ -15694,10 +15694,10 @@
         <v>3</v>
       </c>
       <c r="T113" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="U113" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V113" t="n">
         <v>2.28</v>
@@ -15796,7 +15796,7 @@
         <v>1.41</v>
       </c>
       <c r="I114" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="J114" t="n">
         <v>4.6</v>
@@ -15820,7 +15820,7 @@
         <v>2</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R114" t="n">
         <v>1.39</v>
@@ -15835,7 +15835,7 @@
         <v>1.79</v>
       </c>
       <c r="V114" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="W114" t="n">
         <v>1.1</v>
@@ -15922,22 +15922,22 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="G115" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="H115" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I115" t="n">
         <v>4.8</v>
       </c>
-      <c r="I115" t="n">
-        <v>5</v>
-      </c>
       <c r="J115" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K115" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K115" t="n">
-        <v>3.6</v>
       </c>
       <c r="L115" t="n">
         <v>1.47</v>
@@ -15949,52 +15949,52 @@
         <v>3.5</v>
       </c>
       <c r="O115" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P115" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q115" t="n">
         <v>2.16</v>
       </c>
       <c r="R115" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S115" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T115" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U115" t="n">
         <v>1.98</v>
       </c>
-      <c r="U115" t="n">
-        <v>1.97</v>
-      </c>
       <c r="V115" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W115" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X115" t="n">
         <v>12</v>
       </c>
       <c r="Y115" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z115" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA115" t="n">
         <v>120</v>
       </c>
       <c r="AB115" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC115" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD115" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE115" t="n">
         <v>70</v>
@@ -16015,7 +16015,7 @@
         <v>21</v>
       </c>
       <c r="AK115" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL115" t="n">
         <v>42</v>
@@ -16024,7 +16024,7 @@
         <v>130</v>
       </c>
       <c r="AN115" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO115" t="n">
         <v>85</v>
@@ -16234,7 +16234,7 @@
         <v>2.56</v>
       </c>
       <c r="T117" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U117" t="n">
         <v>2.34</v>
@@ -16333,7 +16333,7 @@
         <v>1.54</v>
       </c>
       <c r="H118" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="I118" t="n">
         <v>8.800000000000001</v>
@@ -16342,22 +16342,22 @@
         <v>4.5</v>
       </c>
       <c r="K118" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L118" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M118" t="n">
         <v>1.07</v>
       </c>
       <c r="N118" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O118" t="n">
         <v>1.35</v>
       </c>
       <c r="P118" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q118" t="n">
         <v>2.02</v>
@@ -16366,7 +16366,7 @@
         <v>1.34</v>
       </c>
       <c r="S118" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T118" t="n">
         <v>2.14</v>
@@ -16378,61 +16378,61 @@
         <v>1.13</v>
       </c>
       <c r="W118" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="X118" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Y118" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z118" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA118" t="n">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="AB118" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC118" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD118" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE118" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AF118" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AG118" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH118" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI118" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ118" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK118" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL118" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM118" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AN118" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AO118" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119">
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G119" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H119" t="n">
         <v>6</v>
@@ -16474,10 +16474,10 @@
         <v>6.4</v>
       </c>
       <c r="J119" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="K119" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L119" t="n">
         <v>1.27</v>
@@ -16513,7 +16513,7 @@
         <v>1.19</v>
       </c>
       <c r="W119" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="X119" t="n">
         <v>30</v>
@@ -16531,7 +16531,7 @@
         <v>13.5</v>
       </c>
       <c r="AC119" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AD119" t="n">
         <v>25</v>
@@ -16639,7 +16639,7 @@
         <v>2.28</v>
       </c>
       <c r="T120" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U120" t="n">
         <v>2.18</v>
@@ -16732,7 +16732,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G121" t="n">
         <v>3.45</v>
@@ -16765,7 +16765,7 @@
         <v>1.84</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R121" t="n">
         <v>1.33</v>
@@ -16777,7 +16777,7 @@
         <v>1.82</v>
       </c>
       <c r="U121" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V121" t="n">
         <v>1.67</v>
@@ -16789,7 +16789,7 @@
         <v>970</v>
       </c>
       <c r="Y121" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z121" t="n">
         <v>18.5</v>
@@ -16798,13 +16798,13 @@
         <v>42</v>
       </c>
       <c r="AB121" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC121" t="n">
         <v>7.6</v>
       </c>
       <c r="AD121" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE121" t="n">
         <v>34</v>
@@ -16873,22 +16873,22 @@
         <v>5.7</v>
       </c>
       <c r="H122" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I122" t="n">
         <v>1.69</v>
       </c>
-      <c r="I122" t="n">
-        <v>1.71</v>
-      </c>
       <c r="J122" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K122" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L122" t="n">
         <v>1.35</v>
       </c>
       <c r="M122" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N122" t="n">
         <v>4.8</v>
@@ -16909,19 +16909,19 @@
         <v>2.86</v>
       </c>
       <c r="T122" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U122" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V122" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="W122" t="n">
         <v>1.21</v>
       </c>
       <c r="X122" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y122" t="n">
         <v>10</v>
@@ -16930,7 +16930,7 @@
         <v>11</v>
       </c>
       <c r="AA122" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB122" t="n">
         <v>22</v>
@@ -16945,7 +16945,7 @@
         <v>16</v>
       </c>
       <c r="AF122" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG122" t="n">
         <v>21</v>
@@ -17035,10 +17035,10 @@
         <v>2.66</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R123" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S123" t="n">
         <v>2.22</v>
@@ -17167,7 +17167,7 @@
         <v>1.11</v>
       </c>
       <c r="P124" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q124" t="n">
         <v>1.35</v>
@@ -17191,7 +17191,7 @@
         <v>1.1</v>
       </c>
       <c r="X124" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Y124" t="n">
         <v>16</v>
@@ -17200,7 +17200,7 @@
         <v>11.5</v>
       </c>
       <c r="AA124" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB124" t="n">
         <v>60</v>
@@ -17227,19 +17227,19 @@
         <v>24</v>
       </c>
       <c r="AJ124" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AK124" t="n">
         <v>120</v>
       </c>
       <c r="AL124" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM124" t="n">
         <v>90</v>
       </c>
       <c r="AN124" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AO124" t="n">
         <v>3.3</v>
@@ -17272,10 +17272,10 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G125" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H125" t="n">
         <v>6.6</v>
@@ -17305,7 +17305,7 @@
         <v>2.7</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R125" t="n">
         <v>1.67</v>
@@ -17317,16 +17317,16 @@
         <v>1.71</v>
       </c>
       <c r="U125" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V125" t="n">
         <v>1.17</v>
       </c>
       <c r="W125" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="X125" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y125" t="n">
         <v>29</v>
@@ -17341,7 +17341,7 @@
         <v>12</v>
       </c>
       <c r="AC125" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD125" t="n">
         <v>24</v>
@@ -17362,7 +17362,7 @@
         <v>60</v>
       </c>
       <c r="AJ125" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK125" t="n">
         <v>14</v>
@@ -17374,7 +17374,7 @@
         <v>65</v>
       </c>
       <c r="AN125" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AO125" t="n">
         <v>70</v>
@@ -17413,7 +17413,7 @@
         <v>2.58</v>
       </c>
       <c r="H126" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="I126" t="n">
         <v>3.1</v>
@@ -17422,10 +17422,10 @@
         <v>3.5</v>
       </c>
       <c r="K126" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L126" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M126" t="n">
         <v>1.06</v>
@@ -17440,13 +17440,13 @@
         <v>2.06</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R126" t="n">
         <v>1.42</v>
       </c>
       <c r="S126" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="T126" t="n">
         <v>1.66</v>
@@ -17458,7 +17458,7 @@
         <v>1.47</v>
       </c>
       <c r="W126" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X126" t="n">
         <v>19.5</v>
@@ -17542,19 +17542,19 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="G127" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="H127" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I127" t="n">
         <v>3.05</v>
       </c>
-      <c r="I127" t="n">
-        <v>3.15</v>
-      </c>
       <c r="J127" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K127" t="n">
         <v>3.95</v>
@@ -17581,19 +17581,19 @@
         <v>1.53</v>
       </c>
       <c r="S127" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T127" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U127" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V127" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W127" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="X127" t="n">
         <v>21</v>
@@ -17605,13 +17605,13 @@
         <v>23</v>
       </c>
       <c r="AA127" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB127" t="n">
         <v>14</v>
       </c>
       <c r="AC127" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD127" t="n">
         <v>14</v>
@@ -17677,22 +17677,22 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="G128" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H128" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I128" t="n">
         <v>4.7</v>
-      </c>
-      <c r="I128" t="n">
-        <v>4.9</v>
       </c>
       <c r="J128" t="n">
         <v>3.6</v>
       </c>
       <c r="K128" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L128" t="n">
         <v>1.44</v>
@@ -17701,55 +17701,55 @@
         <v>1.08</v>
       </c>
       <c r="N128" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O128" t="n">
         <v>1.37</v>
       </c>
       <c r="P128" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R128" t="n">
         <v>1.32</v>
       </c>
       <c r="S128" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T128" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U128" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V128" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W128" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X128" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y128" t="n">
         <v>15</v>
       </c>
       <c r="Z128" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA128" t="n">
         <v>120</v>
       </c>
       <c r="AB128" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC128" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD128" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE128" t="n">
         <v>65</v>
@@ -17758,7 +17758,7 @@
         <v>11</v>
       </c>
       <c r="AG128" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH128" t="n">
         <v>21</v>
@@ -17782,7 +17782,7 @@
         <v>15.5</v>
       </c>
       <c r="AO128" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129">
@@ -17818,16 +17818,16 @@
         <v>2.2</v>
       </c>
       <c r="H129" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I129" t="n">
         <v>3.95</v>
       </c>
-      <c r="I129" t="n">
-        <v>4.3</v>
-      </c>
       <c r="J129" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K129" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L129" t="n">
         <v>1.55</v>
@@ -17836,7 +17836,7 @@
         <v>1.11</v>
       </c>
       <c r="N129" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="O129" t="n">
         <v>1.53</v>
@@ -17845,7 +17845,7 @@
         <v>1.57</v>
       </c>
       <c r="Q129" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R129" t="n">
         <v>1.2</v>
@@ -17860,19 +17860,19 @@
         <v>1.76</v>
       </c>
       <c r="V129" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W129" t="n">
         <v>1.83</v>
       </c>
       <c r="X129" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y129" t="n">
         <v>11</v>
       </c>
       <c r="Z129" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA129" t="n">
         <v>110</v>
@@ -17887,10 +17887,10 @@
         <v>19.5</v>
       </c>
       <c r="AE129" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF129" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG129" t="n">
         <v>11.5</v>
@@ -17899,7 +17899,7 @@
         <v>27</v>
       </c>
       <c r="AI129" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ129" t="n">
         <v>29</v>
@@ -17917,7 +17917,7 @@
         <v>32</v>
       </c>
       <c r="AO129" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130">
@@ -17953,7 +17953,7 @@
         <v>2.68</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I130" t="n">
         <v>3.15</v>
@@ -17971,31 +17971,31 @@
         <v>1.08</v>
       </c>
       <c r="N130" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O130" t="n">
         <v>1.37</v>
       </c>
       <c r="P130" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R130" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S130" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T130" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U130" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V130" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W130" t="n">
         <v>1.59</v>
@@ -18046,10 +18046,10 @@
         <v>46</v>
       </c>
       <c r="AM130" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN130" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO130" t="n">
         <v>36</v>
@@ -18085,7 +18085,7 @@
         <v>1.74</v>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H131" t="n">
         <v>4.3</v>
@@ -18106,10 +18106,10 @@
         <v>1.01</v>
       </c>
       <c r="N131" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="O131" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P131" t="n">
         <v>1.73</v>
@@ -18127,7 +18127,7 @@
         <v>1.83</v>
       </c>
       <c r="U131" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V131" t="n">
         <v>1.17</v>
@@ -18217,22 +18217,22 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G132" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="H132" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I132" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J132" t="n">
         <v>3.3</v>
       </c>
       <c r="K132" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L132" t="n">
         <v>1.4</v>
@@ -18250,7 +18250,7 @@
         <v>1.74</v>
       </c>
       <c r="Q132" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R132" t="n">
         <v>1.27</v>
@@ -18262,37 +18262,37 @@
         <v>1.87</v>
       </c>
       <c r="U132" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V132" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W132" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X132" t="n">
         <v>14</v>
       </c>
       <c r="Y132" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Z132" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA132" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB132" t="n">
         <v>9.4</v>
       </c>
       <c r="AC132" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD132" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE132" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF132" t="n">
         <v>14.5</v>
@@ -18304,7 +18304,7 @@
         <v>23</v>
       </c>
       <c r="AI132" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ132" t="n">
         <v>30</v>
@@ -18316,13 +18316,13 @@
         <v>50</v>
       </c>
       <c r="AM132" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN132" t="n">
         <v>22</v>
       </c>
       <c r="AO132" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133">
@@ -18352,22 +18352,22 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="G133" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H133" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I133" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J133" t="n">
         <v>3.05</v>
       </c>
       <c r="K133" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L133" t="n">
         <v>1.56</v>
@@ -18382,7 +18382,7 @@
         <v>1.53</v>
       </c>
       <c r="P133" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q133" t="n">
         <v>2.58</v>
@@ -18400,10 +18400,10 @@
         <v>1.79</v>
       </c>
       <c r="V133" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W133" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X133" t="n">
         <v>9.199999999999999</v>
@@ -18487,22 +18487,22 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G134" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H134" t="n">
         <v>2.18</v>
       </c>
       <c r="I134" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J134" t="n">
         <v>3.5</v>
       </c>
       <c r="K134" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L134" t="n">
         <v>1.01</v>
@@ -18511,7 +18511,7 @@
         <v>1.01</v>
       </c>
       <c r="N134" t="n">
-        <v>2.02</v>
+        <v>3.5</v>
       </c>
       <c r="O134" t="n">
         <v>1.28</v>
@@ -18520,10 +18520,10 @@
         <v>2</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R134" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S134" t="n">
         <v>2.72</v>
@@ -18535,10 +18535,10 @@
         <v>1.01</v>
       </c>
       <c r="V134" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W134" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X134" t="n">
         <v>1000</v>
@@ -18628,7 +18628,7 @@
         <v>1.54</v>
       </c>
       <c r="H135" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I135" t="n">
         <v>12</v>
@@ -18655,7 +18655,7 @@
         <v>1.7</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="R135" t="n">
         <v>1.25</v>
@@ -18727,7 +18727,7 @@
         <v>11</v>
       </c>
       <c r="AO135" t="n">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="136">
@@ -18766,7 +18766,7 @@
         <v>6</v>
       </c>
       <c r="I136" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J136" t="n">
         <v>4.4</v>
@@ -18790,7 +18790,7 @@
         <v>2.22</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R136" t="n">
         <v>1.47</v>
@@ -18802,10 +18802,10 @@
         <v>1.8</v>
       </c>
       <c r="U136" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="V136" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W136" t="n">
         <v>2.62</v>
@@ -18832,7 +18832,7 @@
         <v>25</v>
       </c>
       <c r="AE136" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AF136" t="n">
         <v>11.5</v>
@@ -18859,7 +18859,7 @@
         <v>120</v>
       </c>
       <c r="AN136" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AO136" t="n">
         <v>110</v>
@@ -18892,7 +18892,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="G137" t="n">
         <v>2.02</v>
@@ -18904,10 +18904,10 @@
         <v>4.1</v>
       </c>
       <c r="J137" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K137" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L137" t="n">
         <v>1.01</v>
@@ -18916,31 +18916,31 @@
         <v>1.01</v>
       </c>
       <c r="N137" t="n">
-        <v>1.02</v>
+        <v>3.4</v>
       </c>
       <c r="O137" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="P137" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="Q137" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R137" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="S137" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T137" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="U137" t="n">
         <v>1.01</v>
       </c>
       <c r="V137" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W137" t="n">
         <v>1.98</v>
@@ -19027,19 +19027,19 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="G138" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="H138" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="I138" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="J138" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K138" t="n">
         <v>3.8</v>
@@ -19051,7 +19051,7 @@
         <v>1.05</v>
       </c>
       <c r="N138" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O138" t="n">
         <v>1.22</v>
@@ -19060,7 +19060,7 @@
         <v>2.4</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R138" t="n">
         <v>1.55</v>
@@ -19072,67 +19072,67 @@
         <v>1.58</v>
       </c>
       <c r="U138" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="V138" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W138" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="X138" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y138" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Z138" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA138" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AB138" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC138" t="n">
         <v>8.6</v>
       </c>
       <c r="AD138" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE138" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AF138" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG138" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH138" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI138" t="n">
         <v>32</v>
       </c>
       <c r="AJ138" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK138" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AL138" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM138" t="n">
         <v>60</v>
       </c>
       <c r="AN138" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO138" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="139">
@@ -19168,7 +19168,7 @@
         <v>3.95</v>
       </c>
       <c r="H139" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I139" t="n">
         <v>2.14</v>
@@ -19177,7 +19177,7 @@
         <v>3.75</v>
       </c>
       <c r="K139" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L139" t="n">
         <v>1.01</v>
@@ -19195,7 +19195,7 @@
         <v>2.12</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R139" t="n">
         <v>1.45</v>
@@ -19204,10 +19204,10 @@
         <v>2.88</v>
       </c>
       <c r="T139" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="U139" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="V139" t="n">
         <v>1.87</v>
@@ -19306,7 +19306,7 @@
         <v>2.24</v>
       </c>
       <c r="I140" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="J140" t="n">
         <v>2.92</v>
@@ -19339,16 +19339,16 @@
         <v>4.7</v>
       </c>
       <c r="T140" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="U140" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="V140" t="n">
         <v>1.6</v>
       </c>
       <c r="W140" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X140" t="n">
         <v>970</v>
@@ -19438,7 +19438,7 @@
         <v>2.2</v>
       </c>
       <c r="H141" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I141" t="n">
         <v>4.4</v>
@@ -19456,7 +19456,7 @@
         <v>1.13</v>
       </c>
       <c r="N141" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O141" t="n">
         <v>1.54</v>
@@ -19504,7 +19504,7 @@
         <v>7</v>
       </c>
       <c r="AD141" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE141" t="n">
         <v>75</v>
@@ -19531,10 +19531,10 @@
         <v>60</v>
       </c>
       <c r="AM141" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN141" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO141" t="n">
         <v>110</v>
@@ -19567,19 +19567,19 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="G142" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="H142" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="I142" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="J142" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K142" t="n">
         <v>6.6</v>
@@ -19591,7 +19591,7 @@
         <v>1.02</v>
       </c>
       <c r="N142" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O142" t="n">
         <v>1.12</v>
@@ -19609,19 +19609,19 @@
         <v>1.95</v>
       </c>
       <c r="T142" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U142" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="V142" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="W142" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="X142" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y142" t="n">
         <v>15.5</v>
@@ -19630,13 +19630,13 @@
         <v>12</v>
       </c>
       <c r="AA142" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB142" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC142" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD142" t="n">
         <v>10.5</v>
@@ -19645,34 +19645,34 @@
         <v>12.5</v>
       </c>
       <c r="AF142" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AG142" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AH142" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI142" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ142" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AK142" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AL142" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM142" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN142" t="n">
         <v>70</v>
       </c>
       <c r="AO142" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="143">
@@ -19711,13 +19711,13 @@
         <v>1.87</v>
       </c>
       <c r="I143" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="J143" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K143" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L143" t="n">
         <v>1.36</v>
@@ -19729,7 +19729,7 @@
         <v>3.55</v>
       </c>
       <c r="O143" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P143" t="n">
         <v>1.87</v>
@@ -19744,7 +19744,7 @@
         <v>3.55</v>
       </c>
       <c r="T143" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U143" t="n">
         <v>2</v>
@@ -19762,7 +19762,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z143" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA143" t="n">
         <v>22</v>
@@ -19840,10 +19840,10 @@
         <v>2.02</v>
       </c>
       <c r="G144" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H144" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I144" t="n">
         <v>4.5</v>
@@ -19867,7 +19867,7 @@
         <v>1.38</v>
       </c>
       <c r="P144" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q144" t="n">
         <v>2.08</v>
@@ -19876,19 +19876,19 @@
         <v>1.32</v>
       </c>
       <c r="S144" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T144" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U144" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V144" t="n">
         <v>1.28</v>
       </c>
       <c r="W144" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X144" t="n">
         <v>15</v>
@@ -19906,7 +19906,7 @@
         <v>9.6</v>
       </c>
       <c r="AC144" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="AD144" t="n">
         <v>20</v>
@@ -19933,7 +19933,7 @@
         <v>27</v>
       </c>
       <c r="AL144" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM144" t="n">
         <v>140</v>
@@ -19972,22 +19972,22 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G145" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="H145" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="I145" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="J145" t="n">
         <v>3.65</v>
       </c>
       <c r="K145" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L145" t="n">
         <v>1.35</v>
@@ -20017,19 +20017,19 @@
         <v>1.71</v>
       </c>
       <c r="U145" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="V145" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W145" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X145" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y145" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z145" t="n">
         <v>19</v>
@@ -20047,16 +20047,16 @@
         <v>12.5</v>
       </c>
       <c r="AE145" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF145" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG145" t="n">
         <v>12</v>
       </c>
       <c r="AH145" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI145" t="n">
         <v>38</v>
@@ -20128,25 +20128,25 @@
         <v>1.33</v>
       </c>
       <c r="M146" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N146" t="n">
         <v>5.2</v>
       </c>
       <c r="O146" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P146" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R146" t="n">
         <v>1.56</v>
       </c>
       <c r="S146" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T146" t="n">
         <v>1.66</v>
@@ -20161,7 +20161,7 @@
         <v>2.12</v>
       </c>
       <c r="X146" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y146" t="n">
         <v>20</v>
@@ -20182,7 +20182,7 @@
         <v>17.5</v>
       </c>
       <c r="AE146" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF146" t="n">
         <v>13</v>
@@ -20191,7 +20191,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH146" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI146" t="n">
         <v>46</v>
@@ -20203,13 +20203,13 @@
         <v>17</v>
       </c>
       <c r="AL146" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM146" t="n">
         <v>65</v>
       </c>
       <c r="AN146" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO146" t="n">
         <v>38</v>
@@ -20242,19 +20242,19 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G147" t="n">
         <v>2.14</v>
       </c>
       <c r="H147" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I147" t="n">
         <v>3.6</v>
       </c>
       <c r="J147" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K147" t="n">
         <v>4.1</v>
@@ -20272,28 +20272,28 @@
         <v>1.17</v>
       </c>
       <c r="P147" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q147" t="n">
         <v>1.54</v>
       </c>
       <c r="R147" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S147" t="n">
         <v>2.32</v>
       </c>
       <c r="T147" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U147" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="V147" t="n">
         <v>1.38</v>
       </c>
       <c r="W147" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="X147" t="n">
         <v>25</v>
@@ -20305,7 +20305,7 @@
         <v>30</v>
       </c>
       <c r="AA147" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB147" t="n">
         <v>15.5</v>
@@ -20314,10 +20314,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD147" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE147" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF147" t="n">
         <v>17</v>
@@ -20377,22 +20377,22 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G148" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H148" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I148" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J148" t="n">
         <v>3.05</v>
       </c>
       <c r="K148" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L148" t="n">
         <v>1.01</v>
@@ -20419,16 +20419,16 @@
         <v>6.6</v>
       </c>
       <c r="T148" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="U148" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="V148" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W148" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X148" t="n">
         <v>7.8</v>
@@ -20440,22 +20440,22 @@
         <v>60</v>
       </c>
       <c r="AA148" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AB148" t="n">
         <v>5.1</v>
       </c>
       <c r="AC148" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD148" t="n">
         <v>36</v>
       </c>
       <c r="AE148" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AF148" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG148" t="n">
         <v>14</v>
@@ -20464,7 +20464,7 @@
         <v>44</v>
       </c>
       <c r="AI148" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AJ148" t="n">
         <v>27</v>
@@ -20476,13 +20476,13 @@
         <v>110</v>
       </c>
       <c r="AM148" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="AN148" t="n">
         <v>36</v>
       </c>
       <c r="AO148" t="n">
-        <v>470</v>
+        <v>450</v>
       </c>
     </row>
     <row r="149">
@@ -20512,22 +20512,22 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G149" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H149" t="n">
         <v>4</v>
       </c>
       <c r="I149" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J149" t="n">
         <v>3.4</v>
       </c>
       <c r="K149" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L149" t="n">
         <v>1.54</v>
@@ -20536,16 +20536,16 @@
         <v>1.11</v>
       </c>
       <c r="N149" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O149" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P149" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R149" t="n">
         <v>1.22</v>
@@ -20554,16 +20554,16 @@
         <v>5</v>
       </c>
       <c r="T149" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U149" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V149" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W149" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X149" t="n">
         <v>10</v>
@@ -20587,7 +20587,7 @@
         <v>17.5</v>
       </c>
       <c r="AE149" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF149" t="n">
         <v>12</v>
@@ -20671,13 +20671,13 @@
         <v>1.01</v>
       </c>
       <c r="N150" t="n">
-        <v>1.03</v>
+        <v>1.86</v>
       </c>
       <c r="O150" t="n">
         <v>1.32</v>
       </c>
       <c r="P150" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="Q150" t="n">
         <v>1.92</v>
@@ -20689,10 +20689,10 @@
         <v>3.15</v>
       </c>
       <c r="T150" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U150" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V150" t="n">
         <v>1.17</v>
@@ -20782,22 +20782,22 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G151" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H151" t="n">
         <v>3.45</v>
       </c>
       <c r="I151" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J151" t="n">
         <v>3.65</v>
       </c>
       <c r="K151" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L151" t="n">
         <v>1.34</v>
@@ -20815,7 +20815,7 @@
         <v>2.14</v>
       </c>
       <c r="Q151" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R151" t="n">
         <v>1.45</v>
@@ -20824,16 +20824,16 @@
         <v>2.84</v>
       </c>
       <c r="T151" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U151" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V151" t="n">
         <v>1.37</v>
       </c>
       <c r="W151" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X151" t="n">
         <v>21</v>
@@ -20920,10 +20920,10 @@
         <v>2.66</v>
       </c>
       <c r="G152" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H152" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I152" t="n">
         <v>3.4</v>
@@ -20935,13 +20935,13 @@
         <v>3.2</v>
       </c>
       <c r="L152" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M152" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N152" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="O152" t="n">
         <v>1.55</v>
@@ -20950,7 +20950,7 @@
         <v>1.51</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R152" t="n">
         <v>1.18</v>
@@ -20959,19 +20959,19 @@
         <v>5.3</v>
       </c>
       <c r="T152" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U152" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V152" t="n">
         <v>1.41</v>
       </c>
       <c r="W152" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X152" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y152" t="n">
         <v>11</v>
@@ -20980,7 +20980,7 @@
         <v>25</v>
       </c>
       <c r="AA152" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB152" t="n">
         <v>9.6</v>
@@ -20992,10 +20992,10 @@
         <v>18</v>
       </c>
       <c r="AE152" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF152" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG152" t="n">
         <v>16</v>
@@ -21010,16 +21010,16 @@
         <v>60</v>
       </c>
       <c r="AK152" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL152" t="n">
         <v>85</v>
       </c>
       <c r="AM152" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN152" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO152" t="n">
         <v>80</v>
@@ -21190,10 +21190,10 @@
         <v>1.59</v>
       </c>
       <c r="G154" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="H154" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I154" t="n">
         <v>6.8</v>
@@ -21226,7 +21226,7 @@
         <v>1.44</v>
       </c>
       <c r="S154" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T154" t="n">
         <v>1.87</v>
@@ -21238,7 +21238,7 @@
         <v>1.17</v>
       </c>
       <c r="W154" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="X154" t="n">
         <v>22</v>
@@ -21337,7 +21337,7 @@
         <v>2.94</v>
       </c>
       <c r="K155" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L155" t="n">
         <v>1.01</v>
@@ -21364,7 +21364,7 @@
         <v>6.4</v>
       </c>
       <c r="T155" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="U155" t="n">
         <v>1.65</v>
@@ -21481,19 +21481,19 @@
         <v>1.01</v>
       </c>
       <c r="N156" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="O156" t="n">
         <v>1.32</v>
       </c>
       <c r="P156" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="Q156" t="n">
         <v>1.32</v>
       </c>
       <c r="R156" t="n">
-        <v>1.02</v>
+        <v>1.18</v>
       </c>
       <c r="S156" t="n">
         <v>1.32</v>
@@ -21592,10 +21592,10 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G157" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="H157" t="n">
         <v>4.9</v>
@@ -21643,7 +21643,7 @@
         <v>1.23</v>
       </c>
       <c r="W157" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X157" t="n">
         <v>16.5</v>
@@ -21742,7 +21742,7 @@
         <v>3.1</v>
       </c>
       <c r="K158" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L158" t="n">
         <v>0</v>
@@ -21757,10 +21757,10 @@
         <v>0</v>
       </c>
       <c r="P158" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R158" t="n">
         <v>0</v>
@@ -21877,7 +21877,7 @@
         <v>3.1</v>
       </c>
       <c r="K159" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L159" t="n">
         <v>1.01</v>
@@ -22021,19 +22021,19 @@
         <v>1.01</v>
       </c>
       <c r="N160" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="O160" t="n">
         <v>1.28</v>
       </c>
       <c r="P160" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="Q160" t="n">
         <v>1.28</v>
       </c>
       <c r="R160" t="n">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="S160" t="n">
         <v>1.28</v>
@@ -22132,16 +22132,16 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G161" t="n">
         <v>2.78</v>
       </c>
       <c r="H161" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="I161" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J161" t="n">
         <v>2.84</v>
@@ -22165,7 +22165,7 @@
         <v>1.55</v>
       </c>
       <c r="Q161" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R161" t="n">
         <v>1.2</v>
@@ -22180,7 +22180,7 @@
         <v>1.01</v>
       </c>
       <c r="V161" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W161" t="n">
         <v>1.56</v>
@@ -22300,7 +22300,7 @@
         <v>1.4</v>
       </c>
       <c r="Q162" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R162" t="n">
         <v>1.14</v>
@@ -22309,7 +22309,7 @@
         <v>6.2</v>
       </c>
       <c r="T162" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U162" t="n">
         <v>1.66</v>
@@ -22402,13 +22402,13 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="G163" t="n">
         <v>2.14</v>
       </c>
       <c r="H163" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I163" t="n">
         <v>6.6</v>
@@ -22426,25 +22426,25 @@
         <v>1.01</v>
       </c>
       <c r="N163" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="O163" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="P163" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q163" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R163" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="S163" t="n">
         <v>5.7</v>
       </c>
       <c r="T163" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U163" t="n">
         <v>1.45</v>
@@ -22462,7 +22462,7 @@
         <v>15</v>
       </c>
       <c r="Z163" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA163" t="n">
         <v>1000</v>
@@ -22504,7 +22504,7 @@
         <v>1000</v>
       </c>
       <c r="AN163" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO163" t="n">
         <v>1000</v>
@@ -22552,7 +22552,7 @@
         <v>4.2</v>
       </c>
       <c r="K164" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L164" t="n">
         <v>1.3</v>
@@ -22585,7 +22585,7 @@
         <v>2.06</v>
       </c>
       <c r="V164" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W164" t="n">
         <v>2.56</v>
@@ -22675,55 +22675,55 @@
         <v>3.4</v>
       </c>
       <c r="G165" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H165" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I165" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J165" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K165" t="n">
         <v>3.8</v>
       </c>
       <c r="L165" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M165" t="n">
         <v>1.06</v>
       </c>
       <c r="N165" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O165" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P165" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q165" t="n">
         <v>1.89</v>
       </c>
       <c r="R165" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S165" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T165" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U165" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V165" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W165" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X165" t="n">
         <v>16</v>
@@ -22762,19 +22762,19 @@
         <v>38</v>
       </c>
       <c r="AJ165" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK165" t="n">
         <v>42</v>
       </c>
       <c r="AL165" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM165" t="n">
         <v>90</v>
       </c>
       <c r="AN165" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO165" t="n">
         <v>970</v>
@@ -22843,7 +22843,7 @@
         <v>2.66</v>
       </c>
       <c r="R166" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="S166" t="n">
         <v>2.66</v>
@@ -22966,19 +22966,19 @@
         <v>1.01</v>
       </c>
       <c r="N167" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="O167" t="n">
         <v>1.13</v>
       </c>
       <c r="P167" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="Q167" t="n">
         <v>1.13</v>
       </c>
       <c r="R167" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S167" t="n">
         <v>1.13</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-31.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Mazatlan FC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.22</v>
+        <v>1.02</v>
       </c>
       <c r="G2" t="n">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="I2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>5.2</v>
+        <v>26</v>
       </c>
       <c r="K2" t="n">
-        <v>6.4</v>
+        <v>55</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,94 +691,94 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,37 +788,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Atletico San Luis</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.78</v>
+        <v>110</v>
       </c>
       <c r="G3" t="n">
-        <v>1.81</v>
+        <v>330</v>
       </c>
       <c r="H3" t="n">
-        <v>8.4</v>
+        <v>1.12</v>
       </c>
       <c r="I3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K3" t="n">
         <v>9.6</v>
       </c>
-      <c r="J3" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.1</v>
-      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
@@ -826,34 +826,34 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.12</v>
+        <v>7.8</v>
       </c>
       <c r="W3" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,52 +868,52 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.14</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM3" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,90 +923,90 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Boyaca Chico</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Club 2 de Mayo</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O4" t="n">
+        <v>12</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.01</v>
       </c>
-      <c r="G4" t="n">
+      <c r="Q4" t="n">
+        <v>65</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.01</v>
       </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J4" t="n">
-        <v>55</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="W4" t="n">
-        <v>50</v>
+        <v>1.11</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>1.66</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1015,7 +1015,7 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AG4" t="n">
         <v>1000</v>
@@ -1030,16 +1030,16 @@
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.59</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,90 +1058,90 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Carabobo FC</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Portuguesa FC</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.65</v>
+        <v>1.01</v>
       </c>
       <c r="G5" t="n">
-        <v>3.95</v>
+        <v>950</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>950</v>
       </c>
       <c r="J5" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>1.54</v>
+        <v>1.85</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>1.97</v>
       </c>
       <c r="N5" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="O5" t="n">
-        <v>19.5</v>
+        <v>6.6</v>
       </c>
       <c r="P5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="R5" t="n">
         <v>1.01</v>
       </c>
       <c r="S5" t="n">
-        <v>740</v>
+        <v>150</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>1.58</v>
+        <v>2.08</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.5</v>
+        <v>830</v>
       </c>
       <c r="Z5" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>5</v>
+        <v>820</v>
       </c>
       <c r="AC5" t="n">
-        <v>60</v>
+        <v>990</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,10 +1150,10 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>460</v>
+        <v>990</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CF America</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Sportivo San Lorenzo</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="G6" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="H6" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I6" t="n">
-        <v>690</v>
+        <v>280</v>
       </c>
       <c r="J6" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="K6" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,34 +1231,34 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>2.74</v>
       </c>
       <c r="P6" t="n">
-        <v>1.95</v>
+        <v>1.07</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>13.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="S6" t="n">
-        <v>4.4</v>
+        <v>70</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>6.8</v>
       </c>
       <c r="U6" t="n">
-        <v>1.72</v>
+        <v>1.11</v>
       </c>
       <c r="V6" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>5.1</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1273,43 +1273,43 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AH6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Atl Tucuman</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>CA Huracan</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="G7" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N7" t="n">
         <v>2.32</v>
       </c>
-      <c r="H7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.14</v>
       </c>
-      <c r="N7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.19</v>
-      </c>
       <c r="S7" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="U7" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="V7" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="W7" t="n">
-        <v>1.76</v>
+        <v>1.54</v>
       </c>
       <c r="X7" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC7" t="n">
         <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL7" t="n">
         <v>100</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>70</v>
-      </c>
       <c r="AM7" t="n">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AO7" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Atletico San Luis</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>2.04</v>
       </c>
       <c r="G8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H8" t="n">
         <v>5.2</v>
       </c>
-      <c r="H8" t="n">
-        <v>1.83</v>
-      </c>
       <c r="I8" t="n">
-        <v>1.86</v>
+        <v>5.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.71</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>2.42</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.68</v>
       </c>
       <c r="P8" t="n">
-        <v>2.02</v>
+        <v>1.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.94</v>
+        <v>3.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.39</v>
+        <v>1.16</v>
       </c>
       <c r="S8" t="n">
-        <v>3.45</v>
+        <v>6.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>2.16</v>
+        <v>1.23</v>
       </c>
       <c r="W8" t="n">
-        <v>1.23</v>
+        <v>1.92</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>7.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF8" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>42</v>
-      </c>
       <c r="AG8" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AI8" t="n">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="AJ8" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>340</v>
       </c>
       <c r="AN8" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Deportivo La Guaira</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="G9" t="n">
-        <v>1.92</v>
+        <v>1.74</v>
       </c>
       <c r="H9" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
         <v>4.6</v>
       </c>
-      <c r="I9" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.55</v>
-      </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="S9" t="n">
-        <v>3.8</v>
+        <v>2.98</v>
       </c>
       <c r="T9" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="V9" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>15.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:10:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Leon</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.84</v>
+        <v>3.85</v>
       </c>
       <c r="G10" t="n">
-        <v>1.87</v>
+        <v>3.95</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4.9</v>
+        <v>2.12</v>
       </c>
       <c r="J10" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="U10" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="W10" t="n">
-        <v>2.12</v>
+        <v>1.34</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.6</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AJ10" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AK10" t="n">
-        <v>19.5</v>
+        <v>46</v>
       </c>
       <c r="AL10" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AO10" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Boyaca Chico</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>2.92</v>
       </c>
       <c r="G11" t="n">
-        <v>5.3</v>
+        <v>3.15</v>
       </c>
       <c r="H11" t="n">
-        <v>1.93</v>
+        <v>2.98</v>
       </c>
       <c r="I11" t="n">
-        <v>1.97</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>2.76</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>2.94</v>
       </c>
       <c r="L11" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="M11" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="N11" t="n">
-        <v>2.78</v>
+        <v>2.42</v>
       </c>
       <c r="O11" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="P11" t="n">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.64</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="S11" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="T11" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V11" t="n">
-        <v>2.02</v>
+        <v>1.45</v>
       </c>
       <c r="W11" t="n">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
       <c r="X11" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.4</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AH11" t="n">
         <v>26</v>
       </c>
       <c r="AI11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>60</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>160</v>
-      </c>
       <c r="AK11" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AL11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM11" t="n">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="AN11" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -2003,1070 +2003,125 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CD Victoria</t>
+          <t>CD Olimpia</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CD Marathon</t>
+          <t>Juticalpa</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.3</v>
+        <v>1.27</v>
       </c>
       <c r="G12" t="n">
-        <v>6.2</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.68</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>1.78</v>
+        <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>5.7</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>3.85</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>1.96</v>
+        <v>2.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="S12" t="n">
-        <v>3.35</v>
+        <v>2.56</v>
       </c>
       <c r="T12" t="n">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="U12" t="n">
-        <v>1.96</v>
+        <v>1.72</v>
       </c>
       <c r="V12" t="n">
-        <v>2.26</v>
+        <v>1.06</v>
       </c>
       <c r="W12" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="Y12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
         <v>8.6</v>
       </c>
-      <c r="Z12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>60</v>
-      </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="AO12" t="n">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Paraguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-01-31</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Club Sportivo Ameliano</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Sportivo San Lorenzo</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>600</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-01-31</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Atl Tucuman</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>CA Huracan</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>270</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-01-31</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Talleres</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>CA Platense</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S15" t="n">
-        <v>7</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="X15" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>300</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2026-01-31</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Monterrey</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Tijuana</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="X16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-01-31</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>22:10:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Leon</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Tigres</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X17" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-01-31</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Orsomarso</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Union Magdalena</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X18" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-01-31</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CD Olimpia</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Juticalpa</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W19" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO19" t="n">
         <v>1000</v>
       </c>
     </row>
